--- a/configs/test_results.xlsx
+++ b/configs/test_results.xlsx
@@ -58,12 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O102"/>
+  <dimension ref="A1:O112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5700,7 +5701,7 @@
       </c>
       <c r="L102" t="inlineStr"/>
       <c r="M102" s="2" t="n">
-        <v>45905.77089623117</v>
+        <v>45905.77089622685</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -5708,6 +5709,576 @@
         </is>
       </c>
       <c r="O102" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_AIDS_with_SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>AIDS</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E103" t="n">
+        <v>6.855555555555555e-07</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1.162037037037037e-07</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.9925</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.9924467959850469</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.9925698757763974</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.9925</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.9814814814814815</v>
+      </c>
+      <c r="L103" s="2" t="n">
+        <v>45910.64188774306</v>
+      </c>
+      <c r="M103" s="2" t="n">
+        <v>45910.64188697917</v>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_AIDS_with_SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>AIDS</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E104" t="n">
+        <v>6.855555555555555e-07</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1.162037037037037e-07</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.9949765625000001</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.9950311526479751</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.9876543209876543</v>
+      </c>
+      <c r="L104" s="2" t="n">
+        <v>45910.64188774306</v>
+      </c>
+      <c r="M104" s="2" t="n">
+        <v>45910.64188697917</v>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_PTC_FR_with_SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1.629976851851852e-07</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1.989583333333333e-08</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.5070422535211268</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.5082502365633458</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.5096530401923738</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.5070422535211268</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.4926108374384236</v>
+      </c>
+      <c r="L105" s="2" t="n">
+        <v>45910.6429222338</v>
+      </c>
+      <c r="M105" s="2" t="n">
+        <v>45910.64292207176</v>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_PTC_FR_with_SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1.629976851851852e-07</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1.989583333333333e-08</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.5915492957746479</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.4397357596908887</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.3499305693314819</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.5915492957746479</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L106" s="2" t="n">
+        <v>45910.6429222338</v>
+      </c>
+      <c r="M106" s="2" t="n">
+        <v>45910.64292207176</v>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1.471296296296296e-07</v>
+      </c>
+      <c r="F107" t="n">
+        <v>7.083333333333334e-09</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.7989203778677463</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.8258145363408521</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.7928571428571429</v>
+      </c>
+      <c r="L107" s="2" t="n">
+        <v>45910.64468162037</v>
+      </c>
+      <c r="M107" s="2" t="n">
+        <v>45910.64468146991</v>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1.471296296296296e-07</v>
+      </c>
+      <c r="F108" t="n">
+        <v>7.083333333333334e-09</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.6842105263157895</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.7030075187969925</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.7801169590643275</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.6842105263157895</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.7214285714285714</v>
+      </c>
+      <c r="L108" s="2" t="n">
+        <v>45910.64468162037</v>
+      </c>
+      <c r="M108" s="2" t="n">
+        <v>45910.64468146991</v>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E109" t="n">
+        <v>2.213078703703704e-07</v>
+      </c>
+      <c r="F109" t="n">
+        <v>6.261574074074074e-09</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.7105263157894737</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.7119788719109601</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.7144138755980861</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.7105263157894737</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.7028985507246377</v>
+      </c>
+      <c r="L109" s="2" t="n">
+        <v>45910.64681074074</v>
+      </c>
+      <c r="M109" s="2" t="n">
+        <v>45910.64681050926</v>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E110" t="n">
+        <v>2.213078703703704e-07</v>
+      </c>
+      <c r="F110" t="n">
+        <v>6.261574074074074e-09</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.8111946532999164</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.8178137651821862</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.7898550724637682</v>
+      </c>
+      <c r="L110" s="2" t="n">
+        <v>45910.64681074074</v>
+      </c>
+      <c r="M110" s="2" t="n">
+        <v>45910.64681050926</v>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_Letter-high_with_SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E111" t="n">
+        <v>5.55255787037037e-06</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1.163310185185185e-07</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.8755555555555555</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.9075116598079562</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.9628330876493202</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.8755555555555555</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.8847234094517036</v>
+      </c>
+      <c r="L111" s="2" t="n">
+        <v>45910.65059689815</v>
+      </c>
+      <c r="M111" s="2" t="n">
+        <v>45910.65059133102</v>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_Letter-high_with_SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E112" s="3" t="n">
+        <v>5.55255787037037e-06</v>
+      </c>
+      <c r="F112" s="3" t="n">
+        <v>1.163310185185185e-07</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.9577777777777777</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.9371219573716736</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.9173382716049383</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.9577777777777777</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L112" s="2" t="n">
+        <v>45910.65059689566</v>
+      </c>
+      <c r="M112" s="2" t="n">
+        <v>45910.65059132913</v>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
         <is>
           <t>Hyperparameter Tuning (grid)</t>
         </is>

--- a/configs/test_results.xlsx
+++ b/configs/test_results.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O112"/>
+  <dimension ref="A1:O128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6246,10 +6246,10 @@
       <c r="D112" t="n">
         <v>0.2</v>
       </c>
-      <c r="E112" s="3" t="n">
+      <c r="E112" t="n">
         <v>5.55255787037037e-06</v>
       </c>
-      <c r="F112" s="3" t="n">
+      <c r="F112" t="n">
         <v>1.163310185185185e-07</v>
       </c>
       <c r="G112" t="n">
@@ -6268,10 +6268,10 @@
         <v>0.5</v>
       </c>
       <c r="L112" s="2" t="n">
-        <v>45910.65059689566</v>
+        <v>45910.65059689815</v>
       </c>
       <c r="M112" s="2" t="n">
-        <v>45910.65059132913</v>
+        <v>45910.65059133102</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -6279,6 +6279,918 @@
         </is>
       </c>
       <c r="O112" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_Letter-high_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E113" t="n">
+        <v>4.726797453703704e-05</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1.169179398148148e-05</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.03111111111111111</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.009831482319044507</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.008878965089491406</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.03111111111111111</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" s="2" t="n">
+        <v>45912.60330827547</v>
+      </c>
+      <c r="M113" s="2" t="n">
+        <v>45912.60326099537</v>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_Letter-high_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E114" t="n">
+        <v>3.693153935185185e-05</v>
+      </c>
+      <c r="F114" t="n">
+        <v>9.869791666666667e-06</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.4711111111111111</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.4643883570196614</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.4972378117722602</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.4711111111111111</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" s="2" t="n">
+        <v>45912.6047197338</v>
+      </c>
+      <c r="M114" s="2" t="n">
+        <v>45912.60468278935</v>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_Letter-high_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E115" t="n">
+        <v>3.414002314814815e-05</v>
+      </c>
+      <c r="F115" t="n">
+        <v>8.256493055555557e-06</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.4911111111111111</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.4829481352785313</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.505079568830741</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.4911111111111111</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" s="2" t="n">
+        <v>45912.60630778935</v>
+      </c>
+      <c r="M115" s="2" t="n">
+        <v>45912.60627363426</v>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_Letter-high_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E116" t="n">
+        <v>3.405554398148148e-05</v>
+      </c>
+      <c r="F116" t="n">
+        <v>8.418587962962962e-06</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.5155555555555555</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.507561490583848</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.5272391631728707</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.5155555555555555</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" s="2" t="n">
+        <v>45912.60910956019</v>
+      </c>
+      <c r="M116" s="2" t="n">
+        <v>45912.60907547454</v>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E117" t="n">
+        <v>2.130439814814815e-07</v>
+      </c>
+      <c r="F117" t="n">
+        <v>5.905092592592592e-08</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.8362753036437246</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.8520290625553782</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" s="2" t="n">
+        <v>45912.61058741898</v>
+      </c>
+      <c r="M117" s="2" t="n">
+        <v>45912.6105871875</v>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E118" t="n">
+        <v>2.159837962962963e-07</v>
+      </c>
+      <c r="F118" t="n">
+        <v>7.855324074074074e-08</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.7319838056680164</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.7314439946018894</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" s="2" t="n">
+        <v>45912.61173458333</v>
+      </c>
+      <c r="M118" s="2" t="n">
+        <v>45912.61173435185</v>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E119" t="n">
+        <v>2.29537037037037e-07</v>
+      </c>
+      <c r="F119" t="n">
+        <v>7.258101851851852e-08</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.9473684210526315</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.9463967611336033</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.951417004048583</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.9473684210526315</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="L119" s="2" t="n">
+        <v>45912.61266902777</v>
+      </c>
+      <c r="M119" s="2" t="n">
+        <v>45912.61266877314</v>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1.83113425925926e-07</v>
+      </c>
+      <c r="F120" t="n">
+        <v>9.755787037037038e-08</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.8697626418988649</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.8723886639676115</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.8589743589743589</v>
+      </c>
+      <c r="L120" s="2" t="n">
+        <v>45912.612916875</v>
+      </c>
+      <c r="M120" s="2" t="n">
+        <v>45912.61291667824</v>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1.83113425925926e-07</v>
+      </c>
+      <c r="F121" t="n">
+        <v>9.755787037037038e-08</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.9210526315789473</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.9218575851393189</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.9240485829959514</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.9210526315789473</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.9198717948717948</v>
+      </c>
+      <c r="L121" s="2" t="n">
+        <v>45912.612916875</v>
+      </c>
+      <c r="M121" s="2" t="n">
+        <v>45912.61291667824</v>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E122" t="n">
+        <v>2.246180555555556e-07</v>
+      </c>
+      <c r="F122" t="n">
+        <v>5.369212962962963e-08</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.7912679425837321</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.7974347633790358</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0.7913043478260869</v>
+      </c>
+      <c r="L122" s="2" t="n">
+        <v>45912.61332822917</v>
+      </c>
+      <c r="M122" s="2" t="n">
+        <v>45912.61332799769</v>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E123" t="n">
+        <v>2.086458333333334e-07</v>
+      </c>
+      <c r="F123" t="n">
+        <v>9.187500000000001e-08</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.8385627530364372</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.8403331561226298</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0.8061538461538462</v>
+      </c>
+      <c r="L123" s="2" t="n">
+        <v>45912.61519488426</v>
+      </c>
+      <c r="M123" s="2" t="n">
+        <v>45912.61519466435</v>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E124" t="n">
+        <v>5.028587962962963e-07</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1.613773148148148e-07</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.8527327935222672</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.9052631578947368</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.896551724137931</v>
+      </c>
+      <c r="L124" s="2" t="n">
+        <v>45912.61885483797</v>
+      </c>
+      <c r="M124" s="2" t="n">
+        <v>45912.61885425926</v>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E125" t="n">
+        <v>4.137615740740741e-07</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1.035185185185185e-07</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.9210526315789473</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.9245386192754613</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0.9407894736842105</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.9210526315789473</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0.9482758620689655</v>
+      </c>
+      <c r="L125" s="2" t="n">
+        <v>45912.65649662037</v>
+      </c>
+      <c r="M125" s="2" t="n">
+        <v>45912.65649607639</v>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E126" t="n">
+        <v>4.137615740740741e-07</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1.035185185185185e-07</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.9210526315789473</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.9245386192754613</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.9407894736842105</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.9210526315789473</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.9482758620689655</v>
+      </c>
+      <c r="L126" s="2" t="n">
+        <v>45912.65649662037</v>
+      </c>
+      <c r="M126" s="2" t="n">
+        <v>45912.65649607639</v>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E127" t="n">
+        <v>2.073958333333333e-07</v>
+      </c>
+      <c r="F127" t="n">
+        <v>7.221064814814814e-08</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.8204112431616677</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.8530701754385964</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0.8415384615384617</v>
+      </c>
+      <c r="L127" s="2" t="n">
+        <v>45912.65889356482</v>
+      </c>
+      <c r="M127" s="2" t="n">
+        <v>45912.65889335648</v>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E128" s="3" t="n">
+        <v>2.073958333333333e-07</v>
+      </c>
+      <c r="F128" s="3" t="n">
+        <v>7.221064814814814e-08</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.8710275321465806</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.8845693779904306</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0.8815384615384615</v>
+      </c>
+      <c r="L128" s="2" t="n">
+        <v>45912.65889356853</v>
+      </c>
+      <c r="M128" s="2" t="n">
+        <v>45912.65889335229</v>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O128" t="inlineStr">
         <is>
           <t>Hyperparameter Tuning (grid)</t>
         </is>

--- a/configs/test_results.xlsx
+++ b/configs/test_results.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O128"/>
+  <dimension ref="A1:O134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7158,10 +7158,10 @@
       <c r="D128" t="n">
         <v>0.2</v>
       </c>
-      <c r="E128" s="3" t="n">
+      <c r="E128" t="n">
         <v>2.073958333333333e-07</v>
       </c>
-      <c r="F128" s="3" t="n">
+      <c r="F128" t="n">
         <v>7.221064814814814e-08</v>
       </c>
       <c r="G128" t="n">
@@ -7180,10 +7180,10 @@
         <v>0.8815384615384615</v>
       </c>
       <c r="L128" s="2" t="n">
-        <v>45912.65889356853</v>
+        <v>45912.65889356482</v>
       </c>
       <c r="M128" s="2" t="n">
-        <v>45912.65889335229</v>
+        <v>45912.65889335648</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -7191,6 +7191,348 @@
         </is>
       </c>
       <c r="O128" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E129" t="n">
+        <v>2.055787037037037e-07</v>
+      </c>
+      <c r="F129" t="n">
+        <v>6.157407407407407e-08</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.8679574199770038</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0.8687200956937801</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0.8641456582633052</v>
+      </c>
+      <c r="L129" s="2" t="n">
+        <v>45913.53986631944</v>
+      </c>
+      <c r="M129" s="2" t="n">
+        <v>45913.53986611111</v>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>Dummy_Calculator</t>
+        </is>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E130" t="n">
+        <v>2.055787037037037e-07</v>
+      </c>
+      <c r="F130" t="n">
+        <v>6.157407407407407e-08</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.8938397129186604</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0.898093058733791</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0.8879551820728291</v>
+      </c>
+      <c r="L130" s="2" t="n">
+        <v>45913.53986631944</v>
+      </c>
+      <c r="M130" s="2" t="n">
+        <v>45913.53986611111</v>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>Dummy_Calculator</t>
+        </is>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E131" t="n">
+        <v>2.166550925925926e-07</v>
+      </c>
+      <c r="F131" t="n">
+        <v>6.057870370370371e-08</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.8635637494063296</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0.8718045112781955</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0.8261538461538461</v>
+      </c>
+      <c r="L131" s="2" t="n">
+        <v>45913.61776412037</v>
+      </c>
+      <c r="M131" s="2" t="n">
+        <v>45913.61776390046</v>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>Dummy_Calculator</t>
+        </is>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E132" t="n">
+        <v>2.166550925925926e-07</v>
+      </c>
+      <c r="F132" t="n">
+        <v>6.057870370370371e-08</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.8173210804789752</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0.8200187969924811</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0.8046153846153845</v>
+      </c>
+      <c r="L132" s="2" t="n">
+        <v>45913.61776412037</v>
+      </c>
+      <c r="M132" s="2" t="n">
+        <v>45913.61776390046</v>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>Dummy_Calculator</t>
+        </is>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E133" t="n">
+        <v>2.042708333333333e-07</v>
+      </c>
+      <c r="F133" t="n">
+        <v>6.020833333333333e-08</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.8643962848297214</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0.8729399255715045</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0.8363095238095238</v>
+      </c>
+      <c r="L133" s="2" t="n">
+        <v>45913.61797832176</v>
+      </c>
+      <c r="M133" s="2" t="n">
+        <v>45913.61797810185</v>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E134" s="3" t="n">
+        <v>2.042708333333333e-07</v>
+      </c>
+      <c r="F134" s="3" t="n">
+        <v>6.020833333333333e-08</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0.7968102073365231</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0.8573853989813243</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="L134" s="2" t="n">
+        <v>45913.61797831874</v>
+      </c>
+      <c r="M134" s="2" t="n">
+        <v>45913.61797810708</v>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O134" t="inlineStr">
         <is>
           <t>Hyperparameter Tuning (grid)</t>
         </is>

--- a/configs/test_results.xlsx
+++ b/configs/test_results.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O134"/>
+  <dimension ref="A1:O247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7500,10 +7500,10 @@
       <c r="D134" t="n">
         <v>0.2</v>
       </c>
-      <c r="E134" s="3" t="n">
+      <c r="E134" t="n">
         <v>2.042708333333333e-07</v>
       </c>
-      <c r="F134" s="3" t="n">
+      <c r="F134" t="n">
         <v>6.020833333333333e-08</v>
       </c>
       <c r="G134" t="n">
@@ -7522,10 +7522,10 @@
         <v>0.75</v>
       </c>
       <c r="L134" s="2" t="n">
-        <v>45913.61797831874</v>
+        <v>45913.61797832176</v>
       </c>
       <c r="M134" s="2" t="n">
-        <v>45913.61797810708</v>
+        <v>45913.61797810185</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -7533,6 +7533,6447 @@
         </is>
       </c>
       <c r="O134" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E135" t="n">
+        <v>2.120138888888889e-07</v>
+      </c>
+      <c r="F135" t="n">
+        <v>6.160879629629629e-08</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0.8239234449760765</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0.8426113360323888</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0.8026819923371648</v>
+      </c>
+      <c r="L135" s="2" t="n">
+        <v>45913.64054178241</v>
+      </c>
+      <c r="M135" s="2" t="n">
+        <v>45913.6405415625</v>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E136" t="n">
+        <v>2.120138888888889e-07</v>
+      </c>
+      <c r="F136" t="n">
+        <v>6.160879629629629e-08</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.7631578947368421</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.7673130193905816</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0.7725563909774436</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.7631578947368421</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0.6915708812260536</v>
+      </c>
+      <c r="L136" s="2" t="n">
+        <v>45913.64054178241</v>
+      </c>
+      <c r="M136" s="2" t="n">
+        <v>45913.6405415625</v>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_Letter-high_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E137" t="n">
+        <v>2.848659722222222e-05</v>
+      </c>
+      <c r="F137" t="n">
+        <v>7.112650462962963e-06</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.5022222222222222</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.4939549695206668</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0.5205358475884792</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.5022222222222222</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" s="2" t="n">
+        <v>45913.64732755787</v>
+      </c>
+      <c r="M137" s="2" t="n">
+        <v>45913.6472990625</v>
+      </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_Letter-high_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E138" t="n">
+        <v>2.888184027777778e-05</v>
+      </c>
+      <c r="F138" t="n">
+        <v>7.285856481481481e-06</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.4933333333333333</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.4872637277293728</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0.5166641679520989</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.4933333333333333</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" s="2" t="n">
+        <v>45913.65050219907</v>
+      </c>
+      <c r="M138" s="2" t="n">
+        <v>45913.65047331018</v>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_Letter-high_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E139" t="n">
+        <v>2.838298611111111e-05</v>
+      </c>
+      <c r="F139" t="n">
+        <v>7.389837962962963e-06</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.4977777777777778</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0.4832598933689676</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0.5013327618341141</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.4977777777777778</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" s="2" t="n">
+        <v>45913.65129641203</v>
+      </c>
+      <c r="M139" s="2" t="n">
+        <v>45913.65126802083</v>
+      </c>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E140" t="n">
+        <v>2.104629629629629e-07</v>
+      </c>
+      <c r="F140" t="n">
+        <v>6.357638888888889e-08</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0.808131439710387</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0.8330675172780435</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0.7897727272727273</v>
+      </c>
+      <c r="L140" s="2" t="n">
+        <v>45913.65186983797</v>
+      </c>
+      <c r="M140" s="2" t="n">
+        <v>45913.65186961806</v>
+      </c>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E141" t="n">
+        <v>2.104629629629629e-07</v>
+      </c>
+      <c r="F141" t="n">
+        <v>6.357638888888889e-08</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0.7778137651821863</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0.8131578947368421</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0.7585227272727273</v>
+      </c>
+      <c r="L141" s="2" t="n">
+        <v>45913.65186983797</v>
+      </c>
+      <c r="M141" s="2" t="n">
+        <v>45913.65186961806</v>
+      </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E142" t="n">
+        <v>2.175694444444444e-07</v>
+      </c>
+      <c r="F142" t="n">
+        <v>6.47337962962963e-08</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.8724458204334367</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0.8876879699248121</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0.8804713804713804</v>
+      </c>
+      <c r="L142" s="2" t="n">
+        <v>45913.65445490741</v>
+      </c>
+      <c r="M142" s="2" t="n">
+        <v>45913.65445467593</v>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E143" t="n">
+        <v>2.175694444444444e-07</v>
+      </c>
+      <c r="F143" t="n">
+        <v>6.47337962962963e-08</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0.8080808080808081</v>
+      </c>
+      <c r="L143" s="2" t="n">
+        <v>45913.65445490741</v>
+      </c>
+      <c r="M143" s="2" t="n">
+        <v>45913.65445467593</v>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E144" t="n">
+        <v>2.107638888888889e-07</v>
+      </c>
+      <c r="F144" t="n">
+        <v>6.364583333333334e-08</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.9210526315789473</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0.9222146274777854</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0.9248626617047669</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.9210526315789473</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0.9142857142857144</v>
+      </c>
+      <c r="L144" s="2" t="n">
+        <v>45913.6546618287</v>
+      </c>
+      <c r="M144" s="2" t="n">
+        <v>45913.65466160879</v>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E145" t="n">
+        <v>2.107638888888889e-07</v>
+      </c>
+      <c r="F145" t="n">
+        <v>6.364583333333334e-08</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0.866112650046168</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0.8652954224642065</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0.8142857142857143</v>
+      </c>
+      <c r="L145" s="2" t="n">
+        <v>45913.6546618287</v>
+      </c>
+      <c r="M145" s="2" t="n">
+        <v>45913.65466160879</v>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_Letter-high_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E146" t="n">
+        <v>2.805518518518518e-05</v>
+      </c>
+      <c r="F146" t="n">
+        <v>7.109513888888889e-06</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0.4964598639125283</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0.5179984895423676</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" s="2" t="n">
+        <v>45913.65511253473</v>
+      </c>
+      <c r="M146" s="2" t="n">
+        <v>45913.65508446759</v>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_Letter-high_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E147" t="n">
+        <v>2.840866898148148e-05</v>
+      </c>
+      <c r="F147" t="n">
+        <v>7.149652777777777e-06</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.4866666666666667</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0.4752281218162667</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0.4964199736101605</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.4866666666666667</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L147" s="2" t="n">
+        <v>45913.65564542824</v>
+      </c>
+      <c r="M147" s="2" t="n">
+        <v>45913.65561700232</v>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_Letter-high_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E148" t="n">
+        <v>2.929483796296297e-05</v>
+      </c>
+      <c r="F148" t="n">
+        <v>7.135763888888889e-06</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.5466666666666666</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0.5393856154087793</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0.5761432510399596</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.5466666666666666</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L148" s="2" t="n">
+        <v>45913.66035568287</v>
+      </c>
+      <c r="M148" s="2" t="n">
+        <v>45913.66032637731</v>
+      </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_Letter-high_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E149" t="n">
+        <v>2.929483796296297e-05</v>
+      </c>
+      <c r="F149" t="n">
+        <v>7.135763888888889e-06</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.5377777777777778</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0.539019794020044</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0.6493984081626757</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.5377777777777778</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" s="2" t="n">
+        <v>45913.66035568287</v>
+      </c>
+      <c r="M149" s="2" t="n">
+        <v>45913.66032637731</v>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_Letter-high_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E150" t="n">
+        <v>2.952511574074074e-05</v>
+      </c>
+      <c r="F150" t="n">
+        <v>7.401678240740741e-06</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.4755555555555556</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0.4739706278529559</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0.506526278517246</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.4755555555555556</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L150" s="2" t="n">
+        <v>45913.66196864584</v>
+      </c>
+      <c r="M150" s="2" t="n">
+        <v>45913.6619391088</v>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_Letter-high_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E151" t="n">
+        <v>2.952511574074074e-05</v>
+      </c>
+      <c r="F151" t="n">
+        <v>7.401678240740741e-06</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.4844444444444445</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0.4854317015392038</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0.5344149222760122</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.4844444444444445</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L151" s="2" t="n">
+        <v>45913.66196864584</v>
+      </c>
+      <c r="M151" s="2" t="n">
+        <v>45913.6619391088</v>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_Letter-high_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E152" t="n">
+        <v>3.031684027777777e-05</v>
+      </c>
+      <c r="F152" t="n">
+        <v>7.627048611111111e-06</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0.01398589065255732</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0.01527509421034601</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L152" s="2" t="n">
+        <v>45913.67086850695</v>
+      </c>
+      <c r="M152" s="2" t="n">
+        <v>45913.67083818287</v>
+      </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_Letter-high_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E153" t="n">
+        <v>3.031684027777777e-05</v>
+      </c>
+      <c r="F153" t="n">
+        <v>7.627048611111111e-06</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.07777777777777778</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0.01122565864833906</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0.006049382716049383</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.07777777777777778</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L153" s="2" t="n">
+        <v>45913.67086850695</v>
+      </c>
+      <c r="M153" s="2" t="n">
+        <v>45913.67083818287</v>
+      </c>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_Letter-high_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E154" t="n">
+        <v>2.85440625e-05</v>
+      </c>
+      <c r="F154" t="n">
+        <v>7.129826388888889e-06</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0.4892044576452223</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0.5268819298419517</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L154" s="2" t="n">
+        <v>45913.67196922454</v>
+      </c>
+      <c r="M154" s="2" t="n">
+        <v>45913.67194067129</v>
+      </c>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_Letter-high_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E155" t="n">
+        <v>2.85440625e-05</v>
+      </c>
+      <c r="F155" t="n">
+        <v>7.129826388888889e-06</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.5133333333333333</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0.4985365701607363</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0.5480651327788167</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.5133333333333333</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" s="2" t="n">
+        <v>45913.67196922454</v>
+      </c>
+      <c r="M155" s="2" t="n">
+        <v>45913.67194067129</v>
+      </c>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>WeisfeilerLehman_SVC</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E156" t="n">
+        <v>2.315648148148148e-06</v>
+      </c>
+      <c r="F156" t="n">
+        <v>6.336805555555555e-07</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0.08609529108841757</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0.3566091954022988</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L156" s="2" t="n">
+        <v>45913.72767268519</v>
+      </c>
+      <c r="M156" s="2" t="n">
+        <v>45913.7276703588</v>
+      </c>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>WeisfeilerLehman_SVC</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E157" t="n">
+        <v>2.315648148148148e-06</v>
+      </c>
+      <c r="F157" t="n">
+        <v>6.336805555555555e-07</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0.03913043478260869</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0.0225</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" s="2" t="n">
+        <v>45913.72767268519</v>
+      </c>
+      <c r="M157" s="2" t="n">
+        <v>45913.7276703588</v>
+      </c>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>VertexHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E158" t="n">
+        <v>6.441319444444445e-07</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1.640393518518519e-07</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0.05138888888888889</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0.2119047619047619</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L158" s="2" t="n">
+        <v>45913.72778729167</v>
+      </c>
+      <c r="M158" s="2" t="n">
+        <v>45913.72778664352</v>
+      </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>VertexHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E159" t="n">
+        <v>6.441319444444445e-07</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1.640393518518519e-07</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0.05138888888888889</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0.2119047619047619</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L159" s="2" t="n">
+        <v>45913.72778729167</v>
+      </c>
+      <c r="M159" s="2" t="n">
+        <v>45913.72778664352</v>
+      </c>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>EdgeHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1.243703703703704e-06</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1.474305555555555e-07</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.1916666666666667</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0.1089678068410463</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0.08219077568134171</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.1916666666666667</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L160" s="2" t="n">
+        <v>45913.72780873843</v>
+      </c>
+      <c r="M160" s="2" t="n">
+        <v>45913.72780748842</v>
+      </c>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>EdgeHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1.243703703703704e-06</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1.474305555555555e-07</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.1833333333333333</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0.09547368421052631</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0.06475095785440613</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.1833333333333333</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L161" s="2" t="n">
+        <v>45913.72780873843</v>
+      </c>
+      <c r="M161" s="2" t="n">
+        <v>45913.72780748842</v>
+      </c>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>CombinedHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1.770428240740741e-06</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1.689583333333333e-07</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.1833333333333333</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0.1326028138528139</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0.2968567426970788</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.1833333333333333</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" s="2" t="n">
+        <v>45913.72783034722</v>
+      </c>
+      <c r="M162" s="2" t="n">
+        <v>45913.72782857639</v>
+      </c>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>CombinedHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1.770428240740741e-06</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1.689583333333333e-07</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.1833333333333333</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0.1326028138528139</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0.2968567426970788</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.1833333333333333</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L163" s="2" t="n">
+        <v>45913.72783034722</v>
+      </c>
+      <c r="M163" s="2" t="n">
+        <v>45913.72782857639</v>
+      </c>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>NX_Histogram_SVC</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>SVC_NX_combined_Histogram_rbf</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E164" t="n">
+        <v>2.22541087962963e-05</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1.434331018518519e-05</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0.1519893098840467</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0.2765869272237197</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L164" s="2" t="n">
+        <v>45913.72791674769</v>
+      </c>
+      <c r="M164" s="2" t="n">
+        <v>45913.72789449074</v>
+      </c>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>WeisfeilerLehman_SVC</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1.975196759259259e-06</v>
+      </c>
+      <c r="F165" t="n">
+        <v>5.078935185185185e-07</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0.3223994186500744</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0.3647942846627057</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L165" s="2" t="n">
+        <v>45913.73409707176</v>
+      </c>
+      <c r="M165" s="2" t="n">
+        <v>45913.73409509259</v>
+      </c>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>WeisfeilerLehman_SVC</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1.975196759259259e-06</v>
+      </c>
+      <c r="F166" t="n">
+        <v>5.078935185185185e-07</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0.2928901799954431</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0.3361111111111111</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L166" s="2" t="n">
+        <v>45913.73409707176</v>
+      </c>
+      <c r="M166" s="2" t="n">
+        <v>45913.73409509259</v>
+      </c>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>VertexHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1.420474537037037e-06</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1.405671296296296e-07</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.2416666666666667</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0.1641681574239714</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0.126036231884058</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.2416666666666667</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L167" s="2" t="n">
+        <v>45913.73419482639</v>
+      </c>
+      <c r="M167" s="2" t="n">
+        <v>45913.73419340278</v>
+      </c>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>VertexHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1.420474537037037e-06</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1.405671296296296e-07</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0.2031954887218045</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0.1565548281505728</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L168" s="2" t="n">
+        <v>45913.73419482639</v>
+      </c>
+      <c r="M168" s="2" t="n">
+        <v>45913.73419340278</v>
+      </c>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>EdgeHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1.208923611111111e-06</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1.306828703703704e-07</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.2416666666666667</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0.149742668151598</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0.1257222222222222</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.2416666666666667</v>
+      </c>
+      <c r="K169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L169" s="2" t="n">
+        <v>45913.73421505787</v>
+      </c>
+      <c r="M169" s="2" t="n">
+        <v>45913.7342138426</v>
+      </c>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>EdgeHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1.208923611111111e-06</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1.306828703703704e-07</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0.127811167945439</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0.1035736875395319</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L170" s="2" t="n">
+        <v>45913.73421505787</v>
+      </c>
+      <c r="M170" s="2" t="n">
+        <v>45913.7342138426</v>
+      </c>
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>CombinedHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E171" t="n">
+        <v>2.869976851851852e-06</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1.421296296296296e-07</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0.2441614285267536</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0.3487667371388302</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="K171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L171" s="2" t="n">
+        <v>45913.73423682871</v>
+      </c>
+      <c r="M171" s="2" t="n">
+        <v>45913.73423395833</v>
+      </c>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>CombinedHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E172" t="n">
+        <v>2.869976851851852e-06</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1.421296296296296e-07</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0.2394304993252362</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0.3231707317073171</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="K172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L172" s="2" t="n">
+        <v>45913.73423682871</v>
+      </c>
+      <c r="M172" s="2" t="n">
+        <v>45913.73423395833</v>
+      </c>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>NX_Histogram_SVC</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>SVC_NX_combined_Histogram_rbf</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E173" t="n">
+        <v>3.262847222222222e-07</v>
+      </c>
+      <c r="F173" t="n">
+        <v>8.027777777777778e-08</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.3083333333333333</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0.2603999731611672</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0.4044996180290298</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.3083333333333333</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L173" s="2" t="n">
+        <v>45913.7342797338</v>
+      </c>
+      <c r="M173" s="2" t="n">
+        <v>45913.73427939815</v>
+      </c>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>NX_Histogram_SVC</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>SVC_NX_combined_Histogram_rbf</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E174" t="n">
+        <v>3.262847222222222e-07</v>
+      </c>
+      <c r="F174" t="n">
+        <v>8.027777777777778e-08</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0.2394304993252362</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0.3231707317073171</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L174" s="2" t="n">
+        <v>45913.7342797338</v>
+      </c>
+      <c r="M174" s="2" t="n">
+        <v>45913.73427939815</v>
+      </c>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E175" t="n">
+        <v>3.381944444444444e-08</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1.759259259259259e-09</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0.07125806451612902</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0.05009627727856226</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L175" s="2" t="n">
+        <v>45913.73772368056</v>
+      </c>
+      <c r="M175" s="2" t="n">
+        <v>45913.73772363426</v>
+      </c>
+      <c r="N175" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E176" t="n">
+        <v>3.381944444444444e-08</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1.759259259259259e-09</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0.1132582864290181</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0.08217893217893218</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L176" s="2" t="n">
+        <v>45913.73772368056</v>
+      </c>
+      <c r="M176" s="2" t="n">
+        <v>45913.73772363426</v>
+      </c>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Random_Classifier</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>RandomGuesser_uniform</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E177" t="n">
+        <v>3.564814814814815e-09</v>
+      </c>
+      <c r="F177" t="n">
+        <v>2.268518518518518e-09</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0.1505292899481287</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0.1514560074428495</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L177" s="2" t="n">
+        <v>45913.73772914352</v>
+      </c>
+      <c r="M177" s="2" t="n">
+        <v>45913.73772913194</v>
+      </c>
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Random_Classifier</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>RandomGuesser_uniform</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E178" t="n">
+        <v>3.564814814814815e-09</v>
+      </c>
+      <c r="F178" t="n">
+        <v>2.268518518518518e-09</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.2083333333333333</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0.2071474580170232</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0.2071524064171123</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.2083333333333333</v>
+      </c>
+      <c r="K178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L178" s="2" t="n">
+        <v>45913.73772914352</v>
+      </c>
+      <c r="M178" s="2" t="n">
+        <v>45913.73772913194</v>
+      </c>
+      <c r="N178" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>GED_KNN</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>(1)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E179" t="n">
+        <v>2.088877314814815e-06</v>
+      </c>
+      <c r="F179" t="n">
+        <v>5.302430555555556e-07</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0.597702093657976</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0.6012174200164396</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L179" s="2" t="n">
+        <v>45913.73773995371</v>
+      </c>
+      <c r="M179" s="2" t="n">
+        <v>45913.7377378588</v>
+      </c>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>GED_KNN</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>(1)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E180" t="n">
+        <v>2.088877314814815e-06</v>
+      </c>
+      <c r="F180" t="n">
+        <v>5.302430555555556e-07</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0.597702093657976</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0.6012174200164396</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L180" s="2" t="n">
+        <v>45913.73773995371</v>
+      </c>
+      <c r="M180" s="2" t="n">
+        <v>45913.7377378588</v>
+      </c>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Base_GED_SVC</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E181" t="n">
+        <v>2.710659722222222e-06</v>
+      </c>
+      <c r="F181" t="n">
+        <v>6.287037037037037e-07</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0.3126721353846359</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0.4361274509803922</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="K181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L181" s="2" t="n">
+        <v>45913.73805092592</v>
+      </c>
+      <c r="M181" s="2" t="n">
+        <v>45913.73804820602</v>
+      </c>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Base_GED_SVC</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E182" t="n">
+        <v>2.710659722222222e-06</v>
+      </c>
+      <c r="F182" t="n">
+        <v>6.287037037037037e-07</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0.1994306324705759</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0.4503082676369517</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L182" s="2" t="n">
+        <v>45913.73805092592</v>
+      </c>
+      <c r="M182" s="2" t="n">
+        <v>45913.73804820602</v>
+      </c>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>WeisfeilerLehman_SVC</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1.943726851851852e-06</v>
+      </c>
+      <c r="F183" t="n">
+        <v>5.08587962962963e-07</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.2416666666666667</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0.2209384972772366</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0.2187179487179487</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.2416666666666667</v>
+      </c>
+      <c r="K183" t="n">
+        <v>0</v>
+      </c>
+      <c r="L183" s="2" t="n">
+        <v>45913.74150092593</v>
+      </c>
+      <c r="M183" s="2" t="n">
+        <v>45913.74149896991</v>
+      </c>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>VertexHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1.118356481481481e-06</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1.418981481481482e-07</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0.1326741095162148</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0.09956018518518518</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K184" t="n">
+        <v>0</v>
+      </c>
+      <c r="L184" s="2" t="n">
+        <v>45913.74150371528</v>
+      </c>
+      <c r="M184" s="2" t="n">
+        <v>45913.74150259259</v>
+      </c>
+      <c r="N184" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>EdgeHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1.5209375e-06</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1.310648148148148e-07</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.1916666666666667</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0.08853548670621843</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0.05782051282051282</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.1916666666666667</v>
+      </c>
+      <c r="K185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L185" s="2" t="n">
+        <v>45913.7415065625</v>
+      </c>
+      <c r="M185" s="2" t="n">
+        <v>45913.7415050463</v>
+      </c>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>CombinedHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E186" t="n">
+        <v>3.384918981481482e-06</v>
+      </c>
+      <c r="F186" t="n">
+        <v>1.425462962962963e-07</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.2166666666666667</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0.1535871131146017</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0.2157864595364595</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.2166666666666667</v>
+      </c>
+      <c r="K186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L186" s="2" t="n">
+        <v>45913.74151126157</v>
+      </c>
+      <c r="M186" s="2" t="n">
+        <v>45913.74150787037</v>
+      </c>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>NX_Histogram_SVC</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>SVC_NX_combined_Histogram_rbf</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E187" t="n">
+        <v>3.363194444444445e-07</v>
+      </c>
+      <c r="F187" t="n">
+        <v>8.243055555555555e-08</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.2583333333333334</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0.2218533111205525</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0.4000978657228657</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.2583333333333334</v>
+      </c>
+      <c r="K187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L187" s="2" t="n">
+        <v>45913.74151291667</v>
+      </c>
+      <c r="M187" s="2" t="n">
+        <v>45913.74151258102</v>
+      </c>
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E188" t="n">
+        <v>3.273148148148148e-08</v>
+      </c>
+      <c r="F188" t="n">
+        <v>1.805555555555555e-09</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.1166666666666667</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0.05647565804798509</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0.03868347338935574</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.1166666666666667</v>
+      </c>
+      <c r="K188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L188" s="2" t="n">
+        <v>45913.74151423611</v>
+      </c>
+      <c r="M188" s="2" t="n">
+        <v>45913.74151418982</v>
+      </c>
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Random_Classifier</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>RandomGuesser_uniform</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E189" t="n">
+        <v>3.564814814814815e-09</v>
+      </c>
+      <c r="F189" t="n">
+        <v>2.268518518518518e-09</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.1416666666666667</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0.1385013920529593</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0.1440933467404056</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.1416666666666667</v>
+      </c>
+      <c r="K189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L189" s="2" t="n">
+        <v>45913.74151543981</v>
+      </c>
+      <c r="M189" s="2" t="n">
+        <v>45913.74151542824</v>
+      </c>
+      <c r="N189" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>GED_KNN</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>(1)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E190" t="n">
+        <v>2.118263888888889e-06</v>
+      </c>
+      <c r="F190" t="n">
+        <v>5.421064814814814e-07</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0.6400262895362289</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0.6447409257409258</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="K190" t="n">
+        <v>0</v>
+      </c>
+      <c r="L190" s="2" t="n">
+        <v>45913.74151877315</v>
+      </c>
+      <c r="M190" s="2" t="n">
+        <v>45913.74151664352</v>
+      </c>
+      <c r="N190" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Base_GED_SVC</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E191" t="n">
+        <v>2.531342592592593e-06</v>
+      </c>
+      <c r="F191" t="n">
+        <v>6.206597222222222e-07</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.2583333333333334</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0.2458199128457749</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0.5882760032760033</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.2583333333333334</v>
+      </c>
+      <c r="K191" t="n">
+        <v>0</v>
+      </c>
+      <c r="L191" s="2" t="n">
+        <v>45913.7415230787</v>
+      </c>
+      <c r="M191" s="2" t="n">
+        <v>45913.74152054398</v>
+      </c>
+      <c r="N191" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_Letter-high_with_SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E192" t="n">
+        <v>3.061658564814815e-05</v>
+      </c>
+      <c r="F192" t="n">
+        <v>7.486481481481481e-06</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0.4573193308042304</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0.4977891450967986</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="K192" t="n">
+        <v>0</v>
+      </c>
+      <c r="L192" s="2" t="n">
+        <v>45913.75743936343</v>
+      </c>
+      <c r="M192" s="2" t="n">
+        <v>45913.75740873843</v>
+      </c>
+      <c r="N192" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>WeisfeilerLehman_SVC</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E193" t="n">
+        <v>1.99855324074074e-06</v>
+      </c>
+      <c r="F193" t="n">
+        <v>4.725810185185185e-07</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0.2491453515226306</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0.2791774975129168</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="K193" t="n">
+        <v>0</v>
+      </c>
+      <c r="L193" s="2" t="n">
+        <v>45913.75912180555</v>
+      </c>
+      <c r="M193" s="2" t="n">
+        <v>45913.75911980324</v>
+      </c>
+      <c r="N193" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>VertexHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E194" t="n">
+        <v>1.123506944444444e-06</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1.31099537037037e-07</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0.110441091954023</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0.08094541910331383</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="K194" t="n">
+        <v>0</v>
+      </c>
+      <c r="L194" s="2" t="n">
+        <v>45913.75912462963</v>
+      </c>
+      <c r="M194" s="2" t="n">
+        <v>45913.75912350694</v>
+      </c>
+      <c r="N194" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>EdgeHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1.618761574074074e-06</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1.234837962962963e-07</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0.2583333333333334</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0.2213756443641501</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0.2540651629072682</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.2583333333333334</v>
+      </c>
+      <c r="K195" t="n">
+        <v>0</v>
+      </c>
+      <c r="L195" s="2" t="n">
+        <v>45913.75912762732</v>
+      </c>
+      <c r="M195" s="2" t="n">
+        <v>45913.75912600695</v>
+      </c>
+      <c r="N195" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>CombinedHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E196" t="n">
+        <v>3.3546875e-06</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1.312962962962963e-07</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.2166666666666667</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0.1963721264367816</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0.2885185185185185</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.2166666666666667</v>
+      </c>
+      <c r="K196" t="n">
+        <v>0</v>
+      </c>
+      <c r="L196" s="2" t="n">
+        <v>45913.75913237269</v>
+      </c>
+      <c r="M196" s="2" t="n">
+        <v>45913.7591290162</v>
+      </c>
+      <c r="N196" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>NX_Histogram_SVC</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>SVC_NX_combined_Histogram_rbf</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E197" t="n">
+        <v>3.324537037037037e-07</v>
+      </c>
+      <c r="F197" t="n">
+        <v>7.48263888888889e-08</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.2572500608888993</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0.2632950511239985</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="K197" t="n">
+        <v>0</v>
+      </c>
+      <c r="L197" s="2" t="n">
+        <v>45913.75913407408</v>
+      </c>
+      <c r="M197" s="2" t="n">
+        <v>45913.75913373843</v>
+      </c>
+      <c r="N197" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E198" t="n">
+        <v>3.371527777777777e-08</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1.805555555555555e-09</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0.1916666666666667</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.06165501165501165</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0.03673611111111111</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.1916666666666667</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0</v>
+      </c>
+      <c r="L198" s="2" t="n">
+        <v>45913.75913543982</v>
+      </c>
+      <c r="M198" s="2" t="n">
+        <v>45913.75913539352</v>
+      </c>
+      <c r="N198" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Random_Classifier</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>RandomGuesser_uniform</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E199" t="n">
+        <v>3.923611111111111e-09</v>
+      </c>
+      <c r="F199" t="n">
+        <v>2.280092592592592e-09</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0.147990284350502</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0.150480619826539</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K199" t="n">
+        <v>0</v>
+      </c>
+      <c r="L199" s="2" t="n">
+        <v>45913.75913670139</v>
+      </c>
+      <c r="M199" s="2" t="n">
+        <v>45913.75913668981</v>
+      </c>
+      <c r="N199" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>GED_KNN</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>(1)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E200" t="n">
+        <v>2.046493055555555e-06</v>
+      </c>
+      <c r="F200" t="n">
+        <v>5.278472222222222e-07</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0.6027863247863248</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0.6344298245614035</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K200" t="n">
+        <v>0</v>
+      </c>
+      <c r="L200" s="2" t="n">
+        <v>45913.75914</v>
+      </c>
+      <c r="M200" s="2" t="n">
+        <v>45913.75913793981</v>
+      </c>
+      <c r="N200" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Base_GED_SVC</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E201" t="n">
+        <v>2.527060185185185e-06</v>
+      </c>
+      <c r="F201" t="n">
+        <v>6.168287037037038e-07</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.2583333333333334</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0.2394134714817827</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0.4086206417943593</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.2583333333333334</v>
+      </c>
+      <c r="K201" t="n">
+        <v>0</v>
+      </c>
+      <c r="L201" s="2" t="n">
+        <v>45913.7591447801</v>
+      </c>
+      <c r="M201" s="2" t="n">
+        <v>45913.75914224537</v>
+      </c>
+      <c r="N201" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>DIFFUSION_GED_SVC</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E202" t="n">
+        <v>2.152951388888889e-06</v>
+      </c>
+      <c r="F202" t="n">
+        <v>5.274884259259259e-07</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0.425954939885926</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0.4276929338450923</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="K202" t="n">
+        <v>0</v>
+      </c>
+      <c r="L202" s="2" t="n">
+        <v>45913.75914881944</v>
+      </c>
+      <c r="M202" s="2" t="n">
+        <v>45913.75914666666</v>
+      </c>
+      <c r="N202" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Trivial_GED_SVC</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>SVC_Trivial-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E203" t="n">
+        <v>2.582349537037037e-06</v>
+      </c>
+      <c r="F203" t="n">
+        <v>6.126736111111111e-07</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0.229383203145757</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0.265047363031234</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="K203" t="n">
+        <v>0</v>
+      </c>
+      <c r="L203" s="2" t="n">
+        <v>45913.75915319444</v>
+      </c>
+      <c r="M203" s="2" t="n">
+        <v>45913.75915061343</v>
+      </c>
+      <c r="N203" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Simple_Prototype_GED_SVC</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E204" t="n">
+        <v>2.02818287037037e-06</v>
+      </c>
+      <c r="F204" t="n">
+        <v>2.483796296296296e-08</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0.2416666666666667</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0.2455857319924251</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0.2648909657743282</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.2416666666666667</v>
+      </c>
+      <c r="K204" t="n">
+        <v>0</v>
+      </c>
+      <c r="L204" s="2" t="n">
+        <v>45913.7591571412</v>
+      </c>
+      <c r="M204" s="2" t="n">
+        <v>45913.75915510417</v>
+      </c>
+      <c r="N204" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>ZERO_GED_SVC</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E205" t="n">
+        <v>4.030399305555556e-05</v>
+      </c>
+      <c r="F205" t="n">
+        <v>1.015167824074074e-05</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0.2166666666666667</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0.2215531710212561</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0.2547674413203913</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.2166666666666667</v>
+      </c>
+      <c r="K205" t="n">
+        <v>0</v>
+      </c>
+      <c r="L205" s="2" t="n">
+        <v>45913.75919875</v>
+      </c>
+      <c r="M205" s="2" t="n">
+        <v>45913.7591584375</v>
+      </c>
+      <c r="N205" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>WeisfeilerLehman_SVC</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E206" t="n">
+        <v>1.982708333333333e-06</v>
+      </c>
+      <c r="F206" t="n">
+        <v>4.65150462962963e-07</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0.3083333333333333</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0.2863176865677171</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0.2817911255411255</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.3083333333333333</v>
+      </c>
+      <c r="K206" t="n">
+        <v>0</v>
+      </c>
+      <c r="L206" s="2" t="n">
+        <v>45913.76580666667</v>
+      </c>
+      <c r="M206" s="2" t="n">
+        <v>45913.76580467592</v>
+      </c>
+      <c r="N206" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>WeisfeilerLehman_SVC</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E207" t="n">
+        <v>1.982708333333333e-06</v>
+      </c>
+      <c r="F207" t="n">
+        <v>4.65150462962963e-07</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0.2976233385404133</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0.2829034391534391</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="K207" t="n">
+        <v>0</v>
+      </c>
+      <c r="L207" s="2" t="n">
+        <v>45913.76580666667</v>
+      </c>
+      <c r="M207" s="2" t="n">
+        <v>45913.76580467592</v>
+      </c>
+      <c r="N207" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>VertexHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E208" t="n">
+        <v>1.247164351851852e-06</v>
+      </c>
+      <c r="F208" t="n">
+        <v>1.303472222222222e-07</v>
+      </c>
+      <c r="G208" t="n">
+        <v>0.2083333333333333</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0.1562327447965746</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0.1320895878255653</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.2083333333333333</v>
+      </c>
+      <c r="K208" t="n">
+        <v>0</v>
+      </c>
+      <c r="L208" s="2" t="n">
+        <v>45913.765909375</v>
+      </c>
+      <c r="M208" s="2" t="n">
+        <v>45913.765908125</v>
+      </c>
+      <c r="N208" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>VertexHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E209" t="n">
+        <v>1.247164351851852e-06</v>
+      </c>
+      <c r="F209" t="n">
+        <v>1.303472222222222e-07</v>
+      </c>
+      <c r="G209" t="n">
+        <v>0.2083333333333333</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0.1562327447965746</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0.1320895878255653</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.2083333333333333</v>
+      </c>
+      <c r="K209" t="n">
+        <v>0</v>
+      </c>
+      <c r="L209" s="2" t="n">
+        <v>45913.765909375</v>
+      </c>
+      <c r="M209" s="2" t="n">
+        <v>45913.765908125</v>
+      </c>
+      <c r="N209" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>EdgeHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E210" t="n">
+        <v>1.187546296296296e-06</v>
+      </c>
+      <c r="F210" t="n">
+        <v>1.240509259259259e-07</v>
+      </c>
+      <c r="G210" t="n">
+        <v>0.1833333333333333</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0.123141689592401</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0.1279265873015873</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.1833333333333333</v>
+      </c>
+      <c r="K210" t="n">
+        <v>0</v>
+      </c>
+      <c r="L210" s="2" t="n">
+        <v>45913.76593446759</v>
+      </c>
+      <c r="M210" s="2" t="n">
+        <v>45913.76593327546</v>
+      </c>
+      <c r="N210" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>EdgeHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E211" t="n">
+        <v>1.187546296296296e-06</v>
+      </c>
+      <c r="F211" t="n">
+        <v>1.240509259259259e-07</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0.1262041598248495</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0.106025641025641</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K211" t="n">
+        <v>0</v>
+      </c>
+      <c r="L211" s="2" t="n">
+        <v>45913.76593446759</v>
+      </c>
+      <c r="M211" s="2" t="n">
+        <v>45913.76593327546</v>
+      </c>
+      <c r="N211" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>CombinedHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E212" t="n">
+        <v>2.721122685185185e-06</v>
+      </c>
+      <c r="F212" t="n">
+        <v>1.354976851851852e-07</v>
+      </c>
+      <c r="G212" t="n">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0.1675987169416077</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0.276161858974359</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="K212" t="n">
+        <v>0</v>
+      </c>
+      <c r="L212" s="2" t="n">
+        <v>45913.76595641204</v>
+      </c>
+      <c r="M212" s="2" t="n">
+        <v>45913.76595368056</v>
+      </c>
+      <c r="N212" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>CombinedHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E213" t="n">
+        <v>2.721122685185185e-06</v>
+      </c>
+      <c r="F213" t="n">
+        <v>1.354976851851852e-07</v>
+      </c>
+      <c r="G213" t="n">
+        <v>0.2416666666666667</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0.1758869866354502</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0.2831901405716061</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0.2416666666666667</v>
+      </c>
+      <c r="K213" t="n">
+        <v>0</v>
+      </c>
+      <c r="L213" s="2" t="n">
+        <v>45913.76595641204</v>
+      </c>
+      <c r="M213" s="2" t="n">
+        <v>45913.76595368056</v>
+      </c>
+      <c r="N213" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E214" t="n">
+        <v>3.523148148148148e-08</v>
+      </c>
+      <c r="F214" t="n">
+        <v>1.921296296296296e-09</v>
+      </c>
+      <c r="G214" t="n">
+        <v>0.1416666666666667</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0.03515815085158151</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0.02006944444444444</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0.1416666666666667</v>
+      </c>
+      <c r="K214" t="n">
+        <v>0</v>
+      </c>
+      <c r="L214" s="2" t="n">
+        <v>45913.76600538194</v>
+      </c>
+      <c r="M214" s="2" t="n">
+        <v>45913.76600534722</v>
+      </c>
+      <c r="N214" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E215" t="n">
+        <v>3.523148148148148e-08</v>
+      </c>
+      <c r="F215" t="n">
+        <v>1.921296296296296e-09</v>
+      </c>
+      <c r="G215" t="n">
+        <v>0.1583333333333333</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0.06406878519710378</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0.04426315789473684</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.1583333333333333</v>
+      </c>
+      <c r="K215" t="n">
+        <v>0</v>
+      </c>
+      <c r="L215" s="2" t="n">
+        <v>45913.76600538194</v>
+      </c>
+      <c r="M215" s="2" t="n">
+        <v>45913.76600534722</v>
+      </c>
+      <c r="N215" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Random_Classifier</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>RandomGuesser_uniform</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E216" t="n">
+        <v>4.0625e-09</v>
+      </c>
+      <c r="F216" t="n">
+        <v>2.685185185185185e-09</v>
+      </c>
+      <c r="G216" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0.146815610512419</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0.1469471108601543</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K216" t="n">
+        <v>0</v>
+      </c>
+      <c r="L216" s="2" t="n">
+        <v>45913.76601087963</v>
+      </c>
+      <c r="M216" s="2" t="n">
+        <v>45913.76601086806</v>
+      </c>
+      <c r="N216" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Random_Classifier</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>RandomGuesser_uniform</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E217" t="n">
+        <v>4.0625e-09</v>
+      </c>
+      <c r="F217" t="n">
+        <v>2.685185185185185e-09</v>
+      </c>
+      <c r="G217" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0.146815610512419</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0.1469471108601543</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K217" t="n">
+        <v>0</v>
+      </c>
+      <c r="L217" s="2" t="n">
+        <v>45913.76601087963</v>
+      </c>
+      <c r="M217" s="2" t="n">
+        <v>45913.76601086806</v>
+      </c>
+      <c r="N217" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>GED_KNN</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>(1)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E218" t="n">
+        <v>2.157673611111111e-06</v>
+      </c>
+      <c r="F218" t="n">
+        <v>5.520138888888889e-07</v>
+      </c>
+      <c r="G218" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0.5854738757177781</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0.6204349706665883</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="K218" t="n">
+        <v>0</v>
+      </c>
+      <c r="L218" s="2" t="n">
+        <v>45913.76602247686</v>
+      </c>
+      <c r="M218" s="2" t="n">
+        <v>45913.7660203125</v>
+      </c>
+      <c r="N218" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>WeisfeilerLehman_SVC</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E219" t="n">
+        <v>4.833333333333333e-07</v>
+      </c>
+      <c r="F219" t="n">
+        <v>1.471990740740741e-07</v>
+      </c>
+      <c r="G219" t="n">
+        <v>0.7183098591549296</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0.6241997439180538</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0.6613594611145132</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0.7183098591549296</v>
+      </c>
+      <c r="K219" t="n">
+        <v>0.5151960784313725</v>
+      </c>
+      <c r="L219" s="2" t="n">
+        <v>45913.77742121528</v>
+      </c>
+      <c r="M219" s="2" t="n">
+        <v>45913.77742072917</v>
+      </c>
+      <c r="N219" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>WeisfeilerLehman_SVC</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E220" t="n">
+        <v>4.833333333333333e-07</v>
+      </c>
+      <c r="F220" t="n">
+        <v>1.471990740740741e-07</v>
+      </c>
+      <c r="G220" t="n">
+        <v>0.7183098591549296</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0.6241997439180538</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0.6613594611145132</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0.7183098591549296</v>
+      </c>
+      <c r="K220" t="n">
+        <v>0.5151960784313725</v>
+      </c>
+      <c r="L220" s="2" t="n">
+        <v>45913.77742121528</v>
+      </c>
+      <c r="M220" s="2" t="n">
+        <v>45913.77742072917</v>
+      </c>
+      <c r="N220" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>VertexHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E221" t="n">
+        <v>1.926967592592593e-07</v>
+      </c>
+      <c r="F221" t="n">
+        <v>3.412037037037037e-08</v>
+      </c>
+      <c r="G221" t="n">
+        <v>0.7183098591549296</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0.6241997439180538</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0.6613594611145132</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0.7183098591549296</v>
+      </c>
+      <c r="K221" t="n">
+        <v>0.5151960784313725</v>
+      </c>
+      <c r="L221" s="2" t="n">
+        <v>45913.7774569213</v>
+      </c>
+      <c r="M221" s="2" t="n">
+        <v>45913.77745672454</v>
+      </c>
+      <c r="N221" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>VertexHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E222" t="n">
+        <v>1.926967592592593e-07</v>
+      </c>
+      <c r="F222" t="n">
+        <v>3.412037037037037e-08</v>
+      </c>
+      <c r="G222" t="n">
+        <v>0.7183098591549296</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0.6241997439180538</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0.6613594611145132</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.7183098591549296</v>
+      </c>
+      <c r="K222" t="n">
+        <v>0.5151960784313725</v>
+      </c>
+      <c r="L222" s="2" t="n">
+        <v>45913.7774569213</v>
+      </c>
+      <c r="M222" s="2" t="n">
+        <v>45913.77745672454</v>
+      </c>
+      <c r="N222" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>EdgeHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E223" t="n">
+        <v>1.451041666666667e-07</v>
+      </c>
+      <c r="F223" t="n">
+        <v>2.826388888888889e-08</v>
+      </c>
+      <c r="G223" t="n">
+        <v>0.704225352112676</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0.5936445116982889</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0.5130784708249497</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0.704225352112676</v>
+      </c>
+      <c r="K223" t="n">
+        <v>0.4901960784313725</v>
+      </c>
+      <c r="L223" s="2" t="n">
+        <v>45913.77746459491</v>
+      </c>
+      <c r="M223" s="2" t="n">
+        <v>45913.77746444444</v>
+      </c>
+      <c r="N223" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>EdgeHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E224" t="n">
+        <v>1.451041666666667e-07</v>
+      </c>
+      <c r="F224" t="n">
+        <v>2.826388888888889e-08</v>
+      </c>
+      <c r="G224" t="n">
+        <v>0.7183098591549296</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0.6005541445393674</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0.5159690537591748</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0.7183098591549296</v>
+      </c>
+      <c r="K224" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L224" s="2" t="n">
+        <v>45913.77746459491</v>
+      </c>
+      <c r="M224" s="2" t="n">
+        <v>45913.77746444444</v>
+      </c>
+      <c r="N224" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>CombinedHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E225" t="n">
+        <v>2.648611111111111e-07</v>
+      </c>
+      <c r="F225" t="n">
+        <v>4.163194444444444e-08</v>
+      </c>
+      <c r="G225" t="n">
+        <v>0.704225352112676</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0.6160440906307409</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0.6115023474178404</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0.704225352112676</v>
+      </c>
+      <c r="K225" t="n">
+        <v>0.5053921568627451</v>
+      </c>
+      <c r="L225" s="2" t="n">
+        <v>45913.77747375</v>
+      </c>
+      <c r="M225" s="2" t="n">
+        <v>45913.77747347222</v>
+      </c>
+      <c r="N225" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>CombinedHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E226" t="n">
+        <v>2.648611111111111e-07</v>
+      </c>
+      <c r="F226" t="n">
+        <v>4.163194444444444e-08</v>
+      </c>
+      <c r="G226" t="n">
+        <v>0.7183098591549296</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0.6241997439180538</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0.6613594611145132</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.7183098591549296</v>
+      </c>
+      <c r="K226" t="n">
+        <v>0.5151960784313725</v>
+      </c>
+      <c r="L226" s="2" t="n">
+        <v>45913.77747375</v>
+      </c>
+      <c r="M226" s="2" t="n">
+        <v>45913.77747347222</v>
+      </c>
+      <c r="N226" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E227" t="n">
+        <v>1.123842592592593e-08</v>
+      </c>
+      <c r="F227" t="n">
+        <v>1.655092592592593e-09</v>
+      </c>
+      <c r="G227" t="n">
+        <v>0.5211267605633803</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0.5372426868905743</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0.6813202447005263</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0.5211267605633803</v>
+      </c>
+      <c r="K227" t="n">
+        <v>0.5906862745098039</v>
+      </c>
+      <c r="L227" s="2" t="n">
+        <v>45913.77748542824</v>
+      </c>
+      <c r="M227" s="2" t="n">
+        <v>45913.77748541666</v>
+      </c>
+      <c r="N227" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E228" t="n">
+        <v>1.123842592592593e-08</v>
+      </c>
+      <c r="F228" t="n">
+        <v>1.655092592592593e-09</v>
+      </c>
+      <c r="G228" t="n">
+        <v>0.7183098591549296</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0.6005541445393674</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0.5159690537591748</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.7183098591549296</v>
+      </c>
+      <c r="K228" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L228" s="2" t="n">
+        <v>45913.77748542824</v>
+      </c>
+      <c r="M228" s="2" t="n">
+        <v>45913.77748541666</v>
+      </c>
+      <c r="N228" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Random_Classifier</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>RandomGuesser_uniform</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E229" t="n">
+        <v>3.449074074074074e-09</v>
+      </c>
+      <c r="F229" t="n">
+        <v>2.256944444444445e-09</v>
+      </c>
+      <c r="G229" t="n">
+        <v>0.4507042253521127</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0.4776871756856931</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0.5544347164065474</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0.4507042253521127</v>
+      </c>
+      <c r="K229" t="n">
+        <v>0.4504901960784313</v>
+      </c>
+      <c r="L229" s="2" t="n">
+        <v>45913.77748913194</v>
+      </c>
+      <c r="M229" s="2" t="n">
+        <v>45913.77748912037</v>
+      </c>
+      <c r="N229" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Random_Classifier</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>RandomGuesser_uniform</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E230" t="n">
+        <v>3.449074074074074e-09</v>
+      </c>
+      <c r="F230" t="n">
+        <v>2.256944444444445e-09</v>
+      </c>
+      <c r="G230" t="n">
+        <v>0.7183098591549296</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0.6005541445393674</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0.5159690537591748</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0.7183098591549296</v>
+      </c>
+      <c r="K230" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L230" s="2" t="n">
+        <v>45913.77748913194</v>
+      </c>
+      <c r="M230" s="2" t="n">
+        <v>45913.77748912037</v>
+      </c>
+      <c r="N230" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>GED_KNN</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>(1)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E231" t="n">
+        <v>6.977662037037037e-07</v>
+      </c>
+      <c r="F231" t="n">
+        <v>2.081481481481482e-07</v>
+      </c>
+      <c r="G231" t="n">
+        <v>0.6338028169014085</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0.6520518459594778</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0.733065057008719</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.6338028169014085</v>
+      </c>
+      <c r="K231" t="n">
+        <v>0.6691176470588236</v>
+      </c>
+      <c r="L231" s="2" t="n">
+        <v>45913.77749597222</v>
+      </c>
+      <c r="M231" s="2" t="n">
+        <v>45913.7774952662</v>
+      </c>
+      <c r="N231" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>WeisfeilerLehman_SVC</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E232" t="n">
+        <v>5.032060185185185e-07</v>
+      </c>
+      <c r="F232" t="n">
+        <v>1.491782407407407e-07</v>
+      </c>
+      <c r="G232" t="n">
+        <v>0.6901408450704225</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0.5872921142675261</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0.6350275566442132</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0.6901408450704225</v>
+      </c>
+      <c r="K232" t="n">
+        <v>0.5125231910946196</v>
+      </c>
+      <c r="L232" s="2" t="n">
+        <v>45913.77913434028</v>
+      </c>
+      <c r="M232" s="2" t="n">
+        <v>45913.77913383102</v>
+      </c>
+      <c r="N232" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>WeisfeilerLehman_SVC</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E233" t="n">
+        <v>5.032060185185185e-07</v>
+      </c>
+      <c r="F233" t="n">
+        <v>1.491782407407407e-07</v>
+      </c>
+      <c r="G233" t="n">
+        <v>0.6901408450704225</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0.5872921142675261</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0.6350275566442132</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0.6901408450704225</v>
+      </c>
+      <c r="K233" t="n">
+        <v>0.5125231910946196</v>
+      </c>
+      <c r="L233" s="2" t="n">
+        <v>45913.77913434028</v>
+      </c>
+      <c r="M233" s="2" t="n">
+        <v>45913.77913383102</v>
+      </c>
+      <c r="N233" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>VertexHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E234" t="n">
+        <v>1.806365740740741e-07</v>
+      </c>
+      <c r="F234" t="n">
+        <v>3.575231481481481e-08</v>
+      </c>
+      <c r="G234" t="n">
+        <v>0.704225352112676</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0.6158468761285663</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0.6937310135321735</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0.704225352112676</v>
+      </c>
+      <c r="K234" t="n">
+        <v>0.5352504638218923</v>
+      </c>
+      <c r="L234" s="2" t="n">
+        <v>45913.77916840278</v>
+      </c>
+      <c r="M234" s="2" t="n">
+        <v>45913.7791682176</v>
+      </c>
+      <c r="N234" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>VertexHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E235" t="n">
+        <v>1.806365740740741e-07</v>
+      </c>
+      <c r="F235" t="n">
+        <v>3.575231481481481e-08</v>
+      </c>
+      <c r="G235" t="n">
+        <v>0.704225352112676</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0.6158468761285663</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0.6937310135321735</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0.704225352112676</v>
+      </c>
+      <c r="K235" t="n">
+        <v>0.5352504638218923</v>
+      </c>
+      <c r="L235" s="2" t="n">
+        <v>45913.77916840278</v>
+      </c>
+      <c r="M235" s="2" t="n">
+        <v>45913.7791682176</v>
+      </c>
+      <c r="N235" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>EdgeHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E236" t="n">
+        <v>1.35474537037037e-07</v>
+      </c>
+      <c r="F236" t="n">
+        <v>3.076388888888889e-08</v>
+      </c>
+      <c r="G236" t="n">
+        <v>0.6901408450704225</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0.5636150234741784</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0.476294386034517</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0.6901408450704225</v>
+      </c>
+      <c r="K236" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L236" s="2" t="n">
+        <v>45913.77917584491</v>
+      </c>
+      <c r="M236" s="2" t="n">
+        <v>45913.77917570602</v>
+      </c>
+      <c r="N236" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>EdgeHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E237" t="n">
+        <v>1.35474537037037e-07</v>
+      </c>
+      <c r="F237" t="n">
+        <v>3.076388888888889e-08</v>
+      </c>
+      <c r="G237" t="n">
+        <v>0.6901408450704225</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0.5636150234741784</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0.476294386034517</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0.6901408450704225</v>
+      </c>
+      <c r="K237" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L237" s="2" t="n">
+        <v>45913.77917584491</v>
+      </c>
+      <c r="M237" s="2" t="n">
+        <v>45913.77917570602</v>
+      </c>
+      <c r="N237" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>CombinedHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E238" t="n">
+        <v>2.328240740740741e-07</v>
+      </c>
+      <c r="F238" t="n">
+        <v>4.141203703703703e-08</v>
+      </c>
+      <c r="G238" t="n">
+        <v>0.704225352112676</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0.6158468761285663</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0.6937310135321735</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0.704225352112676</v>
+      </c>
+      <c r="K238" t="n">
+        <v>0.5352504638218923</v>
+      </c>
+      <c r="L238" s="2" t="n">
+        <v>45913.77918513889</v>
+      </c>
+      <c r="M238" s="2" t="n">
+        <v>45913.77918490741</v>
+      </c>
+      <c r="N238" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>CombinedHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E239" t="n">
+        <v>2.328240740740741e-07</v>
+      </c>
+      <c r="F239" t="n">
+        <v>4.141203703703703e-08</v>
+      </c>
+      <c r="G239" t="n">
+        <v>0.704225352112676</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0.6158468761285663</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0.6937310135321735</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0.704225352112676</v>
+      </c>
+      <c r="K239" t="n">
+        <v>0.5352504638218923</v>
+      </c>
+      <c r="L239" s="2" t="n">
+        <v>45913.77918513889</v>
+      </c>
+      <c r="M239" s="2" t="n">
+        <v>45913.77918490741</v>
+      </c>
+      <c r="N239" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E240" t="n">
+        <v>1.09837962962963e-08</v>
+      </c>
+      <c r="F240" t="n">
+        <v>1.898148148148148e-09</v>
+      </c>
+      <c r="G240" t="n">
+        <v>0.3098591549295774</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0.1466000302892625</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0.09601269589367188</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0.3098591549295774</v>
+      </c>
+      <c r="K240" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L240" s="2" t="n">
+        <v>45913.77919666667</v>
+      </c>
+      <c r="M240" s="2" t="n">
+        <v>45913.77919665509</v>
+      </c>
+      <c r="N240" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E241" t="n">
+        <v>1.09837962962963e-08</v>
+      </c>
+      <c r="F241" t="n">
+        <v>1.898148148148148e-09</v>
+      </c>
+      <c r="G241" t="n">
+        <v>0.3098591549295774</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0.1466000302892625</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0.09601269589367188</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0.3098591549295774</v>
+      </c>
+      <c r="K241" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L241" s="2" t="n">
+        <v>45913.77919666667</v>
+      </c>
+      <c r="M241" s="2" t="n">
+        <v>45913.77919665509</v>
+      </c>
+      <c r="N241" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Random_Classifier</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>RandomGuesser_uniform</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E242" t="n">
+        <v>3.564814814814815e-09</v>
+      </c>
+      <c r="F242" t="n">
+        <v>2.291666666666667e-09</v>
+      </c>
+      <c r="G242" t="n">
+        <v>0.5211267605633803</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0.5390157034158977</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0.5962441314553991</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.5211267605633803</v>
+      </c>
+      <c r="K242" t="n">
+        <v>0.5278293135435992</v>
+      </c>
+      <c r="L242" s="2" t="n">
+        <v>45913.7792002662</v>
+      </c>
+      <c r="M242" s="2" t="n">
+        <v>45913.77920025463</v>
+      </c>
+      <c r="N242" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Random_Classifier</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>RandomGuesser_uniform</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E243" t="n">
+        <v>3.564814814814815e-09</v>
+      </c>
+      <c r="F243" t="n">
+        <v>2.291666666666667e-09</v>
+      </c>
+      <c r="G243" t="n">
+        <v>0.6901408450704225</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0.5636150234741784</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0.476294386034517</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0.6901408450704225</v>
+      </c>
+      <c r="K243" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L243" s="2" t="n">
+        <v>45913.7792002662</v>
+      </c>
+      <c r="M243" s="2" t="n">
+        <v>45913.77920025463</v>
+      </c>
+      <c r="N243" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>GED_KNN</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>(1)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E244" t="n">
+        <v>7.34398148148148e-07</v>
+      </c>
+      <c r="F244" t="n">
+        <v>1.934722222222222e-07</v>
+      </c>
+      <c r="G244" t="n">
+        <v>0.5633802816901409</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0.5794398575360208</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0.6212008895478132</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0.5633802816901409</v>
+      </c>
+      <c r="K244" t="n">
+        <v>0.5584415584415584</v>
+      </c>
+      <c r="L244" s="2" t="n">
+        <v>45913.7792075</v>
+      </c>
+      <c r="M244" s="2" t="n">
+        <v>45913.77920675926</v>
+      </c>
+      <c r="N244" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>GED_KNN</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>(1)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E245" t="n">
+        <v>7.34398148148148e-07</v>
+      </c>
+      <c r="F245" t="n">
+        <v>1.934722222222222e-07</v>
+      </c>
+      <c r="G245" t="n">
+        <v>0.5633802816901409</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0.5794398575360208</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0.6212008895478132</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0.5633802816901409</v>
+      </c>
+      <c r="K245" t="n">
+        <v>0.5584415584415584</v>
+      </c>
+      <c r="L245" s="2" t="n">
+        <v>45913.7792075</v>
+      </c>
+      <c r="M245" s="2" t="n">
+        <v>45913.77920675926</v>
+      </c>
+      <c r="N245" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Base_GED_SVC</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E246" t="n">
+        <v>8.475925925925927e-07</v>
+      </c>
+      <c r="F246" t="n">
+        <v>2.11875e-07</v>
+      </c>
+      <c r="G246" t="n">
+        <v>0.676056338028169</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0.656211140718183</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0.6498826291079812</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0.676056338028169</v>
+      </c>
+      <c r="K246" t="n">
+        <v>0.5774582560296846</v>
+      </c>
+      <c r="L246" s="2" t="n">
+        <v>45913.7803690625</v>
+      </c>
+      <c r="M246" s="2" t="n">
+        <v>45913.78036820602</v>
+      </c>
+      <c r="N246" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Base_GED_SVC</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E247" s="3" t="n">
+        <v>8.475925925925927e-07</v>
+      </c>
+      <c r="F247" s="3" t="n">
+        <v>2.11875e-07</v>
+      </c>
+      <c r="G247" t="n">
+        <v>0.6901408450704225</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0.5636150234741784</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0.476294386034517</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0.6901408450704225</v>
+      </c>
+      <c r="K247" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L247" s="2" t="n">
+        <v>45913.78036906252</v>
+      </c>
+      <c r="M247" s="2" t="n">
+        <v>45913.78036820999</v>
+      </c>
+      <c r="N247" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O247" t="inlineStr">
         <is>
           <t>Hyperparameter Tuning (grid)</t>
         </is>

--- a/configs/test_results.xlsx
+++ b/configs/test_results.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O247"/>
+  <dimension ref="A1:O322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13941,10 +13941,10 @@
       <c r="D247" t="n">
         <v>0.2</v>
       </c>
-      <c r="E247" s="3" t="n">
+      <c r="E247" t="n">
         <v>8.475925925925927e-07</v>
       </c>
-      <c r="F247" s="3" t="n">
+      <c r="F247" t="n">
         <v>2.11875e-07</v>
       </c>
       <c r="G247" t="n">
@@ -13963,10 +13963,10 @@
         <v>0.5</v>
       </c>
       <c r="L247" s="2" t="n">
-        <v>45913.78036906252</v>
+        <v>45913.7803690625</v>
       </c>
       <c r="M247" s="2" t="n">
-        <v>45913.78036820999</v>
+        <v>45913.78036820602</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -13976,6 +13976,4281 @@
       <c r="O247" t="inlineStr">
         <is>
           <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>WeisfeilerLehman_SVC</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E248" t="n">
+        <v>2.917824074074074e-07</v>
+      </c>
+      <c r="F248" t="n">
+        <v>1.016898148148148e-07</v>
+      </c>
+      <c r="G248" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0.8348684210526316</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0.8338588406500121</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="K248" t="n">
+        <v>0.7432950191570881</v>
+      </c>
+      <c r="L248" s="2" t="n">
+        <v>45914.49255392361</v>
+      </c>
+      <c r="M248" s="2" t="n">
+        <v>45914.49255363426</v>
+      </c>
+      <c r="N248" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>WeisfeilerLehman_SVC</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E249" t="n">
+        <v>2.917824074074074e-07</v>
+      </c>
+      <c r="F249" t="n">
+        <v>1.016898148148148e-07</v>
+      </c>
+      <c r="G249" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0.8190212373037857</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0.8234962406015038</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="K249" t="n">
+        <v>0.764367816091954</v>
+      </c>
+      <c r="L249" s="2" t="n">
+        <v>45914.49255392361</v>
+      </c>
+      <c r="M249" s="2" t="n">
+        <v>45914.49255363426</v>
+      </c>
+      <c r="N249" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O249" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>VertexHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E250" t="n">
+        <v>8.621527777777778e-08</v>
+      </c>
+      <c r="F250" t="n">
+        <v>2.03587962962963e-08</v>
+      </c>
+      <c r="G250" t="n">
+        <v>0.9210526315789473</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0.9193996956498924</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0.919517543859649</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0.9210526315789473</v>
+      </c>
+      <c r="K250" t="n">
+        <v>0.8716475095785442</v>
+      </c>
+      <c r="L250" s="2" t="n">
+        <v>45914.4925780324</v>
+      </c>
+      <c r="M250" s="2" t="n">
+        <v>45914.49257795139</v>
+      </c>
+      <c r="N250" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>VertexHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E251" t="n">
+        <v>8.621527777777778e-08</v>
+      </c>
+      <c r="F251" t="n">
+        <v>2.03587962962963e-08</v>
+      </c>
+      <c r="G251" t="n">
+        <v>0.9210526315789473</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0.9193996956498924</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0.919517543859649</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0.9210526315789473</v>
+      </c>
+      <c r="K251" t="n">
+        <v>0.8716475095785442</v>
+      </c>
+      <c r="L251" s="2" t="n">
+        <v>45914.4925780324</v>
+      </c>
+      <c r="M251" s="2" t="n">
+        <v>45914.49257795139</v>
+      </c>
+      <c r="N251" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>EdgeHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E252" t="n">
+        <v>8.241898148148148e-08</v>
+      </c>
+      <c r="F252" t="n">
+        <v>2.068287037037037e-08</v>
+      </c>
+      <c r="G252" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0.8584987057808454</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0.8651315789473685</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="K252" t="n">
+        <v>0.760536398467433</v>
+      </c>
+      <c r="L252" s="2" t="n">
+        <v>45914.49258380787</v>
+      </c>
+      <c r="M252" s="2" t="n">
+        <v>45914.49258372685</v>
+      </c>
+      <c r="N252" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>EdgeHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E253" t="n">
+        <v>8.241898148148148e-08</v>
+      </c>
+      <c r="F253" t="n">
+        <v>2.068287037037037e-08</v>
+      </c>
+      <c r="G253" t="n">
+        <v>0.7631578947368421</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0.7673130193905816</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0.7725563909774436</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0.7631578947368421</v>
+      </c>
+      <c r="K253" t="n">
+        <v>0.6915708812260536</v>
+      </c>
+      <c r="L253" s="2" t="n">
+        <v>45914.49258380787</v>
+      </c>
+      <c r="M253" s="2" t="n">
+        <v>45914.49258372685</v>
+      </c>
+      <c r="N253" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>CombinedHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E254" t="n">
+        <v>8.932870370370371e-08</v>
+      </c>
+      <c r="F254" t="n">
+        <v>2.916666666666667e-08</v>
+      </c>
+      <c r="G254" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0.8471804511278196</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0.8573453836611732</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="K254" t="n">
+        <v>0.8199233716475096</v>
+      </c>
+      <c r="L254" s="2" t="n">
+        <v>45914.49259055556</v>
+      </c>
+      <c r="M254" s="2" t="n">
+        <v>45914.49259046296</v>
+      </c>
+      <c r="N254" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>CombinedHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E255" t="n">
+        <v>8.932870370370371e-08</v>
+      </c>
+      <c r="F255" t="n">
+        <v>2.916666666666667e-08</v>
+      </c>
+      <c r="G255" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0.8471804511278196</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0.8573453836611732</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="K255" t="n">
+        <v>0.8199233716475096</v>
+      </c>
+      <c r="L255" s="2" t="n">
+        <v>45914.49259055556</v>
+      </c>
+      <c r="M255" s="2" t="n">
+        <v>45914.49259046296</v>
+      </c>
+      <c r="N255" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E256" t="n">
+        <v>1.106481481481482e-08</v>
+      </c>
+      <c r="F256" t="n">
+        <v>1.5625e-09</v>
+      </c>
+      <c r="G256" t="n">
+        <v>0.7631578947368421</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0.700552079499448</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0.7119883040935673</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0.7631578947368421</v>
+      </c>
+      <c r="K256" t="n">
+        <v>0.5383141762452108</v>
+      </c>
+      <c r="L256" s="2" t="n">
+        <v>45914.49259876157</v>
+      </c>
+      <c r="M256" s="2" t="n">
+        <v>45914.49259875</v>
+      </c>
+      <c r="N256" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E257" t="n">
+        <v>1.106481481481482e-08</v>
+      </c>
+      <c r="F257" t="n">
+        <v>1.5625e-09</v>
+      </c>
+      <c r="G257" t="n">
+        <v>0.7631578947368421</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0.6606441476826393</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0.582409972299169</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0.7631578947368421</v>
+      </c>
+      <c r="K257" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L257" s="2" t="n">
+        <v>45914.49259876157</v>
+      </c>
+      <c r="M257" s="2" t="n">
+        <v>45914.49259875</v>
+      </c>
+      <c r="N257" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Random_Classifier</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>RandomGuesser_uniform</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E258" t="n">
+        <v>3.425925925925926e-09</v>
+      </c>
+      <c r="F258" t="n">
+        <v>2.280092592592592e-09</v>
+      </c>
+      <c r="G258" t="n">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0.3633867276887872</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0.4714727996461743</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="K258" t="n">
+        <v>0.2835249042145594</v>
+      </c>
+      <c r="L258" s="2" t="n">
+        <v>45914.49260319444</v>
+      </c>
+      <c r="M258" s="2" t="n">
+        <v>45914.49260318287</v>
+      </c>
+      <c r="N258" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O258" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Random_Classifier</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>RandomGuesser_uniform</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E259" t="n">
+        <v>3.425925925925926e-09</v>
+      </c>
+      <c r="F259" t="n">
+        <v>2.280092592592592e-09</v>
+      </c>
+      <c r="G259" t="n">
+        <v>0.7631578947368421</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0.6606441476826393</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0.582409972299169</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0.7631578947368421</v>
+      </c>
+      <c r="K259" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L259" s="2" t="n">
+        <v>45914.49260319444</v>
+      </c>
+      <c r="M259" s="2" t="n">
+        <v>45914.49260318287</v>
+      </c>
+      <c r="N259" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O259" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>GED_KNN</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>(1)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E260" t="n">
+        <v>2.039814814814815e-07</v>
+      </c>
+      <c r="F260" t="n">
+        <v>6.125e-08</v>
+      </c>
+      <c r="G260" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0.8471804511278196</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0.8573453836611732</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="K260" t="n">
+        <v>0.8199233716475096</v>
+      </c>
+      <c r="L260" s="2" t="n">
+        <v>45914.49260769676</v>
+      </c>
+      <c r="M260" s="2" t="n">
+        <v>45914.49260748843</v>
+      </c>
+      <c r="N260" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O260" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>GED_KNN</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>(1)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E261" t="n">
+        <v>2.039814814814815e-07</v>
+      </c>
+      <c r="F261" t="n">
+        <v>6.125e-08</v>
+      </c>
+      <c r="G261" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0.8239234449760765</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0.8426113360323888</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="K261" t="n">
+        <v>0.8026819923371648</v>
+      </c>
+      <c r="L261" s="2" t="n">
+        <v>45914.49260769676</v>
+      </c>
+      <c r="M261" s="2" t="n">
+        <v>45914.49260748843</v>
+      </c>
+      <c r="N261" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O261" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Base_GED_SVC</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E262" t="n">
+        <v>2.564351851851852e-07</v>
+      </c>
+      <c r="F262" t="n">
+        <v>6.123842592592593e-08</v>
+      </c>
+      <c r="G262" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0.8348684210526316</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0.8338588406500121</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="K262" t="n">
+        <v>0.7432950191570881</v>
+      </c>
+      <c r="L262" s="2" t="n">
+        <v>45914.49292811342</v>
+      </c>
+      <c r="M262" s="2" t="n">
+        <v>45914.49292784722</v>
+      </c>
+      <c r="N262" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Base_GED_SVC</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E263" t="n">
+        <v>2.564351851851852e-07</v>
+      </c>
+      <c r="F263" t="n">
+        <v>6.123842592592593e-08</v>
+      </c>
+      <c r="G263" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0.8348684210526316</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0.8338588406500121</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="K263" t="n">
+        <v>0.7432950191570881</v>
+      </c>
+      <c r="L263" s="2" t="n">
+        <v>45914.49292811342</v>
+      </c>
+      <c r="M263" s="2" t="n">
+        <v>45914.49292784722</v>
+      </c>
+      <c r="N263" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>DIFFUSION_GED_SVC</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E264" t="n">
+        <v>2.204166666666666e-07</v>
+      </c>
+      <c r="F264" t="n">
+        <v>5.391203703703703e-08</v>
+      </c>
+      <c r="G264" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0.8899122807017543</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0.8923114237205917</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="K264" t="n">
+        <v>0.8160919540229886</v>
+      </c>
+      <c r="L264" s="2" t="n">
+        <v>45914.49300329861</v>
+      </c>
+      <c r="M264" s="2" t="n">
+        <v>45914.49300307871</v>
+      </c>
+      <c r="N264" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E265" t="n">
+        <v>2.250462962962963e-07</v>
+      </c>
+      <c r="F265" t="n">
+        <v>5.319444444444445e-08</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0.8391902834008098</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0.8414304993252362</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0.8154761904761905</v>
+      </c>
+      <c r="L265" s="2" t="n">
+        <v>45914.49378145833</v>
+      </c>
+      <c r="M265" s="2" t="n">
+        <v>45914.49378122685</v>
+      </c>
+      <c r="N265" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O265" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E266" t="n">
+        <v>2.250462962962963e-07</v>
+      </c>
+      <c r="F266" t="n">
+        <v>5.319444444444445e-08</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0.8391902834008098</v>
+      </c>
+      <c r="I266" t="n">
+        <v>0.8414304993252362</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0.8154761904761905</v>
+      </c>
+      <c r="L266" s="2" t="n">
+        <v>45914.49378145833</v>
+      </c>
+      <c r="M266" s="2" t="n">
+        <v>45914.49378122685</v>
+      </c>
+      <c r="N266" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O266" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E267" t="n">
+        <v>2.221990740740741e-07</v>
+      </c>
+      <c r="F267" t="n">
+        <v>5.197916666666667e-08</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0.8089892491688615</v>
+      </c>
+      <c r="I267" t="n">
+        <v>0.8140977443609022</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0.7676923076923078</v>
+      </c>
+      <c r="L267" s="2" t="n">
+        <v>45914.49757309028</v>
+      </c>
+      <c r="M267" s="2" t="n">
+        <v>45914.4975728588</v>
+      </c>
+      <c r="N267" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>WeisfeilerLehman_SVC</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E268" t="n">
+        <v>2.937731481481481e-07</v>
+      </c>
+      <c r="F268" t="n">
+        <v>1.003356481481481e-07</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0.696511393426094</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0.752153110047847</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0.6338461538461538</v>
+      </c>
+      <c r="L268" s="2" t="n">
+        <v>45914.49808930555</v>
+      </c>
+      <c r="M268" s="2" t="n">
+        <v>45914.49808900463</v>
+      </c>
+      <c r="N268" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>WeisfeilerLehman_SVC</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E269" t="n">
+        <v>2.937731481481481e-07</v>
+      </c>
+      <c r="F269" t="n">
+        <v>1.003356481481481e-07</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="I269" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="K269" t="n">
+        <v>0.7661538461538461</v>
+      </c>
+      <c r="L269" s="2" t="n">
+        <v>45914.49808930555</v>
+      </c>
+      <c r="M269" s="2" t="n">
+        <v>45914.49808900463</v>
+      </c>
+      <c r="N269" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O269" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>VertexHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E270" t="n">
+        <v>8.537037037037037e-08</v>
+      </c>
+      <c r="F270" t="n">
+        <v>1.998842592592593e-08</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0.8089892491688615</v>
+      </c>
+      <c r="I270" t="n">
+        <v>0.8140977443609022</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0.7676923076923078</v>
+      </c>
+      <c r="L270" s="2" t="n">
+        <v>45914.49811391204</v>
+      </c>
+      <c r="M270" s="2" t="n">
+        <v>45914.49811381944</v>
+      </c>
+      <c r="N270" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>VertexHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E271" t="n">
+        <v>8.537037037037037e-08</v>
+      </c>
+      <c r="F271" t="n">
+        <v>1.998842592592593e-08</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.7631578947368421</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0.7457279562542719</v>
+      </c>
+      <c r="I271" t="n">
+        <v>0.7609649122807017</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0.7631578947368421</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0.6907692307692308</v>
+      </c>
+      <c r="L271" s="2" t="n">
+        <v>45914.49811391204</v>
+      </c>
+      <c r="M271" s="2" t="n">
+        <v>45914.49811381944</v>
+      </c>
+      <c r="N271" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O271" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>EdgeHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E272" t="n">
+        <v>8.042824074074075e-08</v>
+      </c>
+      <c r="F272" t="n">
+        <v>2.038194444444444e-08</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.7631578947368421</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0.7457279562542719</v>
+      </c>
+      <c r="I272" t="n">
+        <v>0.7609649122807017</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0.7631578947368421</v>
+      </c>
+      <c r="K272" t="n">
+        <v>0.6907692307692308</v>
+      </c>
+      <c r="L272" s="2" t="n">
+        <v>45914.49811984954</v>
+      </c>
+      <c r="M272" s="2" t="n">
+        <v>45914.49811975694</v>
+      </c>
+      <c r="N272" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>EdgeHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E273" t="n">
+        <v>8.042824074074075e-08</v>
+      </c>
+      <c r="F273" t="n">
+        <v>2.038194444444444e-08</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0.7226652489810385</v>
+      </c>
+      <c r="I273" t="n">
+        <v>0.7271627344222624</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0.6707692307692308</v>
+      </c>
+      <c r="L273" s="2" t="n">
+        <v>45914.49811984954</v>
+      </c>
+      <c r="M273" s="2" t="n">
+        <v>45914.49811975694</v>
+      </c>
+      <c r="N273" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O273" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>CombinedHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E274" t="n">
+        <v>8.320601851851852e-08</v>
+      </c>
+      <c r="F274" t="n">
+        <v>2.579861111111111e-08</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0.7781321991848308</v>
+      </c>
+      <c r="I274" t="n">
+        <v>0.7878604557370438</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0.7292307692307692</v>
+      </c>
+      <c r="L274" s="2" t="n">
+        <v>45914.49812707176</v>
+      </c>
+      <c r="M274" s="2" t="n">
+        <v>45914.49812699074</v>
+      </c>
+      <c r="N274" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O274" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>CombinedHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E275" t="n">
+        <v>8.320601851851852e-08</v>
+      </c>
+      <c r="F275" t="n">
+        <v>2.579861111111111e-08</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.7631578947368421</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0.7457279562542719</v>
+      </c>
+      <c r="I275" t="n">
+        <v>0.7609649122807017</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0.7631578947368421</v>
+      </c>
+      <c r="K275" t="n">
+        <v>0.6907692307692308</v>
+      </c>
+      <c r="L275" s="2" t="n">
+        <v>45914.49812707176</v>
+      </c>
+      <c r="M275" s="2" t="n">
+        <v>45914.49812699074</v>
+      </c>
+      <c r="N275" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E276" t="n">
+        <v>1.105324074074074e-08</v>
+      </c>
+      <c r="F276" t="n">
+        <v>1.516203703703704e-09</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.6578947368421053</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0.5221386800334169</v>
+      </c>
+      <c r="I276" t="n">
+        <v>0.432825484764543</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0.6578947368421053</v>
+      </c>
+      <c r="K276" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L276" s="2" t="n">
+        <v>45914.49813695602</v>
+      </c>
+      <c r="M276" s="2" t="n">
+        <v>45914.49813694444</v>
+      </c>
+      <c r="N276" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E277" t="n">
+        <v>1.105324074074074e-08</v>
+      </c>
+      <c r="F277" t="n">
+        <v>1.516203703703704e-09</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.6578947368421053</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0.5221386800334169</v>
+      </c>
+      <c r="I277" t="n">
+        <v>0.432825484764543</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0.6578947368421053</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L277" s="2" t="n">
+        <v>45914.49813695602</v>
+      </c>
+      <c r="M277" s="2" t="n">
+        <v>45914.49813694444</v>
+      </c>
+      <c r="N277" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Random_Classifier</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>RandomGuesser_uniform</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E278" t="n">
+        <v>3.865740740740741e-09</v>
+      </c>
+      <c r="F278" t="n">
+        <v>2.650462962962963e-09</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="I278" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="K278" t="n">
+        <v>0.4738461538461539</v>
+      </c>
+      <c r="L278" s="2" t="n">
+        <v>45914.49814074074</v>
+      </c>
+      <c r="M278" s="2" t="n">
+        <v>45914.49814072916</v>
+      </c>
+      <c r="N278" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O278" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Random_Classifier</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>RandomGuesser_uniform</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E279" t="n">
+        <v>3.865740740740741e-09</v>
+      </c>
+      <c r="F279" t="n">
+        <v>2.650462962962963e-09</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.6578947368421053</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0.5221386800334169</v>
+      </c>
+      <c r="I279" t="n">
+        <v>0.432825484764543</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0.6578947368421053</v>
+      </c>
+      <c r="K279" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L279" s="2" t="n">
+        <v>45914.49814074074</v>
+      </c>
+      <c r="M279" s="2" t="n">
+        <v>45914.49814072916</v>
+      </c>
+      <c r="N279" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O279" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>GED_KNN</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>(1)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E280" t="n">
+        <v>1.989814814814815e-07</v>
+      </c>
+      <c r="F280" t="n">
+        <v>6.19212962962963e-08</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0.8173210804789752</v>
+      </c>
+      <c r="I280" t="n">
+        <v>0.8200187969924811</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0.8046153846153845</v>
+      </c>
+      <c r="L280" s="2" t="n">
+        <v>45914.49814540509</v>
+      </c>
+      <c r="M280" s="2" t="n">
+        <v>45914.49814519676</v>
+      </c>
+      <c r="N280" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O280" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>GED_KNN</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>(1)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E281" t="n">
+        <v>1.989814814814815e-07</v>
+      </c>
+      <c r="F281" t="n">
+        <v>6.19212962962963e-08</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0.8173210804789752</v>
+      </c>
+      <c r="I281" t="n">
+        <v>0.8200187969924811</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="K281" t="n">
+        <v>0.8046153846153845</v>
+      </c>
+      <c r="L281" s="2" t="n">
+        <v>45914.49814540509</v>
+      </c>
+      <c r="M281" s="2" t="n">
+        <v>45914.49814519676</v>
+      </c>
+      <c r="N281" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Base_GED_SVC</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E282" t="n">
+        <v>2.433217592592593e-07</v>
+      </c>
+      <c r="F282" t="n">
+        <v>5.958333333333333e-08</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0.7781321991848308</v>
+      </c>
+      <c r="I282" t="n">
+        <v>0.7878604557370438</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="K282" t="n">
+        <v>0.7292307692307692</v>
+      </c>
+      <c r="L282" s="2" t="n">
+        <v>45914.4984683912</v>
+      </c>
+      <c r="M282" s="2" t="n">
+        <v>45914.49846814815</v>
+      </c>
+      <c r="N282" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O282" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Base_GED_SVC</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E283" t="n">
+        <v>2.433217592592593e-07</v>
+      </c>
+      <c r="F283" t="n">
+        <v>5.958333333333333e-08</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0.7781321991848308</v>
+      </c>
+      <c r="I283" t="n">
+        <v>0.7878604557370438</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="K283" t="n">
+        <v>0.7292307692307692</v>
+      </c>
+      <c r="L283" s="2" t="n">
+        <v>45914.4984683912</v>
+      </c>
+      <c r="M283" s="2" t="n">
+        <v>45914.49846814815</v>
+      </c>
+      <c r="N283" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O283" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Trivial_GED_SVC</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>SVC_Trivial-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E284" t="n">
+        <v>2.371759259259259e-07</v>
+      </c>
+      <c r="F284" t="n">
+        <v>5.989583333333334e-08</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.6842105263157895</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0.6671982987772462</v>
+      </c>
+      <c r="I284" t="n">
+        <v>0.6664650131074813</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0.6842105263157895</v>
+      </c>
+      <c r="K284" t="n">
+        <v>0.6123076923076922</v>
+      </c>
+      <c r="L284" s="2" t="n">
+        <v>45914.49854465278</v>
+      </c>
+      <c r="M284" s="2" t="n">
+        <v>45914.49854440973</v>
+      </c>
+      <c r="N284" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O284" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Trivial_GED_SVC</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>SVC_Trivial-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E285" t="n">
+        <v>2.371759259259259e-07</v>
+      </c>
+      <c r="F285" t="n">
+        <v>5.989583333333334e-08</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.6842105263157895</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0.6671982987772462</v>
+      </c>
+      <c r="I285" t="n">
+        <v>0.6664650131074813</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0.6842105263157895</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0.6123076923076922</v>
+      </c>
+      <c r="L285" s="2" t="n">
+        <v>45914.49854465278</v>
+      </c>
+      <c r="M285" s="2" t="n">
+        <v>45914.49854440973</v>
+      </c>
+      <c r="N285" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O285" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Simple_Prototype_GED_SVC</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E286" t="n">
+        <v>4.46875e-08</v>
+      </c>
+      <c r="F286" t="n">
+        <v>6.25e-09</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.7105263157894737</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0.7129331264669611</v>
+      </c>
+      <c r="I286" t="n">
+        <v>0.7163220551378445</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0.7105263157894737</v>
+      </c>
+      <c r="K286" t="n">
+        <v>0.6876923076923077</v>
+      </c>
+      <c r="L286" s="2" t="n">
+        <v>45914.49889940972</v>
+      </c>
+      <c r="M286" s="2" t="n">
+        <v>45914.49889935185</v>
+      </c>
+      <c r="N286" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O286" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Simple_Prototype_GED_SVC</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E287" t="n">
+        <v>4.46875e-08</v>
+      </c>
+      <c r="F287" t="n">
+        <v>6.25e-09</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.6842105263157895</v>
+      </c>
+      <c r="H287" t="n">
+        <v>0.6842105263157895</v>
+      </c>
+      <c r="I287" t="n">
+        <v>0.6842105263157895</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0.6842105263157895</v>
+      </c>
+      <c r="K287" t="n">
+        <v>0.6492307692307692</v>
+      </c>
+      <c r="L287" s="2" t="n">
+        <v>45914.49889940972</v>
+      </c>
+      <c r="M287" s="2" t="n">
+        <v>45914.49889935185</v>
+      </c>
+      <c r="N287" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>ZERO_GED_SVC</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E288" t="n">
+        <v>3.815162037037037e-06</v>
+      </c>
+      <c r="F288" t="n">
+        <v>1.003368055555556e-06</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.6842105263157895</v>
+      </c>
+      <c r="H288" t="n">
+        <v>0.6671982987772462</v>
+      </c>
+      <c r="I288" t="n">
+        <v>0.6664650131074813</v>
+      </c>
+      <c r="J288" t="n">
+        <v>0.6842105263157895</v>
+      </c>
+      <c r="K288" t="n">
+        <v>0.6123076923076922</v>
+      </c>
+      <c r="L288" s="2" t="n">
+        <v>45914.50202265046</v>
+      </c>
+      <c r="M288" s="2" t="n">
+        <v>45914.50201883102</v>
+      </c>
+      <c r="N288" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E289" t="n">
+        <v>1.486921296296296e-07</v>
+      </c>
+      <c r="F289" t="n">
+        <v>5.613425925925926e-09</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="H289" t="n">
+        <v>0.8698119505953045</v>
+      </c>
+      <c r="I289" t="n">
+        <v>0.8820175438596491</v>
+      </c>
+      <c r="J289" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="K289" t="n">
+        <v>0.8797101449275363</v>
+      </c>
+      <c r="L289" s="2" t="n">
+        <v>45914.50235979167</v>
+      </c>
+      <c r="M289" s="2" t="n">
+        <v>45914.50235964121</v>
+      </c>
+      <c r="N289" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O289" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E290" t="n">
+        <v>1.486921296296296e-07</v>
+      </c>
+      <c r="F290" t="n">
+        <v>5.613425925925926e-09</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H290" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="I290" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="K290" t="n">
+        <v>0.8347826086956522</v>
+      </c>
+      <c r="L290" s="2" t="n">
+        <v>45914.50235979167</v>
+      </c>
+      <c r="M290" s="2" t="n">
+        <v>45914.50235964121</v>
+      </c>
+      <c r="N290" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O290" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>WeisfeilerLehman_SVC</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E291" t="n">
+        <v>2.975462962962963e-07</v>
+      </c>
+      <c r="F291" t="n">
+        <v>9.880787037037037e-08</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="H291" t="n">
+        <v>0.757209114740875</v>
+      </c>
+      <c r="I291" t="n">
+        <v>0.8405103668261562</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="K291" t="n">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="L291" s="2" t="n">
+        <v>45914.50637181713</v>
+      </c>
+      <c r="M291" s="2" t="n">
+        <v>45914.5063715162</v>
+      </c>
+      <c r="N291" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O291" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>WeisfeilerLehman_SVC</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E292" t="n">
+        <v>2.975462962962963e-07</v>
+      </c>
+      <c r="F292" t="n">
+        <v>9.880787037037037e-08</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.7631578947368421</v>
+      </c>
+      <c r="H292" t="n">
+        <v>0.7607430340557275</v>
+      </c>
+      <c r="I292" t="n">
+        <v>0.75944669365722</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0.7631578947368421</v>
+      </c>
+      <c r="K292" t="n">
+        <v>0.7276923076923076</v>
+      </c>
+      <c r="L292" s="2" t="n">
+        <v>45914.50637181713</v>
+      </c>
+      <c r="M292" s="2" t="n">
+        <v>45914.5063715162</v>
+      </c>
+      <c r="N292" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>VertexHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E293" t="n">
+        <v>8.067129629629629e-08</v>
+      </c>
+      <c r="F293" t="n">
+        <v>1.962962962962963e-08</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="H293" t="n">
+        <v>0.8635637494063296</v>
+      </c>
+      <c r="I293" t="n">
+        <v>0.8718045112781955</v>
+      </c>
+      <c r="J293" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="K293" t="n">
+        <v>0.8261538461538461</v>
+      </c>
+      <c r="L293" s="2" t="n">
+        <v>45914.50639668982</v>
+      </c>
+      <c r="M293" s="2" t="n">
+        <v>45914.5063966088</v>
+      </c>
+      <c r="N293" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O293" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>VertexHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E294" t="n">
+        <v>8.067129629629629e-08</v>
+      </c>
+      <c r="F294" t="n">
+        <v>1.962962962962963e-08</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="H294" t="n">
+        <v>0.8635637494063296</v>
+      </c>
+      <c r="I294" t="n">
+        <v>0.8718045112781955</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="K294" t="n">
+        <v>0.8261538461538461</v>
+      </c>
+      <c r="L294" s="2" t="n">
+        <v>45914.50639668982</v>
+      </c>
+      <c r="M294" s="2" t="n">
+        <v>45914.5063966088</v>
+      </c>
+      <c r="N294" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O294" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>EdgeHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E295" t="n">
+        <v>8.453703703703703e-08</v>
+      </c>
+      <c r="F295" t="n">
+        <v>2.052083333333333e-08</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="H295" t="n">
+        <v>0.8635637494063296</v>
+      </c>
+      <c r="I295" t="n">
+        <v>0.8718045112781955</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="K295" t="n">
+        <v>0.8261538461538461</v>
+      </c>
+      <c r="L295" s="2" t="n">
+        <v>45914.50640420139</v>
+      </c>
+      <c r="M295" s="2" t="n">
+        <v>45914.50640412037</v>
+      </c>
+      <c r="N295" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O295" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>EdgeHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E296" t="n">
+        <v>8.453703703703703e-08</v>
+      </c>
+      <c r="F296" t="n">
+        <v>2.052083333333333e-08</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="H296" t="n">
+        <v>0.8695150574849823</v>
+      </c>
+      <c r="I296" t="n">
+        <v>0.8718671679197995</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0.8630769230769231</v>
+      </c>
+      <c r="L296" s="2" t="n">
+        <v>45914.50640420139</v>
+      </c>
+      <c r="M296" s="2" t="n">
+        <v>45914.50640412037</v>
+      </c>
+      <c r="N296" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O296" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>CombinedHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E297" t="n">
+        <v>9.452546296296297e-08</v>
+      </c>
+      <c r="F297" t="n">
+        <v>2.162037037037037e-08</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="H297" t="n">
+        <v>0.8923751686909581</v>
+      </c>
+      <c r="I297" t="n">
+        <v>0.8958001063264222</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="K297" t="n">
+        <v>0.8646153846153845</v>
+      </c>
+      <c r="L297" s="2" t="n">
+        <v>45914.50641081019</v>
+      </c>
+      <c r="M297" s="2" t="n">
+        <v>45914.50641070602</v>
+      </c>
+      <c r="N297" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O297" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>CombinedHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E298" t="n">
+        <v>9.452546296296297e-08</v>
+      </c>
+      <c r="F298" t="n">
+        <v>2.162037037037037e-08</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.9736842105263158</v>
+      </c>
+      <c r="H298" t="n">
+        <v>0.9739030114969963</v>
+      </c>
+      <c r="I298" t="n">
+        <v>0.9755639097744361</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0.9736842105263158</v>
+      </c>
+      <c r="K298" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="L298" s="2" t="n">
+        <v>45914.50641081019</v>
+      </c>
+      <c r="M298" s="2" t="n">
+        <v>45914.50641070602</v>
+      </c>
+      <c r="N298" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O298" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E299" t="n">
+        <v>1.060185185185185e-08</v>
+      </c>
+      <c r="F299" t="n">
+        <v>1.539351851851852e-09</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.6578947368421053</v>
+      </c>
+      <c r="H299" t="n">
+        <v>0.5221386800334169</v>
+      </c>
+      <c r="I299" t="n">
+        <v>0.432825484764543</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0.6578947368421053</v>
+      </c>
+      <c r="K299" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L299" s="2" t="n">
+        <v>45914.5064202662</v>
+      </c>
+      <c r="M299" s="2" t="n">
+        <v>45914.50642024306</v>
+      </c>
+      <c r="N299" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O299" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E300" t="n">
+        <v>1.060185185185185e-08</v>
+      </c>
+      <c r="F300" t="n">
+        <v>1.539351851851852e-09</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.4473684210526316</v>
+      </c>
+      <c r="H300" t="n">
+        <v>0.3946802490096208</v>
+      </c>
+      <c r="I300" t="n">
+        <v>0.6765350877192983</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0.4473684210526316</v>
+      </c>
+      <c r="K300" t="n">
+        <v>0.5615384615384615</v>
+      </c>
+      <c r="L300" s="2" t="n">
+        <v>45914.5064202662</v>
+      </c>
+      <c r="M300" s="2" t="n">
+        <v>45914.50642024306</v>
+      </c>
+      <c r="N300" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O300" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Random_Classifier</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>RandomGuesser_uniform</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E301" t="n">
+        <v>3.449074074074074e-09</v>
+      </c>
+      <c r="F301" t="n">
+        <v>2.268518518518518e-09</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H301" t="n">
+        <v>0.5125448028673835</v>
+      </c>
+      <c r="I301" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K301" t="n">
+        <v>0.4907692307692307</v>
+      </c>
+      <c r="L301" s="2" t="n">
+        <v>45914.50642432871</v>
+      </c>
+      <c r="M301" s="2" t="n">
+        <v>45914.50642431713</v>
+      </c>
+      <c r="N301" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O301" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Random_Classifier</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>RandomGuesser_uniform</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E302" t="n">
+        <v>3.449074074074074e-09</v>
+      </c>
+      <c r="F302" t="n">
+        <v>2.268518518518518e-09</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.6578947368421053</v>
+      </c>
+      <c r="H302" t="n">
+        <v>0.5221386800334169</v>
+      </c>
+      <c r="I302" t="n">
+        <v>0.432825484764543</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0.6578947368421053</v>
+      </c>
+      <c r="K302" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L302" s="2" t="n">
+        <v>45914.50642432871</v>
+      </c>
+      <c r="M302" s="2" t="n">
+        <v>45914.50642431713</v>
+      </c>
+      <c r="N302" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O302" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Base_GED_SVC</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E303" t="n">
+        <v>2.485185185185186e-07</v>
+      </c>
+      <c r="F303" t="n">
+        <v>6.091435185185185e-08</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="H303" t="n">
+        <v>0.8635637494063296</v>
+      </c>
+      <c r="I303" t="n">
+        <v>0.8718045112781955</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="K303" t="n">
+        <v>0.8261538461538461</v>
+      </c>
+      <c r="L303" s="2" t="n">
+        <v>45914.50643028935</v>
+      </c>
+      <c r="M303" s="2" t="n">
+        <v>45914.50643003472</v>
+      </c>
+      <c r="N303" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O303" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Base_GED_SVC</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E304" t="n">
+        <v>2.485185185185186e-07</v>
+      </c>
+      <c r="F304" t="n">
+        <v>6.091435185185185e-08</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="H304" t="n">
+        <v>0.8635637494063296</v>
+      </c>
+      <c r="I304" t="n">
+        <v>0.8718045112781955</v>
+      </c>
+      <c r="J304" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="K304" t="n">
+        <v>0.8261538461538461</v>
+      </c>
+      <c r="L304" s="2" t="n">
+        <v>45914.50643028935</v>
+      </c>
+      <c r="M304" s="2" t="n">
+        <v>45914.50643003472</v>
+      </c>
+      <c r="N304" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O304" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Simple_Prototype_GED_SVC</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="D305" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E305" t="n">
+        <v>4.722222222222223e-08</v>
+      </c>
+      <c r="F305" t="n">
+        <v>6.307870370370371e-09</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="H305" t="n">
+        <v>0.8963032581453634</v>
+      </c>
+      <c r="I305" t="n">
+        <v>0.9029748283752861</v>
+      </c>
+      <c r="J305" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="K305" t="n">
+        <v>0.9015384615384615</v>
+      </c>
+      <c r="L305" s="2" t="n">
+        <v>45914.50650611111</v>
+      </c>
+      <c r="M305" s="2" t="n">
+        <v>45914.50650605324</v>
+      </c>
+      <c r="N305" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O305" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>WeisfeilerLehman_SVC</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D306" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E306" t="n">
+        <v>2.958912037037037e-07</v>
+      </c>
+      <c r="F306" t="n">
+        <v>1.038078703703704e-07</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.7105263157894737</v>
+      </c>
+      <c r="H306" t="n">
+        <v>0.7032499280989358</v>
+      </c>
+      <c r="I306" t="n">
+        <v>0.6968227019160804</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0.7105263157894737</v>
+      </c>
+      <c r="K306" t="n">
+        <v>0.5416666666666667</v>
+      </c>
+      <c r="L306" s="2" t="n">
+        <v>45914.50746090278</v>
+      </c>
+      <c r="M306" s="2" t="n">
+        <v>45914.50746060185</v>
+      </c>
+      <c r="N306" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O306" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>WeisfeilerLehman_SVC</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D307" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E307" t="n">
+        <v>2.958912037037037e-07</v>
+      </c>
+      <c r="F307" t="n">
+        <v>1.038078703703704e-07</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.7105263157894737</v>
+      </c>
+      <c r="H307" t="n">
+        <v>0.7318295739348372</v>
+      </c>
+      <c r="I307" t="n">
+        <v>0.7757085020242914</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0.7105263157894737</v>
+      </c>
+      <c r="K307" t="n">
+        <v>0.6791666666666667</v>
+      </c>
+      <c r="L307" s="2" t="n">
+        <v>45914.50746090278</v>
+      </c>
+      <c r="M307" s="2" t="n">
+        <v>45914.50746060185</v>
+      </c>
+      <c r="N307" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O307" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>VertexHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D308" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E308" t="n">
+        <v>8.70949074074074e-08</v>
+      </c>
+      <c r="F308" t="n">
+        <v>2.454861111111111e-08</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="H308" t="n">
+        <v>0.8711759458466706</v>
+      </c>
+      <c r="I308" t="n">
+        <v>0.8753781004234725</v>
+      </c>
+      <c r="J308" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="K308" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="L308" s="2" t="n">
+        <v>45914.50748601852</v>
+      </c>
+      <c r="M308" s="2" t="n">
+        <v>45914.50748592593</v>
+      </c>
+      <c r="N308" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O308" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>VertexHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D309" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E309" t="n">
+        <v>8.70949074074074e-08</v>
+      </c>
+      <c r="F309" t="n">
+        <v>2.454861111111111e-08</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="H309" t="n">
+        <v>0.8711759458466706</v>
+      </c>
+      <c r="I309" t="n">
+        <v>0.8753781004234725</v>
+      </c>
+      <c r="J309" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="K309" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="L309" s="2" t="n">
+        <v>45914.50748601852</v>
+      </c>
+      <c r="M309" s="2" t="n">
+        <v>45914.50748592593</v>
+      </c>
+      <c r="N309" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O309" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>EdgeHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D310" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E310" t="n">
+        <v>8.120370370370369e-08</v>
+      </c>
+      <c r="F310" t="n">
+        <v>1.990740740740741e-08</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="H310" t="n">
+        <v>0.8711759458466706</v>
+      </c>
+      <c r="I310" t="n">
+        <v>0.8753781004234725</v>
+      </c>
+      <c r="J310" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="K310" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="L310" s="2" t="n">
+        <v>45914.50749354166</v>
+      </c>
+      <c r="M310" s="2" t="n">
+        <v>45914.50749346065</v>
+      </c>
+      <c r="N310" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O310" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>EdgeHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D311" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E311" t="n">
+        <v>8.120370370370369e-08</v>
+      </c>
+      <c r="F311" t="n">
+        <v>1.990740740740741e-08</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="H311" t="n">
+        <v>0.8030075187969924</v>
+      </c>
+      <c r="I311" t="n">
+        <v>0.8340080971659919</v>
+      </c>
+      <c r="J311" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="K311" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="L311" s="2" t="n">
+        <v>45914.50749354166</v>
+      </c>
+      <c r="M311" s="2" t="n">
+        <v>45914.50749346065</v>
+      </c>
+      <c r="N311" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O311" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>CombinedHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D312" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E312" t="n">
+        <v>9.414351851851852e-08</v>
+      </c>
+      <c r="F312" t="n">
+        <v>2.665509259259259e-08</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H312" t="n">
+        <v>0.8481548699334543</v>
+      </c>
+      <c r="I312" t="n">
+        <v>0.8593984962406015</v>
+      </c>
+      <c r="J312" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="K312" t="n">
+        <v>0.8083333333333333</v>
+      </c>
+      <c r="L312" s="2" t="n">
+        <v>45914.50749998842</v>
+      </c>
+      <c r="M312" s="2" t="n">
+        <v>45914.50749988426</v>
+      </c>
+      <c r="N312" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O312" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>CombinedHistogram_SVC</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_precomputed</t>
+        </is>
+      </c>
+      <c r="D313" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E313" t="n">
+        <v>9.414351851851852e-08</v>
+      </c>
+      <c r="F313" t="n">
+        <v>2.665509259259259e-08</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H313" t="n">
+        <v>0.8522556390977444</v>
+      </c>
+      <c r="I313" t="n">
+        <v>0.8819163292847503</v>
+      </c>
+      <c r="J313" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="K313" t="n">
+        <v>0.8541666666666667</v>
+      </c>
+      <c r="L313" s="2" t="n">
+        <v>45914.50749998842</v>
+      </c>
+      <c r="M313" s="2" t="n">
+        <v>45914.50749988426</v>
+      </c>
+      <c r="N313" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O313" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="D314" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E314" t="n">
+        <v>1.045138888888889e-08</v>
+      </c>
+      <c r="F314" t="n">
+        <v>1.504629629629629e-09</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="H314" t="n">
+        <v>0.07322654462242563</v>
+      </c>
+      <c r="I314" t="n">
+        <v>0.0443213296398892</v>
+      </c>
+      <c r="J314" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="K314" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L314" s="2" t="n">
+        <v>45914.5075097338</v>
+      </c>
+      <c r="M314" s="2" t="n">
+        <v>45914.50750971065</v>
+      </c>
+      <c r="N314" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O314" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Blind_Classifier</t>
+        </is>
+      </c>
+      <c r="D315" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E315" t="n">
+        <v>1.045138888888889e-08</v>
+      </c>
+      <c r="F315" t="n">
+        <v>1.504629629629629e-09</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.7631578947368421</v>
+      </c>
+      <c r="H315" t="n">
+        <v>0.6834249803613511</v>
+      </c>
+      <c r="I315" t="n">
+        <v>0.6187766714082503</v>
+      </c>
+      <c r="J315" t="n">
+        <v>0.7631578947368421</v>
+      </c>
+      <c r="K315" t="n">
+        <v>0.4833333333333333</v>
+      </c>
+      <c r="L315" s="2" t="n">
+        <v>45914.5075097338</v>
+      </c>
+      <c r="M315" s="2" t="n">
+        <v>45914.50750971065</v>
+      </c>
+      <c r="N315" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O315" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Random_Classifier</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>RandomGuesser_uniform</t>
+        </is>
+      </c>
+      <c r="D316" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E316" t="n">
+        <v>3.37962962962963e-09</v>
+      </c>
+      <c r="F316" t="n">
+        <v>2.673611111111111e-09</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="H316" t="n">
+        <v>0.5688259109311741</v>
+      </c>
+      <c r="I316" t="n">
+        <v>0.6495215311004784</v>
+      </c>
+      <c r="J316" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="K316" t="n">
+        <v>0.4708333333333333</v>
+      </c>
+      <c r="L316" s="2" t="n">
+        <v>45914.50751393518</v>
+      </c>
+      <c r="M316" s="2" t="n">
+        <v>45914.50751393518</v>
+      </c>
+      <c r="N316" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O316" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Random_Classifier</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>RandomGuesser_uniform</t>
+        </is>
+      </c>
+      <c r="D317" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E317" t="n">
+        <v>3.37962962962963e-09</v>
+      </c>
+      <c r="F317" t="n">
+        <v>2.673611111111111e-09</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="H317" t="n">
+        <v>0.696594427244582</v>
+      </c>
+      <c r="I317" t="n">
+        <v>0.6232686980609419</v>
+      </c>
+      <c r="J317" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="K317" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L317" s="2" t="n">
+        <v>45914.50751393518</v>
+      </c>
+      <c r="M317" s="2" t="n">
+        <v>45914.50751393518</v>
+      </c>
+      <c r="N317" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O317" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Base_GED_SVC</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D318" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E318" t="n">
+        <v>2.385763888888889e-07</v>
+      </c>
+      <c r="F318" t="n">
+        <v>6.112268518518519e-08</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="H318" t="n">
+        <v>0.8254847645429362</v>
+      </c>
+      <c r="I318" t="n">
+        <v>0.8458266879319511</v>
+      </c>
+      <c r="J318" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="K318" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="L318" s="2" t="n">
+        <v>45914.50751982639</v>
+      </c>
+      <c r="M318" s="2" t="n">
+        <v>45914.50751958333</v>
+      </c>
+      <c r="N318" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O318" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Base_GED_SVC</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D319" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E319" t="n">
+        <v>2.385763888888889e-07</v>
+      </c>
+      <c r="F319" t="n">
+        <v>6.112268518518519e-08</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="H319" t="n">
+        <v>0.8254847645429362</v>
+      </c>
+      <c r="I319" t="n">
+        <v>0.8458266879319511</v>
+      </c>
+      <c r="J319" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="K319" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="L319" s="2" t="n">
+        <v>45914.50751982639</v>
+      </c>
+      <c r="M319" s="2" t="n">
+        <v>45914.50751958333</v>
+      </c>
+      <c r="N319" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O319" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>ZERO_GED_SVC</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D320" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E320" t="n">
+        <v>3.961076388888889e-06</v>
+      </c>
+      <c r="F320" t="n">
+        <v>1.011666666666667e-06</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="H320" t="n">
+        <v>0.8254847645429362</v>
+      </c>
+      <c r="I320" t="n">
+        <v>0.8458266879319511</v>
+      </c>
+      <c r="J320" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="K320" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="L320" s="2" t="n">
+        <v>45914.50759994213</v>
+      </c>
+      <c r="M320" s="2" t="n">
+        <v>45914.50759597222</v>
+      </c>
+      <c r="N320" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O320" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D321" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E321" t="n">
+        <v>3.8184375e-06</v>
+      </c>
+      <c r="F321" t="n">
+        <v>9.569907407407407e-07</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="H321" t="n">
+        <v>0.8111946532999164</v>
+      </c>
+      <c r="I321" t="n">
+        <v>0.8178137651821862</v>
+      </c>
+      <c r="J321" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="K321" t="n">
+        <v>0.7898550724637682</v>
+      </c>
+      <c r="L321" s="2" t="n">
+        <v>45914.5868784375</v>
+      </c>
+      <c r="M321" s="2" t="n">
+        <v>45914.58687460648</v>
+      </c>
+      <c r="N321" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O321" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D322" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E322" s="3" t="n">
+        <v>3.976087962962963e-06</v>
+      </c>
+      <c r="F322" s="3" t="n">
+        <v>1.028518518518518e-06</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="H322" t="n">
+        <v>0.8173210804789752</v>
+      </c>
+      <c r="I322" t="n">
+        <v>0.8200187969924811</v>
+      </c>
+      <c r="J322" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="K322" t="n">
+        <v>0.8046153846153845</v>
+      </c>
+      <c r="L322" s="2" t="n">
+        <v>45914.58759238268</v>
+      </c>
+      <c r="M322" s="2" t="n">
+        <v>45914.58758839843</v>
+      </c>
+      <c r="N322" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O322" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
         </is>
       </c>
     </row>

--- a/configs/test_results.xlsx
+++ b/configs/test_results.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O322"/>
+  <dimension ref="A1:O374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18216,10 +18216,10 @@
       <c r="D322" t="n">
         <v>0.2</v>
       </c>
-      <c r="E322" s="3" t="n">
+      <c r="E322" t="n">
         <v>3.976087962962963e-06</v>
       </c>
-      <c r="F322" s="3" t="n">
+      <c r="F322" t="n">
         <v>1.028518518518518e-06</v>
       </c>
       <c r="G322" t="n">
@@ -18238,10 +18238,10 @@
         <v>0.8046153846153845</v>
       </c>
       <c r="L322" s="2" t="n">
-        <v>45914.58759238268</v>
+        <v>45914.58759238426</v>
       </c>
       <c r="M322" s="2" t="n">
-        <v>45914.58758839843</v>
+        <v>45914.58758840278</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -18249,6 +18249,2970 @@
         </is>
       </c>
       <c r="O322" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="D323" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E323" t="n">
+        <v>5.754629629629629e-08</v>
+      </c>
+      <c r="F323" t="n">
+        <v>5.868055555555555e-09</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H323" t="n">
+        <v>0.8461423444976077</v>
+      </c>
+      <c r="I323" t="n">
+        <v>0.89196675900277</v>
+      </c>
+      <c r="J323" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="K323" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="L323" s="2" t="n">
+        <v>45915.45059206019</v>
+      </c>
+      <c r="M323" s="2" t="n">
+        <v>45915.45059200231</v>
+      </c>
+      <c r="N323" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O323" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="D324" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E324" t="n">
+        <v>9.142361111111111e-08</v>
+      </c>
+      <c r="F324" t="n">
+        <v>5.844907407407408e-09</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.9210526315789473</v>
+      </c>
+      <c r="H324" t="n">
+        <v>0.9203962286669053</v>
+      </c>
+      <c r="I324" t="n">
+        <v>0.9211336032388665</v>
+      </c>
+      <c r="J324" t="n">
+        <v>0.9210526315789473</v>
+      </c>
+      <c r="K324" t="n">
+        <v>0.9077380952380953</v>
+      </c>
+      <c r="L324" s="2" t="n">
+        <v>45915.4557462037</v>
+      </c>
+      <c r="M324" s="2" t="n">
+        <v>45915.45574609953</v>
+      </c>
+      <c r="N324" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O324" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="D325" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E325" t="n">
+        <v>4.652777777777778e-08</v>
+      </c>
+      <c r="F325" t="n">
+        <v>5.891203703703704e-09</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.6578947368421053</v>
+      </c>
+      <c r="H325" t="n">
+        <v>0.6544066047471621</v>
+      </c>
+      <c r="I325" t="n">
+        <v>0.6518218623481781</v>
+      </c>
+      <c r="J325" t="n">
+        <v>0.6578947368421053</v>
+      </c>
+      <c r="K325" t="n">
+        <v>0.6107692307692308</v>
+      </c>
+      <c r="L325" s="2" t="n">
+        <v>45915.45935439815</v>
+      </c>
+      <c r="M325" s="2" t="n">
+        <v>45915.45935435185</v>
+      </c>
+      <c r="N325" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O325" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>SVC_Simple_Prototype_GED_poly</t>
+        </is>
+      </c>
+      <c r="D326" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E326" t="n">
+        <v>7.386574074074073e-08</v>
+      </c>
+      <c r="F326" t="n">
+        <v>5.659722222222222e-09</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.7105263157894737</v>
+      </c>
+      <c r="H326" t="n">
+        <v>0.7318295739348372</v>
+      </c>
+      <c r="I326" t="n">
+        <v>0.7757085020242914</v>
+      </c>
+      <c r="J326" t="n">
+        <v>0.7105263157894737</v>
+      </c>
+      <c r="K326" t="n">
+        <v>0.6791666666666667</v>
+      </c>
+      <c r="L326" s="2" t="n">
+        <v>45915.46226184028</v>
+      </c>
+      <c r="M326" s="2" t="n">
+        <v>45915.46226175926</v>
+      </c>
+      <c r="N326" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O326" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D327" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E327" t="n">
+        <v>3.4663125e-05</v>
+      </c>
+      <c r="F327" t="n">
+        <v>9.132499999999999e-06</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="H327" t="n">
+        <v>0.795144426723374</v>
+      </c>
+      <c r="I327" t="n">
+        <v>0.8053306342780027</v>
+      </c>
+      <c r="J327" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="K327" t="n">
+        <v>0.7607142857142857</v>
+      </c>
+      <c r="L327" s="2" t="n">
+        <v>45915.55921674769</v>
+      </c>
+      <c r="M327" s="2" t="n">
+        <v>45915.55918208334</v>
+      </c>
+      <c r="N327" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O327" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D328" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E328" t="n">
+        <v>3.552857638888889e-05</v>
+      </c>
+      <c r="F328" t="n">
+        <v>9.394814814814814e-06</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.7631578947368421</v>
+      </c>
+      <c r="H328" t="n">
+        <v>0.7780343180983366</v>
+      </c>
+      <c r="I328" t="n">
+        <v>0.8020676691729324</v>
+      </c>
+      <c r="J328" t="n">
+        <v>0.7631578947368421</v>
+      </c>
+      <c r="K328" t="n">
+        <v>0.6889400921658986</v>
+      </c>
+      <c r="L328" s="2" t="n">
+        <v>45915.56171504629</v>
+      </c>
+      <c r="M328" s="2" t="n">
+        <v>45915.56167935185</v>
+      </c>
+      <c r="N328" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O328" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D329" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E329" t="n">
+        <v>3.498998842592593e-05</v>
+      </c>
+      <c r="F329" t="n">
+        <v>8.534525462962963e-06</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H329" t="n">
+        <v>0.8444548872180452</v>
+      </c>
+      <c r="I329" t="n">
+        <v>0.8515636918382914</v>
+      </c>
+      <c r="J329" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="K329" t="n">
+        <v>0.8430769230769231</v>
+      </c>
+      <c r="L329" s="2" t="n">
+        <v>45915.56189789352</v>
+      </c>
+      <c r="M329" s="2" t="n">
+        <v>45915.56186289352</v>
+      </c>
+      <c r="N329" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O329" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D330" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E330" t="n">
+        <v>3.579084490740741e-05</v>
+      </c>
+      <c r="F330" t="n">
+        <v>9.358530092592592e-06</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.7631578947368421</v>
+      </c>
+      <c r="H330" t="n">
+        <v>0.7655727554179567</v>
+      </c>
+      <c r="I330" t="n">
+        <v>0.7690688259109312</v>
+      </c>
+      <c r="J330" t="n">
+        <v>0.7631578947368421</v>
+      </c>
+      <c r="K330" t="n">
+        <v>0.7371794871794872</v>
+      </c>
+      <c r="L330" s="2" t="n">
+        <v>45915.56295243056</v>
+      </c>
+      <c r="M330" s="2" t="n">
+        <v>45915.56291663194</v>
+      </c>
+      <c r="N330" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O330" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D331" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E331" t="n">
+        <v>2.478819444444444e-07</v>
+      </c>
+      <c r="F331" t="n">
+        <v>5.854166666666667e-08</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="H331" t="n">
+        <v>0.8711759458466706</v>
+      </c>
+      <c r="I331" t="n">
+        <v>0.8753781004234725</v>
+      </c>
+      <c r="J331" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="K331" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="L331" s="2" t="n">
+        <v>45915.56396873842</v>
+      </c>
+      <c r="M331" s="2" t="n">
+        <v>45915.5639684838</v>
+      </c>
+      <c r="N331" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O331" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D332" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E332" t="n">
+        <v>2.188425925925926e-07</v>
+      </c>
+      <c r="F332" t="n">
+        <v>5.03125e-08</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="H332" t="n">
+        <v>0.7486504723346828</v>
+      </c>
+      <c r="I332" t="n">
+        <v>0.7763157894736842</v>
+      </c>
+      <c r="J332" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="K332" t="n">
+        <v>0.7249999999999999</v>
+      </c>
+      <c r="L332" s="2" t="n">
+        <v>45915.56530469908</v>
+      </c>
+      <c r="M332" s="2" t="n">
+        <v>45915.56530446759</v>
+      </c>
+      <c r="N332" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O332" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D333" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E333" t="n">
+        <v>2.062268518518518e-07</v>
+      </c>
+      <c r="F333" t="n">
+        <v>6.381944444444444e-08</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.7631578947368421</v>
+      </c>
+      <c r="H333" t="n">
+        <v>0.7615940070278411</v>
+      </c>
+      <c r="I333" t="n">
+        <v>0.7611215538847118</v>
+      </c>
+      <c r="J333" t="n">
+        <v>0.7631578947368421</v>
+      </c>
+      <c r="K333" t="n">
+        <v>0.7463768115942031</v>
+      </c>
+      <c r="L333" s="2" t="n">
+        <v>45915.5655250463</v>
+      </c>
+      <c r="M333" s="2" t="n">
+        <v>45915.56552482639</v>
+      </c>
+      <c r="N333" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O333" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D334" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E334" t="n">
+        <v>2.062268518518518e-07</v>
+      </c>
+      <c r="F334" t="n">
+        <v>6.381944444444444e-08</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="H334" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="I334" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="J334" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="K334" t="n">
+        <v>0.7797101449275363</v>
+      </c>
+      <c r="L334" s="2" t="n">
+        <v>45915.5655250463</v>
+      </c>
+      <c r="M334" s="2" t="n">
+        <v>45915.56552482639</v>
+      </c>
+      <c r="N334" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O334" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D335" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E335" t="n">
+        <v>2.122916666666667e-07</v>
+      </c>
+      <c r="F335" t="n">
+        <v>6.24537037037037e-08</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H335" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="I335" t="n">
+        <v>0.8467836257309941</v>
+      </c>
+      <c r="J335" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="K335" t="n">
+        <v>0.8444444444444443</v>
+      </c>
+      <c r="L335" s="2" t="n">
+        <v>45915.56674121528</v>
+      </c>
+      <c r="M335" s="2" t="n">
+        <v>45915.56674099537</v>
+      </c>
+      <c r="N335" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O335" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D336" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E336" t="n">
+        <v>2.122916666666667e-07</v>
+      </c>
+      <c r="F336" t="n">
+        <v>6.24537037037037e-08</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H336" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="I336" t="n">
+        <v>0.8467836257309941</v>
+      </c>
+      <c r="J336" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="K336" t="n">
+        <v>0.8444444444444443</v>
+      </c>
+      <c r="L336" s="2" t="n">
+        <v>45915.56674121528</v>
+      </c>
+      <c r="M336" s="2" t="n">
+        <v>45915.56674099537</v>
+      </c>
+      <c r="N336" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O336" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D337" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E337" t="n">
+        <v>2.119791666666667e-07</v>
+      </c>
+      <c r="F337" t="n">
+        <v>6.278935185185186e-08</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="H337" t="n">
+        <v>0.8060941828254847</v>
+      </c>
+      <c r="I337" t="n">
+        <v>0.8092105263157895</v>
+      </c>
+      <c r="J337" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="K337" t="n">
+        <v>0.7356902356902356</v>
+      </c>
+      <c r="L337" s="2" t="n">
+        <v>45915.56701509259</v>
+      </c>
+      <c r="M337" s="2" t="n">
+        <v>45915.56701487269</v>
+      </c>
+      <c r="N337" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O337" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D338" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E338" t="n">
+        <v>2.119791666666667e-07</v>
+      </c>
+      <c r="F338" t="n">
+        <v>6.278935185185186e-08</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.9210526315789473</v>
+      </c>
+      <c r="H338" t="n">
+        <v>0.9198906356801093</v>
+      </c>
+      <c r="I338" t="n">
+        <v>0.9203007518796994</v>
+      </c>
+      <c r="J338" t="n">
+        <v>0.9210526315789473</v>
+      </c>
+      <c r="K338" t="n">
+        <v>0.8905723905723905</v>
+      </c>
+      <c r="L338" s="2" t="n">
+        <v>45915.56701509259</v>
+      </c>
+      <c r="M338" s="2" t="n">
+        <v>45915.56701487269</v>
+      </c>
+      <c r="N338" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O338" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Trivial-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>SVC_Trivial-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D339" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E339" t="n">
+        <v>2.46087962962963e-07</v>
+      </c>
+      <c r="F339" t="n">
+        <v>5.957175925925925e-08</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="H339" t="n">
+        <v>0.8185007974481658</v>
+      </c>
+      <c r="I339" t="n">
+        <v>0.822434875066454</v>
+      </c>
+      <c r="J339" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="K339" t="n">
+        <v>0.7785714285714286</v>
+      </c>
+      <c r="L339" s="2" t="n">
+        <v>45915.56791649306</v>
+      </c>
+      <c r="M339" s="2" t="n">
+        <v>45915.56791623843</v>
+      </c>
+      <c r="N339" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O339" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Trivial-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>SVC_Trivial-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D340" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E340" t="n">
+        <v>2.655671296296296e-07</v>
+      </c>
+      <c r="F340" t="n">
+        <v>6.179398148148148e-08</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="H340" t="n">
+        <v>0.818056215189327</v>
+      </c>
+      <c r="I340" t="n">
+        <v>0.8215249662618083</v>
+      </c>
+      <c r="J340" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="K340" t="n">
+        <v>0.7895622895622896</v>
+      </c>
+      <c r="L340" s="2" t="n">
+        <v>45915.56849951389</v>
+      </c>
+      <c r="M340" s="2" t="n">
+        <v>45915.56849908565</v>
+      </c>
+      <c r="N340" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O340" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Trivial-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>SVC_Trivial-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D341" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E341" t="n">
+        <v>2.603472222222222e-07</v>
+      </c>
+      <c r="F341" t="n">
+        <v>6.126157407407408e-08</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.7631578947368421</v>
+      </c>
+      <c r="H341" t="n">
+        <v>0.775232198142415</v>
+      </c>
+      <c r="I341" t="n">
+        <v>0.8131197559115179</v>
+      </c>
+      <c r="J341" t="n">
+        <v>0.7631578947368421</v>
+      </c>
+      <c r="K341" t="n">
+        <v>0.7750000000000001</v>
+      </c>
+      <c r="L341" s="2" t="n">
+        <v>45915.56856888889</v>
+      </c>
+      <c r="M341" s="2" t="n">
+        <v>45915.56856862269</v>
+      </c>
+      <c r="N341" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O341" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_NX_combined_Histogram_rbf</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>SVC_NX_combined_Histogram_rbf</t>
+        </is>
+      </c>
+      <c r="D342" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E342" t="n">
+        <v>5.112268518518518e-08</v>
+      </c>
+      <c r="F342" t="n">
+        <v>1.12962962962963e-08</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="H342" t="n">
+        <v>0.8176676986584108</v>
+      </c>
+      <c r="I342" t="n">
+        <v>0.8207287449392712</v>
+      </c>
+      <c r="J342" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="K342" t="n">
+        <v>0.798076923076923</v>
+      </c>
+      <c r="L342" s="2" t="n">
+        <v>45915.56885927083</v>
+      </c>
+      <c r="M342" s="2" t="n">
+        <v>45915.56885921297</v>
+      </c>
+      <c r="N342" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O342" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D343" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E343" t="n">
+        <v>3.014930555555556e-07</v>
+      </c>
+      <c r="F343" t="n">
+        <v>9.528935185185187e-08</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.6578947368421053</v>
+      </c>
+      <c r="H343" t="n">
+        <v>0.6125768967874231</v>
+      </c>
+      <c r="I343" t="n">
+        <v>0.6603618421052632</v>
+      </c>
+      <c r="J343" t="n">
+        <v>0.6578947368421053</v>
+      </c>
+      <c r="K343" t="n">
+        <v>0.5898550724637681</v>
+      </c>
+      <c r="L343" s="2" t="n">
+        <v>45915.56908415509</v>
+      </c>
+      <c r="M343" s="2" t="n">
+        <v>45915.56908385416</v>
+      </c>
+      <c r="N343" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O343" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D344" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E344" t="n">
+        <v>3.014930555555556e-07</v>
+      </c>
+      <c r="F344" t="n">
+        <v>9.528935185185187e-08</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.6842105263157895</v>
+      </c>
+      <c r="H344" t="n">
+        <v>0.6795112781954886</v>
+      </c>
+      <c r="I344" t="n">
+        <v>0.6787044534412955</v>
+      </c>
+      <c r="J344" t="n">
+        <v>0.6842105263157895</v>
+      </c>
+      <c r="K344" t="n">
+        <v>0.6579710144927535</v>
+      </c>
+      <c r="L344" s="2" t="n">
+        <v>45915.56908415509</v>
+      </c>
+      <c r="M344" s="2" t="n">
+        <v>45915.56908385416</v>
+      </c>
+      <c r="N344" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O344" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D345" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E345" t="n">
+        <v>3.683285879629629e-05</v>
+      </c>
+      <c r="F345" t="n">
+        <v>9.085300925925926e-06</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.7105263157894737</v>
+      </c>
+      <c r="H345" t="n">
+        <v>0.7148839841539332</v>
+      </c>
+      <c r="I345" t="n">
+        <v>0.7279964617425918</v>
+      </c>
+      <c r="J345" t="n">
+        <v>0.7105263157894737</v>
+      </c>
+      <c r="K345" t="n">
+        <v>0.7113095238095238</v>
+      </c>
+      <c r="L345" s="2" t="n">
+        <v>45915.56986917824</v>
+      </c>
+      <c r="M345" s="2" t="n">
+        <v>45915.56983217593</v>
+      </c>
+      <c r="N345" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O345" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D346" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E346" t="n">
+        <v>2.681481481481482e-07</v>
+      </c>
+      <c r="F346" t="n">
+        <v>6.570601851851852e-08</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.9210526315789473</v>
+      </c>
+      <c r="H346" t="n">
+        <v>0.920656479909451</v>
+      </c>
+      <c r="I346" t="n">
+        <v>0.9215865751334859</v>
+      </c>
+      <c r="J346" t="n">
+        <v>0.9210526315789473</v>
+      </c>
+      <c r="K346" t="n">
+        <v>0.9147727272727273</v>
+      </c>
+      <c r="L346" s="2" t="n">
+        <v>45915.57653127315</v>
+      </c>
+      <c r="M346" s="2" t="n">
+        <v>45915.57653099537</v>
+      </c>
+      <c r="N346" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O346" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D347" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E347" t="n">
+        <v>2.844560185185185e-07</v>
+      </c>
+      <c r="F347" t="n">
+        <v>6.295138888888889e-08</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="H347" t="n">
+        <v>0.8927935222672067</v>
+      </c>
+      <c r="I347" t="n">
+        <v>0.8964237516869096</v>
+      </c>
+      <c r="J347" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="K347" t="n">
+        <v>0.8720238095238095</v>
+      </c>
+      <c r="L347" s="2" t="n">
+        <v>45915.57774297454</v>
+      </c>
+      <c r="M347" s="2" t="n">
+        <v>45915.57774253472</v>
+      </c>
+      <c r="N347" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O347" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D348" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E348" t="n">
+        <v>2.577314814814815e-07</v>
+      </c>
+      <c r="F348" t="n">
+        <v>6.019675925925925e-08</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="H348" t="n">
+        <v>0.81015479876161</v>
+      </c>
+      <c r="I348" t="n">
+        <v>0.8160552897395003</v>
+      </c>
+      <c r="J348" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="K348" t="n">
+        <v>0.7797619047619047</v>
+      </c>
+      <c r="L348" s="2" t="n">
+        <v>45915.59576752315</v>
+      </c>
+      <c r="M348" s="2" t="n">
+        <v>45915.59576725694</v>
+      </c>
+      <c r="N348" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O348" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D349" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E349" t="n">
+        <v>2.525e-07</v>
+      </c>
+      <c r="F349" t="n">
+        <v>5.924768518518519e-08</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.9210526315789473</v>
+      </c>
+      <c r="H349" t="n">
+        <v>0.9181382496437976</v>
+      </c>
+      <c r="I349" t="n">
+        <v>0.9295112781954886</v>
+      </c>
+      <c r="J349" t="n">
+        <v>0.9210526315789473</v>
+      </c>
+      <c r="K349" t="n">
+        <v>0.8846153846153846</v>
+      </c>
+      <c r="L349" s="2" t="n">
+        <v>45915.59723604166</v>
+      </c>
+      <c r="M349" s="2" t="n">
+        <v>45915.59723578703</v>
+      </c>
+      <c r="N349" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O349" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D350" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E350" t="n">
+        <v>2.489814814814815e-07</v>
+      </c>
+      <c r="F350" t="n">
+        <v>5.998842592592593e-08</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="H350" t="n">
+        <v>0.8673270477781756</v>
+      </c>
+      <c r="I350" t="n">
+        <v>0.8675303643724696</v>
+      </c>
+      <c r="J350" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="K350" t="n">
+        <v>0.8511904761904761</v>
+      </c>
+      <c r="L350" s="2" t="n">
+        <v>45915.5997828125</v>
+      </c>
+      <c r="M350" s="2" t="n">
+        <v>45915.5997825463</v>
+      </c>
+      <c r="N350" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O350" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D351" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E351" t="n">
+        <v>2.896759259259259e-07</v>
+      </c>
+      <c r="F351" t="n">
+        <v>6.366898148148148e-08</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H351" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="I351" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="J351" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="K351" t="n">
+        <v>0.8347826086956522</v>
+      </c>
+      <c r="L351" s="2" t="n">
+        <v>45915.60206527778</v>
+      </c>
+      <c r="M351" s="2" t="n">
+        <v>45915.60206482639</v>
+      </c>
+      <c r="N351" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O351" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D352" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E352" t="n">
+        <v>2.846990740740741e-07</v>
+      </c>
+      <c r="F352" t="n">
+        <v>6.440972222222222e-08</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="H352" t="n">
+        <v>0.8700401537066622</v>
+      </c>
+      <c r="I352" t="n">
+        <v>0.8729757085020242</v>
+      </c>
+      <c r="J352" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="K352" t="n">
+        <v>0.8535353535353534</v>
+      </c>
+      <c r="L352" s="2" t="n">
+        <v>45915.60309186343</v>
+      </c>
+      <c r="M352" s="2" t="n">
+        <v>45915.60309142361</v>
+      </c>
+      <c r="N352" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O352" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D353" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E353" t="n">
+        <v>2.572453703703704e-07</v>
+      </c>
+      <c r="F353" t="n">
+        <v>5.94675925925926e-08</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="H353" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="I353" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="J353" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="K353" t="n">
+        <v>0.8935574229691876</v>
+      </c>
+      <c r="L353" s="2" t="n">
+        <v>45915.60417298611</v>
+      </c>
+      <c r="M353" s="2" t="n">
+        <v>45915.6041727199</v>
+      </c>
+      <c r="N353" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O353" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D354" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E354" t="n">
+        <v>2.504398148148148e-07</v>
+      </c>
+      <c r="F354" t="n">
+        <v>5.892361111111111e-08</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H354" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="I354" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="J354" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="K354" t="n">
+        <v>0.8080808080808081</v>
+      </c>
+      <c r="L354" s="2" t="n">
+        <v>45915.61996444444</v>
+      </c>
+      <c r="M354" s="2" t="n">
+        <v>45915.61996418981</v>
+      </c>
+      <c r="N354" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O354" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>SVC_Base-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D355" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E355" t="n">
+        <v>2.604398148148148e-07</v>
+      </c>
+      <c r="F355" t="n">
+        <v>5.97800925925926e-08</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H355" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="I355" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="J355" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="K355" t="n">
+        <v>0.7373271889400921</v>
+      </c>
+      <c r="L355" s="2" t="n">
+        <v>45915.62010240741</v>
+      </c>
+      <c r="M355" s="2" t="n">
+        <v>45915.62010212963</v>
+      </c>
+      <c r="N355" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O355" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Base_GED_SVC_linear</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>SVC_Base_GED_SVC_linear</t>
+        </is>
+      </c>
+      <c r="D356" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E356" t="n">
+        <v>2.528935185185185e-07</v>
+      </c>
+      <c r="F356" t="n">
+        <v>6.151620370370371e-08</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.9210526315789473</v>
+      </c>
+      <c r="H356" t="n">
+        <v>0.9194887438699463</v>
+      </c>
+      <c r="I356" t="n">
+        <v>0.9305263157894736</v>
+      </c>
+      <c r="J356" t="n">
+        <v>0.9210526315789473</v>
+      </c>
+      <c r="K356" t="n">
+        <v>0.90625</v>
+      </c>
+      <c r="L356" s="2" t="n">
+        <v>45915.62601511574</v>
+      </c>
+      <c r="M356" s="2" t="n">
+        <v>45915.62601486111</v>
+      </c>
+      <c r="N356" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O356" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Base_GED_SVC_linear</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>SVC_Base_GED_SVC_linear</t>
+        </is>
+      </c>
+      <c r="D357" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E357" t="n">
+        <v>2.528935185185185e-07</v>
+      </c>
+      <c r="F357" t="n">
+        <v>6.151620370370371e-08</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.9210526315789473</v>
+      </c>
+      <c r="H357" t="n">
+        <v>0.9194887438699463</v>
+      </c>
+      <c r="I357" t="n">
+        <v>0.9305263157894736</v>
+      </c>
+      <c r="J357" t="n">
+        <v>0.9210526315789473</v>
+      </c>
+      <c r="K357" t="n">
+        <v>0.90625</v>
+      </c>
+      <c r="L357" s="2" t="n">
+        <v>45915.62601511574</v>
+      </c>
+      <c r="M357" s="2" t="n">
+        <v>45915.62601486111</v>
+      </c>
+      <c r="N357" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O357" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Base_GED_SVC_linear</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>SVC_Base_GED_SVC_linear</t>
+        </is>
+      </c>
+      <c r="D358" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E358" t="n">
+        <v>0.0001758803009259259</v>
+      </c>
+      <c r="F358" t="n">
+        <v>8.048611111111111e-08</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="H358" t="n">
+        <v>0.8668019515564959</v>
+      </c>
+      <c r="I358" t="n">
+        <v>0.8665603402445508</v>
+      </c>
+      <c r="J358" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="K358" t="n">
+        <v>0.8365384615384616</v>
+      </c>
+      <c r="L358" s="2" t="n">
+        <v>45915.62715296296</v>
+      </c>
+      <c r="M358" s="2" t="n">
+        <v>45915.6269769213</v>
+      </c>
+      <c r="N358" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O358" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Base_Kernel_precomputed</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>SVC_Base_Kernel_precomputed</t>
+        </is>
+      </c>
+      <c r="D359" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E359" t="n">
+        <v>2.588657407407407e-07</v>
+      </c>
+      <c r="F359" t="n">
+        <v>6.14699074074074e-08</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H359" t="n">
+        <v>0.8350202429149798</v>
+      </c>
+      <c r="I359" t="n">
+        <v>0.8503759398496241</v>
+      </c>
+      <c r="J359" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="K359" t="n">
+        <v>0.8005952380952381</v>
+      </c>
+      <c r="L359" s="2" t="n">
+        <v>45915.63686548611</v>
+      </c>
+      <c r="M359" s="2" t="n">
+        <v>45915.63686521991</v>
+      </c>
+      <c r="N359" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O359" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Base_Kernel_precomputed</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>SVC_Base_Kernel_precomputed</t>
+        </is>
+      </c>
+      <c r="D360" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E360" t="n">
+        <v>2.544791666666667e-07</v>
+      </c>
+      <c r="F360" t="n">
+        <v>6.099537037037037e-08</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="H360" t="n">
+        <v>0.7863408521303259</v>
+      </c>
+      <c r="I360" t="n">
+        <v>0.7878542510121458</v>
+      </c>
+      <c r="J360" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="K360" t="n">
+        <v>0.7681159420289855</v>
+      </c>
+      <c r="L360" s="2" t="n">
+        <v>45915.638621875</v>
+      </c>
+      <c r="M360" s="2" t="n">
+        <v>45915.63862162037</v>
+      </c>
+      <c r="N360" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O360" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Trivial-GED_linear</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>SVC_Trivial-GED_linear</t>
+        </is>
+      </c>
+      <c r="D361" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E361" t="n">
+        <v>2.677314814814815e-07</v>
+      </c>
+      <c r="F361" t="n">
+        <v>5.954861111111111e-08</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.6842105263157895</v>
+      </c>
+      <c r="H361" t="n">
+        <v>0.7012227538543329</v>
+      </c>
+      <c r="I361" t="n">
+        <v>0.7321457489878542</v>
+      </c>
+      <c r="J361" t="n">
+        <v>0.6842105263157895</v>
+      </c>
+      <c r="K361" t="n">
+        <v>0.6398467432950191</v>
+      </c>
+      <c r="L361" s="2" t="n">
+        <v>45915.64095225694</v>
+      </c>
+      <c r="M361" s="2" t="n">
+        <v>45915.64095197916</v>
+      </c>
+      <c r="N361" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O361" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Trivial-GED_linear</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>SVC_Trivial-GED_linear</t>
+        </is>
+      </c>
+      <c r="D362" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E362" t="n">
+        <v>2.712731481481481e-07</v>
+      </c>
+      <c r="F362" t="n">
+        <v>6.182870370370371e-08</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="H362" t="n">
+        <v>0.8617131062951497</v>
+      </c>
+      <c r="I362" t="n">
+        <v>0.8919172932330826</v>
+      </c>
+      <c r="J362" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="K362" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L362" s="2" t="n">
+        <v>45915.64120328704</v>
+      </c>
+      <c r="M362" s="2" t="n">
+        <v>45915.64120300926</v>
+      </c>
+      <c r="N362" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O362" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Trivial-GED_linear</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>SVC_Trivial-GED_linear</t>
+        </is>
+      </c>
+      <c r="D363" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E363" t="n">
+        <v>2.712731481481481e-07</v>
+      </c>
+      <c r="F363" t="n">
+        <v>6.182870370370371e-08</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="H363" t="n">
+        <v>0.8931704260651628</v>
+      </c>
+      <c r="I363" t="n">
+        <v>0.897004048582996</v>
+      </c>
+      <c r="J363" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="K363" t="n">
+        <v>0.8782608695652174</v>
+      </c>
+      <c r="L363" s="2" t="n">
+        <v>45915.64120328704</v>
+      </c>
+      <c r="M363" s="2" t="n">
+        <v>45915.64120300926</v>
+      </c>
+      <c r="N363" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O363" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Random-Walk-Edit_linear</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_linear</t>
+        </is>
+      </c>
+      <c r="D364" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E364" t="n">
+        <v>3.612356481481481e-05</v>
+      </c>
+      <c r="F364" t="n">
+        <v>9.073333333333333e-06</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="H364" t="n">
+        <v>0.8913533834586467</v>
+      </c>
+      <c r="I364" t="n">
+        <v>0.8943335349868925</v>
+      </c>
+      <c r="J364" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="K364" t="n">
+        <v>0.845117845117845</v>
+      </c>
+      <c r="L364" s="2" t="n">
+        <v>45915.65248887731</v>
+      </c>
+      <c r="M364" s="2" t="n">
+        <v>45915.65245274305</v>
+      </c>
+      <c r="N364" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O364" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Random-Walk-Edit_linear</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_linear</t>
+        </is>
+      </c>
+      <c r="D365" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E365" t="n">
+        <v>3.591498842592593e-05</v>
+      </c>
+      <c r="F365" t="n">
+        <v>9.24170138888889e-06</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H365" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="I365" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="J365" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="K365" t="n">
+        <v>0.8173076923076923</v>
+      </c>
+      <c r="L365" s="2" t="n">
+        <v>45915.65608396991</v>
+      </c>
+      <c r="M365" s="2" t="n">
+        <v>45915.65604805556</v>
+      </c>
+      <c r="N365" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O365" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Random-Walk-Edit_linear</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_linear</t>
+        </is>
+      </c>
+      <c r="D366" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E366" t="n">
+        <v>3.569391203703704e-05</v>
+      </c>
+      <c r="F366" t="n">
+        <v>8.620451388888888e-06</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.6578947368421053</v>
+      </c>
+      <c r="H366" t="n">
+        <v>0.6615110715477912</v>
+      </c>
+      <c r="I366" t="n">
+        <v>0.6732456140350878</v>
+      </c>
+      <c r="J366" t="n">
+        <v>0.6578947368421053</v>
+      </c>
+      <c r="K366" t="n">
+        <v>0.6594202898550726</v>
+      </c>
+      <c r="L366" s="2" t="n">
+        <v>45915.65660081019</v>
+      </c>
+      <c r="M366" s="2" t="n">
+        <v>45915.65656510417</v>
+      </c>
+      <c r="N366" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O366" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D367" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E367" t="n">
+        <v>2.421064814814815e-07</v>
+      </c>
+      <c r="F367" t="n">
+        <v>5.445601851851852e-08</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H367" t="n">
+        <v>0.8362753036437246</v>
+      </c>
+      <c r="I367" t="n">
+        <v>0.8520290625553782</v>
+      </c>
+      <c r="J367" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="K367" t="n">
+        <v>0.8115942028985508</v>
+      </c>
+      <c r="L367" s="2" t="n">
+        <v>45915.66784297454</v>
+      </c>
+      <c r="M367" s="2" t="n">
+        <v>45915.66784271991</v>
+      </c>
+      <c r="N367" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O367" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D368" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E368" t="n">
+        <v>2.238194444444445e-07</v>
+      </c>
+      <c r="F368" t="n">
+        <v>5.229166666666667e-08</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="H368" t="n">
+        <v>0.8913533834586467</v>
+      </c>
+      <c r="I368" t="n">
+        <v>0.8943335349868925</v>
+      </c>
+      <c r="J368" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="K368" t="n">
+        <v>0.845117845117845</v>
+      </c>
+      <c r="L368" s="2" t="n">
+        <v>45915.66816442129</v>
+      </c>
+      <c r="M368" s="2" t="n">
+        <v>45915.66816418982</v>
+      </c>
+      <c r="N368" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O368" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D369" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E369" t="n">
+        <v>2.257523148148148e-07</v>
+      </c>
+      <c r="F369" t="n">
+        <v>5.24074074074074e-08</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="H369" t="n">
+        <v>0.8154043645699615</v>
+      </c>
+      <c r="I369" t="n">
+        <v>0.816158042164234</v>
+      </c>
+      <c r="J369" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="K369" t="n">
+        <v>0.8138888888888889</v>
+      </c>
+      <c r="L369" s="2" t="n">
+        <v>45915.67033194444</v>
+      </c>
+      <c r="M369" s="2" t="n">
+        <v>45915.67033170139</v>
+      </c>
+      <c r="N369" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O369" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D370" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E370" t="n">
+        <v>2.252430555555556e-07</v>
+      </c>
+      <c r="F370" t="n">
+        <v>5.188657407407407e-08</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H370" t="n">
+        <v>0.8362753036437246</v>
+      </c>
+      <c r="I370" t="n">
+        <v>0.8520290625553782</v>
+      </c>
+      <c r="J370" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="K370" t="n">
+        <v>0.8115942028985508</v>
+      </c>
+      <c r="L370" s="2" t="n">
+        <v>45915.6714877199</v>
+      </c>
+      <c r="M370" s="2" t="n">
+        <v>45915.67148748843</v>
+      </c>
+      <c r="N370" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O370" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D371" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E371" t="n">
+        <v>2.268981481481482e-07</v>
+      </c>
+      <c r="F371" t="n">
+        <v>5.224537037037037e-08</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.9473684210526315</v>
+      </c>
+      <c r="H371" t="n">
+        <v>0.9479786422578185</v>
+      </c>
+      <c r="I371" t="n">
+        <v>0.9539473684210527</v>
+      </c>
+      <c r="J371" t="n">
+        <v>0.9473684210526315</v>
+      </c>
+      <c r="K371" t="n">
+        <v>0.9583333333333333</v>
+      </c>
+      <c r="L371" s="2" t="n">
+        <v>45915.67279127315</v>
+      </c>
+      <c r="M371" s="2" t="n">
+        <v>45915.67279104167</v>
+      </c>
+      <c r="N371" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O371" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D372" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E372" t="n">
+        <v>2.229745370370371e-07</v>
+      </c>
+      <c r="F372" t="n">
+        <v>5.258101851851852e-08</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.9210526315789473</v>
+      </c>
+      <c r="H372" t="n">
+        <v>0.9198906356801093</v>
+      </c>
+      <c r="I372" t="n">
+        <v>0.9203007518796994</v>
+      </c>
+      <c r="J372" t="n">
+        <v>0.9210526315789473</v>
+      </c>
+      <c r="K372" t="n">
+        <v>0.8905723905723905</v>
+      </c>
+      <c r="L372" s="2" t="n">
+        <v>45915.67324615741</v>
+      </c>
+      <c r="M372" s="2" t="n">
+        <v>45915.6732459375</v>
+      </c>
+      <c r="N372" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O372" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D373" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E373" t="n">
+        <v>2.251157407407407e-07</v>
+      </c>
+      <c r="F373" t="n">
+        <v>5.194444444444444e-08</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="H373" t="n">
+        <v>0.819438545005213</v>
+      </c>
+      <c r="I373" t="n">
+        <v>0.8332834928229665</v>
+      </c>
+      <c r="J373" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="K373" t="n">
+        <v>0.823076923076923</v>
+      </c>
+      <c r="L373" s="2" t="n">
+        <v>45915.67539166666</v>
+      </c>
+      <c r="M373" s="2" t="n">
+        <v>45915.67539143519</v>
+      </c>
+      <c r="N373" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O373" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D374" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E374" s="3" t="n">
+        <v>2.229398148148148e-07</v>
+      </c>
+      <c r="F374" s="3" t="n">
+        <v>5.108796296296297e-08</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="H374" t="n">
+        <v>0.8177367308334261</v>
+      </c>
+      <c r="I374" t="n">
+        <v>0.8298245614035087</v>
+      </c>
+      <c r="J374" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="K374" t="n">
+        <v>0.8246376811594203</v>
+      </c>
+      <c r="L374" s="2" t="n">
+        <v>45915.67773759227</v>
+      </c>
+      <c r="M374" s="2" t="n">
+        <v>45915.67773736158</v>
+      </c>
+      <c r="N374" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O374" t="inlineStr">
         <is>
           <t>Simple Train-Test Split</t>
         </is>

--- a/configs/test_results.xlsx
+++ b/configs/test_results.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O374"/>
+  <dimension ref="A1:O403"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21180,10 +21180,10 @@
       <c r="D374" t="n">
         <v>0.2</v>
       </c>
-      <c r="E374" s="3" t="n">
+      <c r="E374" t="n">
         <v>2.229398148148148e-07</v>
       </c>
-      <c r="F374" s="3" t="n">
+      <c r="F374" t="n">
         <v>5.108796296296297e-08</v>
       </c>
       <c r="G374" t="n">
@@ -21202,10 +21202,10 @@
         <v>0.8246376811594203</v>
       </c>
       <c r="L374" s="2" t="n">
-        <v>45915.67773759227</v>
+        <v>45915.6777375926</v>
       </c>
       <c r="M374" s="2" t="n">
-        <v>45915.67773736158</v>
+        <v>45915.67773736111</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -21213,6 +21213,1659 @@
         </is>
       </c>
       <c r="O374" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="D375" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E375" t="n">
+        <v>4.173113425925926e-06</v>
+      </c>
+      <c r="F375" t="n">
+        <v>9.735300925925925e-07</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.6842105263157895</v>
+      </c>
+      <c r="H375" t="n">
+        <v>0.6815191387559809</v>
+      </c>
+      <c r="I375" t="n">
+        <v>0.6826849733028222</v>
+      </c>
+      <c r="J375" t="n">
+        <v>0.6842105263157895</v>
+      </c>
+      <c r="K375" t="n">
+        <v>0.6750700280112045</v>
+      </c>
+      <c r="L375" s="2" t="n">
+        <v>45915.90239358796</v>
+      </c>
+      <c r="M375" s="2" t="n">
+        <v>45915.90238939815</v>
+      </c>
+      <c r="N375" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O375" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="D376" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E376" t="n">
+        <v>0.0002108295023148148</v>
+      </c>
+      <c r="F376" t="n">
+        <v>9.805787037037039e-07</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.9210526315789473</v>
+      </c>
+      <c r="H376" t="n">
+        <v>0.9181382496437976</v>
+      </c>
+      <c r="I376" t="n">
+        <v>0.9295112781954886</v>
+      </c>
+      <c r="J376" t="n">
+        <v>0.9210526315789473</v>
+      </c>
+      <c r="K376" t="n">
+        <v>0.8846153846153846</v>
+      </c>
+      <c r="L376" s="2" t="n">
+        <v>45915.90305</v>
+      </c>
+      <c r="M376" s="2" t="n">
+        <v>45915.90283905093</v>
+      </c>
+      <c r="N376" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O376" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="D377" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E377" t="n">
+        <v>0.0005298372685185185</v>
+      </c>
+      <c r="F377" t="n">
+        <v>1.043368055555556e-06</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="H377" t="n">
+        <v>0.8089892491688615</v>
+      </c>
+      <c r="I377" t="n">
+        <v>0.8140977443609022</v>
+      </c>
+      <c r="J377" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="K377" t="n">
+        <v>0.7676923076923078</v>
+      </c>
+      <c r="L377" s="2" t="n">
+        <v>45915.91021627315</v>
+      </c>
+      <c r="M377" s="2" t="n">
+        <v>45915.90968631944</v>
+      </c>
+      <c r="N377" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O377" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="D378" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E378" t="n">
+        <v>0.0001506173148148148</v>
+      </c>
+      <c r="F378" t="n">
+        <v>9.930902777777779e-07</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="H378" t="n">
+        <v>0.7957393483709274</v>
+      </c>
+      <c r="I378" t="n">
+        <v>0.819377990430622</v>
+      </c>
+      <c r="J378" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="K378" t="n">
+        <v>0.8012820512820513</v>
+      </c>
+      <c r="L378" s="2" t="n">
+        <v>45915.91075240741</v>
+      </c>
+      <c r="M378" s="2" t="n">
+        <v>45915.91060165509</v>
+      </c>
+      <c r="N378" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O378" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="D379" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E379" t="n">
+        <v>3.163287037037037e-06</v>
+      </c>
+      <c r="F379" t="n">
+        <v>7.404166666666666e-07</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="H379" t="n">
+        <v>0.7407581453634084</v>
+      </c>
+      <c r="I379" t="n">
+        <v>0.748741418764302</v>
+      </c>
+      <c r="J379" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="K379" t="n">
+        <v>0.7261538461538461</v>
+      </c>
+      <c r="L379" s="2" t="n">
+        <v>45915.91097590278</v>
+      </c>
+      <c r="M379" s="2" t="n">
+        <v>45915.91097273148</v>
+      </c>
+      <c r="N379" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O379" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="D380" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E380" t="n">
+        <v>3.146006944444444e-06</v>
+      </c>
+      <c r="F380" t="n">
+        <v>7.470833333333333e-07</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="H380" t="n">
+        <v>0.8203842940685045</v>
+      </c>
+      <c r="I380" t="n">
+        <v>0.8352402745995423</v>
+      </c>
+      <c r="J380" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="K380" t="n">
+        <v>0.8205128205128205</v>
+      </c>
+      <c r="L380" s="2" t="n">
+        <v>45915.92173537037</v>
+      </c>
+      <c r="M380" s="2" t="n">
+        <v>45915.92173221065</v>
+      </c>
+      <c r="N380" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O380" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="D381" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E381" t="n">
+        <v>3.529664351851852e-06</v>
+      </c>
+      <c r="F381" t="n">
+        <v>8.441203703703703e-07</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H381" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="I381" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="J381" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="K381" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="L381" s="2" t="n">
+        <v>45915.9218982176</v>
+      </c>
+      <c r="M381" s="2" t="n">
+        <v>45915.92189467593</v>
+      </c>
+      <c r="N381" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O381" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="D382" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E382" t="n">
+        <v>3.650914351851852e-06</v>
+      </c>
+      <c r="F382" t="n">
+        <v>8.428819444444445e-07</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.7631578947368421</v>
+      </c>
+      <c r="H382" t="n">
+        <v>0.7643463497453311</v>
+      </c>
+      <c r="I382" t="n">
+        <v>0.7665968899521531</v>
+      </c>
+      <c r="J382" t="n">
+        <v>0.7631578947368421</v>
+      </c>
+      <c r="K382" t="n">
+        <v>0.7579710144927536</v>
+      </c>
+      <c r="L382" s="2" t="n">
+        <v>45915.92199268519</v>
+      </c>
+      <c r="M382" s="2" t="n">
+        <v>45915.92198901621</v>
+      </c>
+      <c r="N382" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O382" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="D383" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E383" t="n">
+        <v>3.565115740740741e-06</v>
+      </c>
+      <c r="F383" t="n">
+        <v>8.128009259259259e-07</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="H383" t="n">
+        <v>0.874231032125769</v>
+      </c>
+      <c r="I383" t="n">
+        <v>0.8917004048582996</v>
+      </c>
+      <c r="J383" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="K383" t="n">
+        <v>0.875478927203065</v>
+      </c>
+      <c r="L383" s="2" t="n">
+        <v>45915.92215949074</v>
+      </c>
+      <c r="M383" s="2" t="n">
+        <v>45915.92215592592</v>
+      </c>
+      <c r="N383" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O383" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="D384" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E384" t="n">
+        <v>3.492824074074074e-06</v>
+      </c>
+      <c r="F384" t="n">
+        <v>8.717361111111111e-07</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="H384" t="n">
+        <v>0.8966801619433199</v>
+      </c>
+      <c r="I384" t="n">
+        <v>0.9038220551378446</v>
+      </c>
+      <c r="J384" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="K384" t="n">
+        <v>0.9006410256410255</v>
+      </c>
+      <c r="L384" s="2" t="n">
+        <v>45915.92252958333</v>
+      </c>
+      <c r="M384" s="2" t="n">
+        <v>45915.92252607639</v>
+      </c>
+      <c r="N384" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O384" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="D385" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E385" t="n">
+        <v>3.046053240740741e-06</v>
+      </c>
+      <c r="F385" t="n">
+        <v>7.381365740740741e-07</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="H385" t="n">
+        <v>0.7965052211785696</v>
+      </c>
+      <c r="I385" t="n">
+        <v>0.818530701754386</v>
+      </c>
+      <c r="J385" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="K385" t="n">
+        <v>0.7087542087542087</v>
+      </c>
+      <c r="L385" s="2" t="n">
+        <v>45915.92266288195</v>
+      </c>
+      <c r="M385" s="2" t="n">
+        <v>45915.92265982639</v>
+      </c>
+      <c r="N385" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O385" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="D386" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E386" t="n">
+        <v>3.043796296296296e-06</v>
+      </c>
+      <c r="F386" t="n">
+        <v>8.139583333333333e-07</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="H386" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="I386" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="J386" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="K386" t="n">
+        <v>0.8830769230769231</v>
+      </c>
+      <c r="L386" s="2" t="n">
+        <v>45915.92331371528</v>
+      </c>
+      <c r="M386" s="2" t="n">
+        <v>45915.92331065972</v>
+      </c>
+      <c r="N386" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O386" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="D387" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E387" t="n">
+        <v>2.985277777777778e-06</v>
+      </c>
+      <c r="F387" t="n">
+        <v>7.327199074074074e-07</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.7105263157894737</v>
+      </c>
+      <c r="H387" t="n">
+        <v>0.7069642934242908</v>
+      </c>
+      <c r="I387" t="n">
+        <v>0.7044125465178097</v>
+      </c>
+      <c r="J387" t="n">
+        <v>0.7105263157894737</v>
+      </c>
+      <c r="K387" t="n">
+        <v>0.6538461538461539</v>
+      </c>
+      <c r="L387" s="2" t="n">
+        <v>45915.92477596065</v>
+      </c>
+      <c r="M387" s="2" t="n">
+        <v>45915.92477296296</v>
+      </c>
+      <c r="N387" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O387" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="D388" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E388" t="n">
+        <v>3.038900462962963e-06</v>
+      </c>
+      <c r="F388" t="n">
+        <v>7.477546296296296e-07</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="H388" t="n">
+        <v>0.7919145690312738</v>
+      </c>
+      <c r="I388" t="n">
+        <v>0.7987440191387559</v>
+      </c>
+      <c r="J388" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="K388" t="n">
+        <v>0.7886904761904762</v>
+      </c>
+      <c r="L388" s="2" t="n">
+        <v>45915.92644039352</v>
+      </c>
+      <c r="M388" s="2" t="n">
+        <v>45915.92643734954</v>
+      </c>
+      <c r="N388" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O388" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="D389" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E389" t="n">
+        <v>3.029618055555556e-06</v>
+      </c>
+      <c r="F389" t="n">
+        <v>7.397453703703704e-07</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.7631578947368421</v>
+      </c>
+      <c r="H389" t="n">
+        <v>0.7544147489313934</v>
+      </c>
+      <c r="I389" t="n">
+        <v>0.7563909774436089</v>
+      </c>
+      <c r="J389" t="n">
+        <v>0.7631578947368421</v>
+      </c>
+      <c r="K389" t="n">
+        <v>0.7092307692307691</v>
+      </c>
+      <c r="L389" s="2" t="n">
+        <v>45915.92711929399</v>
+      </c>
+      <c r="M389" s="2" t="n">
+        <v>45915.92711626158</v>
+      </c>
+      <c r="N389" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O389" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="D390" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E390" t="n">
+        <v>3.040011574074074e-06</v>
+      </c>
+      <c r="F390" t="n">
+        <v>7.448958333333333e-07</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="H390" t="n">
+        <v>0.7301136363636364</v>
+      </c>
+      <c r="I390" t="n">
+        <v>0.7630769230769231</v>
+      </c>
+      <c r="J390" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="K390" t="n">
+        <v>0.736842105263158</v>
+      </c>
+      <c r="L390" s="2" t="n">
+        <v>45915.92757193287</v>
+      </c>
+      <c r="M390" s="2" t="n">
+        <v>45915.92756888889</v>
+      </c>
+      <c r="N390" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O390" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="D391" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E391" t="n">
+        <v>3.092071759259259e-06</v>
+      </c>
+      <c r="F391" t="n">
+        <v>7.416319444444444e-07</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="H391" t="n">
+        <v>0.8130164119977362</v>
+      </c>
+      <c r="I391" t="n">
+        <v>0.8209586466165413</v>
+      </c>
+      <c r="J391" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="K391" t="n">
+        <v>0.8053221288515405</v>
+      </c>
+      <c r="L391" s="2" t="n">
+        <v>45915.92806930556</v>
+      </c>
+      <c r="M391" s="2" t="n">
+        <v>45915.92806621527</v>
+      </c>
+      <c r="N391" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O391" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="D392" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E392" t="n">
+        <v>0.0006041524305555556</v>
+      </c>
+      <c r="F392" t="n">
+        <v>7.484606481481482e-07</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H392" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="I392" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="J392" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="K392" t="n">
+        <v>0.8303571428571428</v>
+      </c>
+      <c r="L392" s="2" t="n">
+        <v>45915.93155193287</v>
+      </c>
+      <c r="M392" s="2" t="n">
+        <v>45915.93094765046</v>
+      </c>
+      <c r="N392" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O392" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="D393" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E393" t="n">
+        <v>3.247037037037037e-06</v>
+      </c>
+      <c r="F393" t="n">
+        <v>7.57638888888889e-07</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="H393" t="n">
+        <v>0.8656661594164873</v>
+      </c>
+      <c r="I393" t="n">
+        <v>0.8644736842105264</v>
+      </c>
+      <c r="J393" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="K393" t="n">
+        <v>0.7988505747126436</v>
+      </c>
+      <c r="L393" s="2" t="n">
+        <v>45915.95589414352</v>
+      </c>
+      <c r="M393" s="2" t="n">
+        <v>45915.9558908912</v>
+      </c>
+      <c r="N393" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O393" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="D394" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E394" t="n">
+        <v>3.153101851851852e-06</v>
+      </c>
+      <c r="F394" t="n">
+        <v>7.341435185185185e-07</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="H394" t="n">
+        <v>0.7817004048582996</v>
+      </c>
+      <c r="I394" t="n">
+        <v>0.7937267410951622</v>
+      </c>
+      <c r="J394" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="K394" t="n">
+        <v>0.7565217391304349</v>
+      </c>
+      <c r="L394" s="2" t="n">
+        <v>45915.9568825</v>
+      </c>
+      <c r="M394" s="2" t="n">
+        <v>45915.95687934028</v>
+      </c>
+      <c r="N394" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O394" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="D395" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E395" t="n">
+        <v>3.290127314814815e-06</v>
+      </c>
+      <c r="F395" t="n">
+        <v>7.496180555555556e-07</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="H395" t="n">
+        <v>0.8707294552169897</v>
+      </c>
+      <c r="I395" t="n">
+        <v>0.8744360902255639</v>
+      </c>
+      <c r="J395" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="K395" t="n">
+        <v>0.8371647509578544</v>
+      </c>
+      <c r="L395" s="2" t="n">
+        <v>45915.95900917824</v>
+      </c>
+      <c r="M395" s="2" t="n">
+        <v>45915.95900587963</v>
+      </c>
+      <c r="N395" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O395" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="D396" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E396" t="n">
+        <v>3.27193287037037e-06</v>
+      </c>
+      <c r="F396" t="n">
+        <v>7.497685185185186e-07</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H396" t="n">
+        <v>0.8471804511278196</v>
+      </c>
+      <c r="I396" t="n">
+        <v>0.8573453836611732</v>
+      </c>
+      <c r="J396" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="K396" t="n">
+        <v>0.8199233716475096</v>
+      </c>
+      <c r="L396" s="2" t="n">
+        <v>45915.96002582176</v>
+      </c>
+      <c r="M396" s="2" t="n">
+        <v>45915.96002253472</v>
+      </c>
+      <c r="N396" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O396" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="D397" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E397" t="n">
+        <v>3.015891203703704e-06</v>
+      </c>
+      <c r="F397" t="n">
+        <v>7.429166666666666e-07</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="H397" t="n">
+        <v>0.8677607998490849</v>
+      </c>
+      <c r="I397" t="n">
+        <v>0.8683447749809305</v>
+      </c>
+      <c r="J397" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="K397" t="n">
+        <v>0.8607954545454546</v>
+      </c>
+      <c r="L397" s="2" t="n">
+        <v>45915.96197258102</v>
+      </c>
+      <c r="M397" s="2" t="n">
+        <v>45915.96196956019</v>
+      </c>
+      <c r="N397" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O397" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_linear</t>
+        </is>
+      </c>
+      <c r="D398" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E398" t="n">
+        <v>3.198993055555555e-06</v>
+      </c>
+      <c r="F398" t="n">
+        <v>7.856481481481481e-07</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.9210526315789473</v>
+      </c>
+      <c r="H398" t="n">
+        <v>0.9245386192754613</v>
+      </c>
+      <c r="I398" t="n">
+        <v>0.9407894736842105</v>
+      </c>
+      <c r="J398" t="n">
+        <v>0.9210526315789473</v>
+      </c>
+      <c r="K398" t="n">
+        <v>0.9482758620689655</v>
+      </c>
+      <c r="L398" s="2" t="n">
+        <v>45915.96344083334</v>
+      </c>
+      <c r="M398" s="2" t="n">
+        <v>45915.96343762732</v>
+      </c>
+      <c r="N398" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O398" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D399" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E399" t="n">
+        <v>7.342592592592592e-08</v>
+      </c>
+      <c r="F399" t="n">
+        <v>5.68287037037037e-09</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="H399" t="n">
+        <v>0.8704018109790607</v>
+      </c>
+      <c r="I399" t="n">
+        <v>0.8832375055285271</v>
+      </c>
+      <c r="J399" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="K399" t="n">
+        <v>0.880952380952381</v>
+      </c>
+      <c r="L399" s="2" t="n">
+        <v>45915.97400869213</v>
+      </c>
+      <c r="M399" s="2" t="n">
+        <v>45915.97400861111</v>
+      </c>
+      <c r="N399" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O399" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D400" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E400" t="n">
+        <v>8.903935185185186e-08</v>
+      </c>
+      <c r="F400" t="n">
+        <v>6.030092592592592e-09</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="H400" t="n">
+        <v>0.8724458204334367</v>
+      </c>
+      <c r="I400" t="n">
+        <v>0.8876879699248121</v>
+      </c>
+      <c r="J400" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="K400" t="n">
+        <v>0.8804713804713804</v>
+      </c>
+      <c r="L400" s="2" t="n">
+        <v>45915.97696756945</v>
+      </c>
+      <c r="M400" s="2" t="n">
+        <v>45915.97696747685</v>
+      </c>
+      <c r="N400" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O400" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D401" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E401" t="n">
+        <v>4.664810185185185e-05</v>
+      </c>
+      <c r="F401" t="n">
+        <v>8.349391203703703e-05</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H401" t="n">
+        <v>0.8447966507177034</v>
+      </c>
+      <c r="I401" t="n">
+        <v>0.8660818713450292</v>
+      </c>
+      <c r="J401" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="K401" t="n">
+        <v>0.8601190476190476</v>
+      </c>
+      <c r="L401" s="2" t="n">
+        <v>45915.97728130787</v>
+      </c>
+      <c r="M401" s="2" t="n">
+        <v>45915.97723453704</v>
+      </c>
+      <c r="N401" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O401" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D402" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E402" t="n">
+        <v>9.32175925925926e-08</v>
+      </c>
+      <c r="F402" t="n">
+        <v>5.9375e-09</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="H402" t="n">
+        <v>0.8975722133616871</v>
+      </c>
+      <c r="I402" t="n">
+        <v>0.9058704453441294</v>
+      </c>
+      <c r="J402" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="K402" t="n">
+        <v>0.8964285714285714</v>
+      </c>
+      <c r="L402" s="2" t="n">
+        <v>45915.97757503473</v>
+      </c>
+      <c r="M402" s="2" t="n">
+        <v>45915.97757493056</v>
+      </c>
+      <c r="N402" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O402" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D403" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E403" s="3" t="n">
+        <v>9.540509259259259e-08</v>
+      </c>
+      <c r="F403" s="3" t="n">
+        <v>5.694444444444445e-09</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="H403" t="n">
+        <v>0.8251805985552115</v>
+      </c>
+      <c r="I403" t="n">
+        <v>0.8627002288329519</v>
+      </c>
+      <c r="J403" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="K403" t="n">
+        <v>0.8428571428571427</v>
+      </c>
+      <c r="L403" s="2" t="n">
+        <v>45915.97782832831</v>
+      </c>
+      <c r="M403" s="2" t="n">
+        <v>45915.97782822539</v>
+      </c>
+      <c r="N403" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O403" t="inlineStr">
         <is>
           <t>Simple Train-Test Split</t>
         </is>

--- a/configs/test_results.xlsx
+++ b/configs/test_results.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O403"/>
+  <dimension ref="A1:O462"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22833,10 +22833,10 @@
       <c r="D403" t="n">
         <v>0.2</v>
       </c>
-      <c r="E403" s="3" t="n">
+      <c r="E403" t="n">
         <v>9.540509259259259e-08</v>
       </c>
-      <c r="F403" s="3" t="n">
+      <c r="F403" t="n">
         <v>5.694444444444445e-09</v>
       </c>
       <c r="G403" t="n">
@@ -22855,10 +22855,10 @@
         <v>0.8428571428571427</v>
       </c>
       <c r="L403" s="2" t="n">
-        <v>45915.97782832831</v>
+        <v>45915.97782833334</v>
       </c>
       <c r="M403" s="2" t="n">
-        <v>45915.97782822539</v>
+        <v>45915.97782822917</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
@@ -22868,6 +22868,3369 @@
       <c r="O403" t="inlineStr">
         <is>
           <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D404" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E404" t="n">
+        <v>2.306018518518519e-07</v>
+      </c>
+      <c r="F404" t="n">
+        <v>5.188657407407407e-08</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="H404" t="n">
+        <v>0.7972469635627529</v>
+      </c>
+      <c r="I404" t="n">
+        <v>0.8224256292906178</v>
+      </c>
+      <c r="J404" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="K404" t="n">
+        <v>0.7979797979797979</v>
+      </c>
+      <c r="L404" s="2" t="n">
+        <v>45916.97156148148</v>
+      </c>
+      <c r="M404" s="2" t="n">
+        <v>45916.97156123842</v>
+      </c>
+      <c r="N404" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O404" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D405" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E405" t="n">
+        <v>2.221643518518519e-07</v>
+      </c>
+      <c r="F405" t="n">
+        <v>5.121527777777778e-08</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="H405" t="n">
+        <v>0.7307398932112891</v>
+      </c>
+      <c r="I405" t="n">
+        <v>0.7420242914979758</v>
+      </c>
+      <c r="J405" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="K405" t="n">
+        <v>0.7226890756302522</v>
+      </c>
+      <c r="L405" s="2" t="n">
+        <v>45916.97231358796</v>
+      </c>
+      <c r="M405" s="2" t="n">
+        <v>45916.97231335648</v>
+      </c>
+      <c r="N405" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O405" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D406" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E406" t="n">
+        <v>2.2375e-07</v>
+      </c>
+      <c r="F406" t="n">
+        <v>5.200231481481481e-08</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="H406" t="n">
+        <v>0.8907037709215566</v>
+      </c>
+      <c r="I406" t="n">
+        <v>0.893421052631579</v>
+      </c>
+      <c r="J406" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="K406" t="n">
+        <v>0.8321428571428571</v>
+      </c>
+      <c r="L406" s="2" t="n">
+        <v>45916.97317077546</v>
+      </c>
+      <c r="M406" s="2" t="n">
+        <v>45916.97317054398</v>
+      </c>
+      <c r="N406" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O406" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D407" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E407" t="n">
+        <v>2.2375e-07</v>
+      </c>
+      <c r="F407" t="n">
+        <v>5.200231481481481e-08</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="H407" t="n">
+        <v>0.8907037709215566</v>
+      </c>
+      <c r="I407" t="n">
+        <v>0.893421052631579</v>
+      </c>
+      <c r="J407" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="K407" t="n">
+        <v>0.8321428571428571</v>
+      </c>
+      <c r="L407" s="2" t="n">
+        <v>45916.97317077546</v>
+      </c>
+      <c r="M407" s="2" t="n">
+        <v>45916.97317054398</v>
+      </c>
+      <c r="N407" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O407" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D408" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E408" t="n">
+        <v>2.244328703703704e-07</v>
+      </c>
+      <c r="F408" t="n">
+        <v>5.142361111111111e-08</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H408" t="n">
+        <v>0.8444548872180452</v>
+      </c>
+      <c r="I408" t="n">
+        <v>0.8515636918382914</v>
+      </c>
+      <c r="J408" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="K408" t="n">
+        <v>0.8430769230769231</v>
+      </c>
+      <c r="L408" s="2" t="n">
+        <v>45916.97340633102</v>
+      </c>
+      <c r="M408" s="2" t="n">
+        <v>45916.97340609954</v>
+      </c>
+      <c r="N408" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O408" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D409" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E409" t="n">
+        <v>2.244328703703704e-07</v>
+      </c>
+      <c r="F409" t="n">
+        <v>5.142361111111111e-08</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H409" t="n">
+        <v>0.8444548872180452</v>
+      </c>
+      <c r="I409" t="n">
+        <v>0.8515636918382914</v>
+      </c>
+      <c r="J409" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="K409" t="n">
+        <v>0.8430769230769231</v>
+      </c>
+      <c r="L409" s="2" t="n">
+        <v>45916.97340633102</v>
+      </c>
+      <c r="M409" s="2" t="n">
+        <v>45916.97340609954</v>
+      </c>
+      <c r="N409" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O409" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D410" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E410" t="n">
+        <v>2.271990740740741e-07</v>
+      </c>
+      <c r="F410" t="n">
+        <v>5.310185185185185e-08</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="H410" t="n">
+        <v>0.7965052211785696</v>
+      </c>
+      <c r="I410" t="n">
+        <v>0.818530701754386</v>
+      </c>
+      <c r="J410" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="K410" t="n">
+        <v>0.7087542087542087</v>
+      </c>
+      <c r="L410" s="2" t="n">
+        <v>45916.9735682176</v>
+      </c>
+      <c r="M410" s="2" t="n">
+        <v>45916.97356798611</v>
+      </c>
+      <c r="N410" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O410" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D411" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E411" t="n">
+        <v>2.379861111111111e-07</v>
+      </c>
+      <c r="F411" t="n">
+        <v>5.369212962962963e-08</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="H411" t="n">
+        <v>0.8692898791365795</v>
+      </c>
+      <c r="I411" t="n">
+        <v>0.871395881006865</v>
+      </c>
+      <c r="J411" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="K411" t="n">
+        <v>0.8660714285714286</v>
+      </c>
+      <c r="L411" s="2" t="n">
+        <v>45916.97385237268</v>
+      </c>
+      <c r="M411" s="2" t="n">
+        <v>45916.97385212963</v>
+      </c>
+      <c r="N411" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O411" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D412" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E412" t="n">
+        <v>2.379861111111111e-07</v>
+      </c>
+      <c r="F412" t="n">
+        <v>5.369212962962963e-08</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="H412" t="n">
+        <v>0.8692898791365795</v>
+      </c>
+      <c r="I412" t="n">
+        <v>0.871395881006865</v>
+      </c>
+      <c r="J412" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="K412" t="n">
+        <v>0.8660714285714286</v>
+      </c>
+      <c r="L412" s="2" t="n">
+        <v>45916.97385237268</v>
+      </c>
+      <c r="M412" s="2" t="n">
+        <v>45916.97385212963</v>
+      </c>
+      <c r="N412" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O412" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D413" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E413" t="n">
+        <v>2.277430555555556e-07</v>
+      </c>
+      <c r="F413" t="n">
+        <v>5.291666666666666e-08</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H413" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="I413" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="J413" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="K413" t="n">
+        <v>0.8246153846153845</v>
+      </c>
+      <c r="L413" s="2" t="n">
+        <v>45916.97405048611</v>
+      </c>
+      <c r="M413" s="2" t="n">
+        <v>45916.97405025463</v>
+      </c>
+      <c r="N413" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O413" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D414" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E414" t="n">
+        <v>2.216319444444444e-07</v>
+      </c>
+      <c r="F414" t="n">
+        <v>5.442129629629629e-08</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="H414" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="I414" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="J414" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="K414" t="n">
+        <v>0.8898550724637682</v>
+      </c>
+      <c r="L414" s="2" t="n">
+        <v>45916.97434925926</v>
+      </c>
+      <c r="M414" s="2" t="n">
+        <v>45916.97434902778</v>
+      </c>
+      <c r="N414" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O414" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D415" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E415" t="n">
+        <v>2.216319444444444e-07</v>
+      </c>
+      <c r="F415" t="n">
+        <v>5.442129629629629e-08</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="H415" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="I415" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="J415" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="K415" t="n">
+        <v>0.8898550724637682</v>
+      </c>
+      <c r="L415" s="2" t="n">
+        <v>45916.97434925926</v>
+      </c>
+      <c r="M415" s="2" t="n">
+        <v>45916.97434902778</v>
+      </c>
+      <c r="N415" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O415" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D416" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E416" t="n">
+        <v>2.409953703703704e-07</v>
+      </c>
+      <c r="F416" t="n">
+        <v>5.403935185185186e-08</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H416" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="I416" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="J416" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="K416" t="n">
+        <v>0.8303571428571428</v>
+      </c>
+      <c r="L416" s="2" t="n">
+        <v>45916.97458224537</v>
+      </c>
+      <c r="M416" s="2" t="n">
+        <v>45916.97458199074</v>
+      </c>
+      <c r="N416" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O416" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D417" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E417" t="n">
+        <v>2.409953703703704e-07</v>
+      </c>
+      <c r="F417" t="n">
+        <v>5.403935185185186e-08</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="H417" t="n">
+        <v>0.8170058307912114</v>
+      </c>
+      <c r="I417" t="n">
+        <v>0.8193745232646834</v>
+      </c>
+      <c r="J417" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="K417" t="n">
+        <v>0.8095238095238095</v>
+      </c>
+      <c r="L417" s="2" t="n">
+        <v>45916.97458224537</v>
+      </c>
+      <c r="M417" s="2" t="n">
+        <v>45916.97458199074</v>
+      </c>
+      <c r="N417" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O417" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D418" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E418" t="n">
+        <v>2.255439814814815e-07</v>
+      </c>
+      <c r="F418" t="n">
+        <v>5.274305555555556e-08</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="H418" t="n">
+        <v>0.8927935222672067</v>
+      </c>
+      <c r="I418" t="n">
+        <v>0.8964237516869096</v>
+      </c>
+      <c r="J418" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="K418" t="n">
+        <v>0.8720238095238095</v>
+      </c>
+      <c r="L418" s="2" t="n">
+        <v>45916.97477762731</v>
+      </c>
+      <c r="M418" s="2" t="n">
+        <v>45916.97477739583</v>
+      </c>
+      <c r="N418" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O418" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D419" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E419" t="n">
+        <v>2.41712962962963e-07</v>
+      </c>
+      <c r="F419" t="n">
+        <v>5.415509259259259e-08</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H419" t="n">
+        <v>0.8385627530364372</v>
+      </c>
+      <c r="I419" t="n">
+        <v>0.8403331561226298</v>
+      </c>
+      <c r="J419" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="K419" t="n">
+        <v>0.8061538461538462</v>
+      </c>
+      <c r="L419" s="2" t="n">
+        <v>45916.97498519676</v>
+      </c>
+      <c r="M419" s="2" t="n">
+        <v>45916.9749849537</v>
+      </c>
+      <c r="N419" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O419" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D420" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E420" t="n">
+        <v>2.41712962962963e-07</v>
+      </c>
+      <c r="F420" t="n">
+        <v>5.415509259259259e-08</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H420" t="n">
+        <v>0.8385627530364372</v>
+      </c>
+      <c r="I420" t="n">
+        <v>0.8403331561226298</v>
+      </c>
+      <c r="J420" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="K420" t="n">
+        <v>0.8061538461538462</v>
+      </c>
+      <c r="L420" s="2" t="n">
+        <v>45916.97498519676</v>
+      </c>
+      <c r="M420" s="2" t="n">
+        <v>45916.9749849537</v>
+      </c>
+      <c r="N420" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O420" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D421" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E421" t="n">
+        <v>2.357060185185185e-07</v>
+      </c>
+      <c r="F421" t="n">
+        <v>5.425925925925926e-08</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="H421" t="n">
+        <v>0.7863408521303259</v>
+      </c>
+      <c r="I421" t="n">
+        <v>0.7878542510121458</v>
+      </c>
+      <c r="J421" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="K421" t="n">
+        <v>0.7681159420289855</v>
+      </c>
+      <c r="L421" s="2" t="n">
+        <v>45916.97536530092</v>
+      </c>
+      <c r="M421" s="2" t="n">
+        <v>45916.97536505787</v>
+      </c>
+      <c r="N421" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O421" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D422" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E422" t="n">
+        <v>2.245601851851852e-07</v>
+      </c>
+      <c r="F422" t="n">
+        <v>5.170138888888889e-08</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.7105263157894737</v>
+      </c>
+      <c r="H422" t="n">
+        <v>0.7009692242344673</v>
+      </c>
+      <c r="I422" t="n">
+        <v>0.7181174089068826</v>
+      </c>
+      <c r="J422" t="n">
+        <v>0.7105263157894737</v>
+      </c>
+      <c r="K422" t="n">
+        <v>0.6932773109243697</v>
+      </c>
+      <c r="L422" s="2" t="n">
+        <v>45916.97634914352</v>
+      </c>
+      <c r="M422" s="2" t="n">
+        <v>45916.97634891204</v>
+      </c>
+      <c r="N422" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O422" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D423" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E423" t="n">
+        <v>2.279050925925926e-07</v>
+      </c>
+      <c r="F423" t="n">
+        <v>5.293981481481481e-08</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="H423" t="n">
+        <v>0.8111946532999164</v>
+      </c>
+      <c r="I423" t="n">
+        <v>0.8178137651821862</v>
+      </c>
+      <c r="J423" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="K423" t="n">
+        <v>0.7898550724637682</v>
+      </c>
+      <c r="L423" s="2" t="n">
+        <v>45916.97648045139</v>
+      </c>
+      <c r="M423" s="2" t="n">
+        <v>45916.97648021991</v>
+      </c>
+      <c r="N423" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O423" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D424" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E424" t="n">
+        <v>2.279050925925926e-07</v>
+      </c>
+      <c r="F424" t="n">
+        <v>5.293981481481481e-08</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="H424" t="n">
+        <v>0.8111946532999164</v>
+      </c>
+      <c r="I424" t="n">
+        <v>0.8178137651821862</v>
+      </c>
+      <c r="J424" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="K424" t="n">
+        <v>0.7898550724637682</v>
+      </c>
+      <c r="L424" s="2" t="n">
+        <v>45916.97648045139</v>
+      </c>
+      <c r="M424" s="2" t="n">
+        <v>45916.97648021991</v>
+      </c>
+      <c r="N424" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O424" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D425" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E425" t="n">
+        <v>2.253587962962963e-07</v>
+      </c>
+      <c r="F425" t="n">
+        <v>5.252314814814815e-08</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="H425" t="n">
+        <v>0.8675522261265783</v>
+      </c>
+      <c r="I425" t="n">
+        <v>0.8679511278195488</v>
+      </c>
+      <c r="J425" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="K425" t="n">
+        <v>0.8565217391304348</v>
+      </c>
+      <c r="L425" s="2" t="n">
+        <v>45916.97665355324</v>
+      </c>
+      <c r="M425" s="2" t="n">
+        <v>45916.97665332176</v>
+      </c>
+      <c r="N425" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O425" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D426" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E426" t="n">
+        <v>2.253587962962963e-07</v>
+      </c>
+      <c r="F426" t="n">
+        <v>5.252314814814815e-08</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="H426" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="I426" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="J426" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="K426" t="n">
+        <v>0.8898550724637682</v>
+      </c>
+      <c r="L426" s="2" t="n">
+        <v>45916.97665355324</v>
+      </c>
+      <c r="M426" s="2" t="n">
+        <v>45916.97665332176</v>
+      </c>
+      <c r="N426" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O426" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D427" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E427" t="n">
+        <v>2.25474537037037e-07</v>
+      </c>
+      <c r="F427" t="n">
+        <v>5.122685185185185e-08</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="H427" t="n">
+        <v>0.7989203778677463</v>
+      </c>
+      <c r="I427" t="n">
+        <v>0.8258145363408521</v>
+      </c>
+      <c r="J427" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="K427" t="n">
+        <v>0.7928571428571429</v>
+      </c>
+      <c r="L427" s="2" t="n">
+        <v>45916.9769224537</v>
+      </c>
+      <c r="M427" s="2" t="n">
+        <v>45916.97692221065</v>
+      </c>
+      <c r="N427" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O427" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D428" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E428" t="n">
+        <v>2.616087962962963e-07</v>
+      </c>
+      <c r="F428" t="n">
+        <v>5.943287037037037e-08</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="H428" t="n">
+        <v>0.8675522261265783</v>
+      </c>
+      <c r="I428" t="n">
+        <v>0.8679511278195488</v>
+      </c>
+      <c r="J428" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="K428" t="n">
+        <v>0.8565217391304348</v>
+      </c>
+      <c r="L428" s="2" t="n">
+        <v>45916.97719541666</v>
+      </c>
+      <c r="M428" s="2" t="n">
+        <v>45916.97719502315</v>
+      </c>
+      <c r="N428" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O428" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D429" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E429" t="n">
+        <v>2.65474537037037e-07</v>
+      </c>
+      <c r="F429" t="n">
+        <v>6.189814814814815e-08</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="H429" t="n">
+        <v>0.7918325224826773</v>
+      </c>
+      <c r="I429" t="n">
+        <v>0.8116343490304709</v>
+      </c>
+      <c r="J429" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="K429" t="n">
+        <v>0.8028985507246377</v>
+      </c>
+      <c r="L429" s="2" t="n">
+        <v>45916.97747168982</v>
+      </c>
+      <c r="M429" s="2" t="n">
+        <v>45916.9774712963</v>
+      </c>
+      <c r="N429" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O429" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D430" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E430" t="n">
+        <v>2.295601851851852e-07</v>
+      </c>
+      <c r="F430" t="n">
+        <v>5.228009259259259e-08</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.9473684210526315</v>
+      </c>
+      <c r="H430" t="n">
+        <v>0.9449561403508772</v>
+      </c>
+      <c r="I430" t="n">
+        <v>0.9507640067911713</v>
+      </c>
+      <c r="J430" t="n">
+        <v>0.9473684210526315</v>
+      </c>
+      <c r="K430" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="L430" s="2" t="n">
+        <v>45916.97860795139</v>
+      </c>
+      <c r="M430" s="2" t="n">
+        <v>45916.97860770833</v>
+      </c>
+      <c r="N430" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O430" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D431" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E431" t="n">
+        <v>2.309722222222222e-07</v>
+      </c>
+      <c r="F431" t="n">
+        <v>5.148148148148148e-08</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H431" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="I431" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="J431" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="K431" t="n">
+        <v>0.8173076923076923</v>
+      </c>
+      <c r="L431" s="2" t="n">
+        <v>45916.97948701389</v>
+      </c>
+      <c r="M431" s="2" t="n">
+        <v>45916.97948678241</v>
+      </c>
+      <c r="N431" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O431" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D432" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E432" t="n">
+        <v>2.309722222222222e-07</v>
+      </c>
+      <c r="F432" t="n">
+        <v>5.148148148148148e-08</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="H432" t="n">
+        <v>0.8668019515564959</v>
+      </c>
+      <c r="I432" t="n">
+        <v>0.8665603402445508</v>
+      </c>
+      <c r="J432" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="K432" t="n">
+        <v>0.8365384615384616</v>
+      </c>
+      <c r="L432" s="2" t="n">
+        <v>45916.97948701389</v>
+      </c>
+      <c r="M432" s="2" t="n">
+        <v>45916.97948678241</v>
+      </c>
+      <c r="N432" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O432" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Trivial-GED_linear</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>SVC_Trivial-GED_linear</t>
+        </is>
+      </c>
+      <c r="D433" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E433" t="n">
+        <v>2.762615740740741e-07</v>
+      </c>
+      <c r="F433" t="n">
+        <v>6.214120370370371e-08</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H433" t="n">
+        <v>0.8471804511278196</v>
+      </c>
+      <c r="I433" t="n">
+        <v>0.8573453836611732</v>
+      </c>
+      <c r="J433" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="K433" t="n">
+        <v>0.8199233716475096</v>
+      </c>
+      <c r="L433" s="2" t="n">
+        <v>45917.44871592592</v>
+      </c>
+      <c r="M433" s="2" t="n">
+        <v>45917.44871563657</v>
+      </c>
+      <c r="N433" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O433" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Trivial-GED_linear</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>SVC_Trivial-GED_linear</t>
+        </is>
+      </c>
+      <c r="D434" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E434" t="n">
+        <v>2.762615740740741e-07</v>
+      </c>
+      <c r="F434" t="n">
+        <v>6.214120370370371e-08</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="H434" t="n">
+        <v>0.874231032125769</v>
+      </c>
+      <c r="I434" t="n">
+        <v>0.8917004048582996</v>
+      </c>
+      <c r="J434" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="K434" t="n">
+        <v>0.875478927203065</v>
+      </c>
+      <c r="L434" s="2" t="n">
+        <v>45917.44871592592</v>
+      </c>
+      <c r="M434" s="2" t="n">
+        <v>45917.44871563657</v>
+      </c>
+      <c r="N434" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O434" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D435" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E435" t="n">
+        <v>9.591435185185185e-08</v>
+      </c>
+      <c r="F435" t="n">
+        <v>6.759259259259259e-09</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="H435" t="n">
+        <v>0.7943554538520212</v>
+      </c>
+      <c r="I435" t="n">
+        <v>0.8166003243402625</v>
+      </c>
+      <c r="J435" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="K435" t="n">
+        <v>0.803076923076923</v>
+      </c>
+      <c r="L435" s="2" t="n">
+        <v>45917.44905925926</v>
+      </c>
+      <c r="M435" s="2" t="n">
+        <v>45917.44905915509</v>
+      </c>
+      <c r="N435" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O435" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D436" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E436" t="n">
+        <v>0.0001249267824074074</v>
+      </c>
+      <c r="F436" t="n">
+        <v>8.981481481481482e-09</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H436" t="n">
+        <v>0.845766590389016</v>
+      </c>
+      <c r="I436" t="n">
+        <v>0.8680524841515552</v>
+      </c>
+      <c r="J436" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="K436" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+      <c r="L436" s="2" t="n">
+        <v>45917.46023543982</v>
+      </c>
+      <c r="M436" s="2" t="n">
+        <v>45917.46011039352</v>
+      </c>
+      <c r="N436" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O436" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D437" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E437" t="n">
+        <v>1.045717592592593e-07</v>
+      </c>
+      <c r="F437" t="n">
+        <v>6.307870370370371e-09</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="H437" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="I437" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="J437" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="K437" t="n">
+        <v>0.7840909090909092</v>
+      </c>
+      <c r="L437" s="2" t="n">
+        <v>45917.46468371528</v>
+      </c>
+      <c r="M437" s="2" t="n">
+        <v>45917.46468359954</v>
+      </c>
+      <c r="N437" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O437" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D438" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E438" t="n">
+        <v>7.481481481481482e-08</v>
+      </c>
+      <c r="F438" t="n">
+        <v>5.833333333333333e-09</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="H438" t="n">
+        <v>0.818056215189327</v>
+      </c>
+      <c r="I438" t="n">
+        <v>0.8215249662618083</v>
+      </c>
+      <c r="J438" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="K438" t="n">
+        <v>0.7895622895622896</v>
+      </c>
+      <c r="L438" s="2" t="n">
+        <v>45917.46546526621</v>
+      </c>
+      <c r="M438" s="2" t="n">
+        <v>45917.46546518519</v>
+      </c>
+      <c r="N438" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O438" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D439" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E439" t="n">
+        <v>6.498842592592592e-07</v>
+      </c>
+      <c r="F439" t="n">
+        <v>3.784722222222222e-09</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="H439" t="n">
+        <v>0.8289370485036119</v>
+      </c>
+      <c r="I439" t="n">
+        <v>0.8963815789473685</v>
+      </c>
+      <c r="J439" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="K439" t="n">
+        <v>0.8793103448275862</v>
+      </c>
+      <c r="L439" s="2" t="n">
+        <v>45917.46722385417</v>
+      </c>
+      <c r="M439" s="2" t="n">
+        <v>45917.46722319444</v>
+      </c>
+      <c r="N439" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O439" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D440" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E440" t="n">
+        <v>0.001164210231481481</v>
+      </c>
+      <c r="F440" t="n">
+        <v>6.967592592592593e-09</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.6842105263157895</v>
+      </c>
+      <c r="H440" t="n">
+        <v>0.6842105263157895</v>
+      </c>
+      <c r="I440" t="n">
+        <v>0.6842105263157895</v>
+      </c>
+      <c r="J440" t="n">
+        <v>0.6842105263157895</v>
+      </c>
+      <c r="K440" t="n">
+        <v>0.6492307692307692</v>
+      </c>
+      <c r="L440" s="2" t="n">
+        <v>45917.46886809028</v>
+      </c>
+      <c r="M440" s="2" t="n">
+        <v>45917.46770376158</v>
+      </c>
+      <c r="N440" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O440" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D441" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E441" t="n">
+        <v>5.856481481481482e-08</v>
+      </c>
+      <c r="F441" t="n">
+        <v>3.796296296296296e-09</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.4473684210526316</v>
+      </c>
+      <c r="H441" t="n">
+        <v>0.4423897581792319</v>
+      </c>
+      <c r="I441" t="n">
+        <v>0.5570175438596491</v>
+      </c>
+      <c r="J441" t="n">
+        <v>0.4473684210526316</v>
+      </c>
+      <c r="K441" t="n">
+        <v>0.5061538461538462</v>
+      </c>
+      <c r="L441" s="2" t="n">
+        <v>45917.47135209491</v>
+      </c>
+      <c r="M441" s="2" t="n">
+        <v>45917.47135202547</v>
+      </c>
+      <c r="N441" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O441" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D442" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E442" t="n">
+        <v>1.589050925925926e-06</v>
+      </c>
+      <c r="F442" t="n">
+        <v>4.074074074074074e-09</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H442" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="I442" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="J442" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="K442" t="n">
+        <v>0.8303571428571428</v>
+      </c>
+      <c r="L442" s="2" t="n">
+        <v>45917.4754821875</v>
+      </c>
+      <c r="M442" s="2" t="n">
+        <v>45917.47548059028</v>
+      </c>
+      <c r="N442" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O442" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D443" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E443" t="n">
+        <v>1.589050925925926e-06</v>
+      </c>
+      <c r="F443" t="n">
+        <v>4.074074074074074e-09</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="H443" t="n">
+        <v>0.8959572845156368</v>
+      </c>
+      <c r="I443" t="n">
+        <v>0.902212918660287</v>
+      </c>
+      <c r="J443" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="K443" t="n">
+        <v>0.9017857142857143</v>
+      </c>
+      <c r="L443" s="2" t="n">
+        <v>45917.4754821875</v>
+      </c>
+      <c r="M443" s="2" t="n">
+        <v>45917.47548059028</v>
+      </c>
+      <c r="N443" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O443" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D444" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E444" t="n">
+        <v>4.676041666666667e-07</v>
+      </c>
+      <c r="F444" t="n">
+        <v>6.410879629629629e-08</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="H444" t="n">
+        <v>0.7724614566719828</v>
+      </c>
+      <c r="I444" t="n">
+        <v>0.8065789473684211</v>
+      </c>
+      <c r="J444" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="K444" t="n">
+        <v>0.7291666666666667</v>
+      </c>
+      <c r="L444" s="2" t="n">
+        <v>45918.53683247685</v>
+      </c>
+      <c r="M444" s="2" t="n">
+        <v>45918.53683173611</v>
+      </c>
+      <c r="N444" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O444" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D445" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E445" t="n">
+        <v>4.676041666666667e-07</v>
+      </c>
+      <c r="F445" t="n">
+        <v>6.410879629629629e-08</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="H445" t="n">
+        <v>0.8044557661586287</v>
+      </c>
+      <c r="I445" t="n">
+        <v>0.8283928211332929</v>
+      </c>
+      <c r="J445" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="K445" t="n">
+        <v>0.7648809523809523</v>
+      </c>
+      <c r="L445" s="2" t="n">
+        <v>45918.53683247685</v>
+      </c>
+      <c r="M445" s="2" t="n">
+        <v>45918.53683173611</v>
+      </c>
+      <c r="N445" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O445" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D446" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E446" t="n">
+        <v>8.994791666666668e-07</v>
+      </c>
+      <c r="F446" t="n">
+        <v>6.430555555555556e-08</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="H446" t="n">
+        <v>0.8690813054140727</v>
+      </c>
+      <c r="I446" t="n">
+        <v>0.870962918660287</v>
+      </c>
+      <c r="J446" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="K446" t="n">
+        <v>0.8681159420289856</v>
+      </c>
+      <c r="L446" s="2" t="n">
+        <v>45918.53774482639</v>
+      </c>
+      <c r="M446" s="2" t="n">
+        <v>45918.53774391203</v>
+      </c>
+      <c r="N446" t="inlineStr">
+        <is>
+          <t>Dummy_Calculator</t>
+        </is>
+      </c>
+      <c r="O446" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D447" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E447" t="n">
+        <v>7.493865740740741e-07</v>
+      </c>
+      <c r="F447" t="n">
+        <v>6.387731481481482e-08</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="H447" t="n">
+        <v>0.8724458204334367</v>
+      </c>
+      <c r="I447" t="n">
+        <v>0.8876879699248121</v>
+      </c>
+      <c r="J447" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="K447" t="n">
+        <v>0.8804713804713804</v>
+      </c>
+      <c r="L447" s="2" t="n">
+        <v>45918.53862880787</v>
+      </c>
+      <c r="M447" s="2" t="n">
+        <v>45918.53862798611</v>
+      </c>
+      <c r="N447" t="inlineStr">
+        <is>
+          <t>Dummy_Calculator</t>
+        </is>
+      </c>
+      <c r="O447" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D448" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E448" t="n">
+        <v>4.413541666666667e-07</v>
+      </c>
+      <c r="F448" t="n">
+        <v>2.434259259259259e-07</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="H448" t="n">
+        <v>0.8626110731373889</v>
+      </c>
+      <c r="I448" t="n">
+        <v>0.8705384150030248</v>
+      </c>
+      <c r="J448" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="K448" t="n">
+        <v>0.8141025641025642</v>
+      </c>
+      <c r="L448" s="2" t="n">
+        <v>45918.53925398148</v>
+      </c>
+      <c r="M448" s="2" t="n">
+        <v>45918.53925353009</v>
+      </c>
+      <c r="N448" t="inlineStr">
+        <is>
+          <t>Dummy_Calculator</t>
+        </is>
+      </c>
+      <c r="O448" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D449" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E449" t="n">
+        <v>2.964814814814815e-07</v>
+      </c>
+      <c r="F449" t="n">
+        <v>7.021990740740741e-08</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.9736842105263158</v>
+      </c>
+      <c r="H449" t="n">
+        <v>0.9735914839954006</v>
+      </c>
+      <c r="I449" t="n">
+        <v>0.9748803827751197</v>
+      </c>
+      <c r="J449" t="n">
+        <v>0.9736842105263158</v>
+      </c>
+      <c r="K449" t="n">
+        <v>0.9705882352941176</v>
+      </c>
+      <c r="L449" s="2" t="n">
+        <v>45918.53941228009</v>
+      </c>
+      <c r="M449" s="2" t="n">
+        <v>45918.53941196759</v>
+      </c>
+      <c r="N449" t="inlineStr">
+        <is>
+          <t>Dummy_Calculator</t>
+        </is>
+      </c>
+      <c r="O449" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D450" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E450" t="n">
+        <v>2.964814814814815e-07</v>
+      </c>
+      <c r="F450" t="n">
+        <v>7.021990740740741e-08</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="H450" t="n">
+        <v>0.864076920106576</v>
+      </c>
+      <c r="I450" t="n">
+        <v>0.8937246963562755</v>
+      </c>
+      <c r="J450" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="K450" t="n">
+        <v>0.8529411764705882</v>
+      </c>
+      <c r="L450" s="2" t="n">
+        <v>45918.53941228009</v>
+      </c>
+      <c r="M450" s="2" t="n">
+        <v>45918.53941196759</v>
+      </c>
+      <c r="N450" t="inlineStr">
+        <is>
+          <t>Dummy_Calculator</t>
+        </is>
+      </c>
+      <c r="O450" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D451" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E451" t="n">
+        <v>2.310011574074074e-06</v>
+      </c>
+      <c r="F451" t="n">
+        <v>1.29375e-07</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="H451" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="I451" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="J451" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="K451" t="n">
+        <v>0.872053872053872</v>
+      </c>
+      <c r="L451" s="2" t="n">
+        <v>45918.54641289352</v>
+      </c>
+      <c r="M451" s="2" t="n">
+        <v>45918.5464105787</v>
+      </c>
+      <c r="N451" t="inlineStr">
+        <is>
+          <t>Dummy_Calculator</t>
+        </is>
+      </c>
+      <c r="O451" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D452" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E452" t="n">
+        <v>6.959143518518519e-07</v>
+      </c>
+      <c r="F452" t="n">
+        <v>6.572916666666666e-08</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H452" t="n">
+        <v>0.8425438596491228</v>
+      </c>
+      <c r="I452" t="n">
+        <v>0.8476454293628809</v>
+      </c>
+      <c r="J452" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="K452" t="n">
+        <v>0.8459383753501399</v>
+      </c>
+      <c r="L452" s="2" t="n">
+        <v>45918.63027876157</v>
+      </c>
+      <c r="M452" s="2" t="n">
+        <v>45918.63027798611</v>
+      </c>
+      <c r="N452" t="inlineStr">
+        <is>
+          <t>Dummy_Calculator</t>
+        </is>
+      </c>
+      <c r="O452" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D453" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E453" t="n">
+        <v>2.441678240740741e-06</v>
+      </c>
+      <c r="F453" t="n">
+        <v>1.531712962962963e-07</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H453" t="n">
+        <v>0.8444548872180452</v>
+      </c>
+      <c r="I453" t="n">
+        <v>0.8515636918382914</v>
+      </c>
+      <c r="J453" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="K453" t="n">
+        <v>0.8430769230769231</v>
+      </c>
+      <c r="L453" s="2" t="n">
+        <v>45918.63096857639</v>
+      </c>
+      <c r="M453" s="2" t="n">
+        <v>45918.63096612268</v>
+      </c>
+      <c r="N453" t="inlineStr">
+        <is>
+          <t>Dummy_Calculator</t>
+        </is>
+      </c>
+      <c r="O453" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D454" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E454" t="n">
+        <v>1.814849537037037e-06</v>
+      </c>
+      <c r="F454" t="n">
+        <v>2.628356481481482e-07</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="H454" t="n">
+        <v>0.8695150574849823</v>
+      </c>
+      <c r="I454" t="n">
+        <v>0.8718671679197995</v>
+      </c>
+      <c r="J454" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="K454" t="n">
+        <v>0.8630769230769231</v>
+      </c>
+      <c r="L454" s="2" t="n">
+        <v>45918.63112928241</v>
+      </c>
+      <c r="M454" s="2" t="n">
+        <v>45918.63112717593</v>
+      </c>
+      <c r="N454" t="inlineStr">
+        <is>
+          <t>Dummy_Calculator</t>
+        </is>
+      </c>
+      <c r="O454" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_linear</t>
+        </is>
+      </c>
+      <c r="D455" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E455" t="n">
+        <v>1.814849537037037e-06</v>
+      </c>
+      <c r="F455" t="n">
+        <v>2.628356481481482e-07</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H455" t="n">
+        <v>0.8444548872180452</v>
+      </c>
+      <c r="I455" t="n">
+        <v>0.8515636918382914</v>
+      </c>
+      <c r="J455" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="K455" t="n">
+        <v>0.8430769230769231</v>
+      </c>
+      <c r="L455" s="2" t="n">
+        <v>45918.63112928241</v>
+      </c>
+      <c r="M455" s="2" t="n">
+        <v>45918.63112717593</v>
+      </c>
+      <c r="N455" t="inlineStr">
+        <is>
+          <t>Dummy_Calculator</t>
+        </is>
+      </c>
+      <c r="O455" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Random-Walk-Edit_linear</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_linear</t>
+        </is>
+      </c>
+      <c r="D456" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E456" t="n">
+        <v>0.0007582954976851851</v>
+      </c>
+      <c r="F456" t="n">
+        <v>0.0004242902546296296</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H456" t="n">
+        <v>0.8491902834008096</v>
+      </c>
+      <c r="I456" t="n">
+        <v>0.8753132832080202</v>
+      </c>
+      <c r="J456" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="K456" t="n">
+        <v>0.8607142857142857</v>
+      </c>
+      <c r="L456" s="2" t="n">
+        <v>45918.7032625463</v>
+      </c>
+      <c r="M456" s="2" t="n">
+        <v>45918.70250424768</v>
+      </c>
+      <c r="N456" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O456" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Random-Walk-Edit_linear</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_linear</t>
+        </is>
+      </c>
+      <c r="D457" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E457" t="n">
+        <v>0.0006021707175925926</v>
+      </c>
+      <c r="F457" t="n">
+        <v>0.000565640625</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H457" t="n">
+        <v>0.8314777327935223</v>
+      </c>
+      <c r="I457" t="n">
+        <v>0.8747731397459164</v>
+      </c>
+      <c r="J457" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="K457" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L457" s="2" t="n">
+        <v>45918.7065075</v>
+      </c>
+      <c r="M457" s="2" t="n">
+        <v>45918.70590513889</v>
+      </c>
+      <c r="N457" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O457" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Random-Walk-Edit_linear</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_linear</t>
+        </is>
+      </c>
+      <c r="D458" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E458" t="n">
+        <v>0.0006334001967592593</v>
+      </c>
+      <c r="F458" t="n">
+        <v>0.0003666486805555556</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="H458" t="n">
+        <v>0.7941970310391363</v>
+      </c>
+      <c r="I458" t="n">
+        <v>0.8034008097165992</v>
+      </c>
+      <c r="J458" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="K458" t="n">
+        <v>0.771043771043771</v>
+      </c>
+      <c r="L458" s="2" t="n">
+        <v>45918.71329604166</v>
+      </c>
+      <c r="M458" s="2" t="n">
+        <v>45918.71266246528</v>
+      </c>
+      <c r="N458" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O458" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Random-Walk-Edit_linear</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_linear</t>
+        </is>
+      </c>
+      <c r="D459" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E459" t="n">
+        <v>0.0007133065277777778</v>
+      </c>
+      <c r="F459" t="n">
+        <v>0.0003607460648148148</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="H459" t="n">
+        <v>0.8938397129186604</v>
+      </c>
+      <c r="I459" t="n">
+        <v>0.898093058733791</v>
+      </c>
+      <c r="J459" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="K459" t="n">
+        <v>0.8879551820728291</v>
+      </c>
+      <c r="L459" s="2" t="n">
+        <v>45918.71821996527</v>
+      </c>
+      <c r="M459" s="2" t="n">
+        <v>45918.71750664352</v>
+      </c>
+      <c r="N459" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O459" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Random-Walk-Edit_linear</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_linear</t>
+        </is>
+      </c>
+      <c r="D460" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E460" t="n">
+        <v>0.0005529237152777778</v>
+      </c>
+      <c r="F460" t="n">
+        <v>0.0003561051851851852</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="H460" t="n">
+        <v>0.8970985155195682</v>
+      </c>
+      <c r="I460" t="n">
+        <v>0.9047773279352227</v>
+      </c>
+      <c r="J460" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="K460" t="n">
+        <v>0.898989898989899</v>
+      </c>
+      <c r="L460" s="2" t="n">
+        <v>45918.71964310185</v>
+      </c>
+      <c r="M460" s="2" t="n">
+        <v>45918.71909017361</v>
+      </c>
+      <c r="N460" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O460" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D461" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E461" t="n">
+        <v>0.0006097645717592592</v>
+      </c>
+      <c r="F461" t="n">
+        <v>0.0003773647916666667</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="H461" t="n">
+        <v>0.8710275321465806</v>
+      </c>
+      <c r="I461" t="n">
+        <v>0.8845693779904306</v>
+      </c>
+      <c r="J461" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="K461" t="n">
+        <v>0.8815384615384615</v>
+      </c>
+      <c r="L461" s="2" t="n">
+        <v>45919.6689896875</v>
+      </c>
+      <c r="M461" s="2" t="n">
+        <v>45919.66837990741</v>
+      </c>
+      <c r="N461" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O461" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D462" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E462" s="3" t="n">
+        <v>0.0006097645717592592</v>
+      </c>
+      <c r="F462" s="3" t="n">
+        <v>0.0003773647916666667</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="H462" t="n">
+        <v>0.8971777269260107</v>
+      </c>
+      <c r="I462" t="n">
+        <v>0.9195046439628483</v>
+      </c>
+      <c r="J462" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="K462" t="n">
+        <v>0.9199999999999999</v>
+      </c>
+      <c r="L462" s="2" t="n">
+        <v>45919.66898968459</v>
+      </c>
+      <c r="M462" s="2" t="n">
+        <v>45919.66837991033</v>
+      </c>
+      <c r="N462" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O462" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
         </is>
       </c>
     </row>

--- a/configs/test_results.xlsx
+++ b/configs/test_results.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O462"/>
+  <dimension ref="A1:O478"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26196,10 +26196,10 @@
       <c r="D462" t="n">
         <v>0.2</v>
       </c>
-      <c r="E462" s="3" t="n">
+      <c r="E462" t="n">
         <v>0.0006097645717592592</v>
       </c>
-      <c r="F462" s="3" t="n">
+      <c r="F462" t="n">
         <v>0.0003773647916666667</v>
       </c>
       <c r="G462" t="n">
@@ -26218,10 +26218,10 @@
         <v>0.9199999999999999</v>
       </c>
       <c r="L462" s="2" t="n">
-        <v>45919.66898968459</v>
+        <v>45919.6689896875</v>
       </c>
       <c r="M462" s="2" t="n">
-        <v>45919.66837991033</v>
+        <v>45919.66837990741</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -26231,6 +26231,918 @@
       <c r="O462" t="inlineStr">
         <is>
           <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D463" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E463" t="n">
+        <v>2.420936342592593e-05</v>
+      </c>
+      <c r="F463" t="n">
+        <v>1.242917824074074e-05</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="H463" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="I463" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="J463" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="K463" t="n">
+        <v>0.7301136363636364</v>
+      </c>
+      <c r="L463" s="2" t="n">
+        <v>45920.83823431713</v>
+      </c>
+      <c r="M463" s="2" t="n">
+        <v>45920.83821010416</v>
+      </c>
+      <c r="N463" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O463" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D464" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E464" t="n">
+        <v>2.420936342592593e-05</v>
+      </c>
+      <c r="F464" t="n">
+        <v>1.242917824074074e-05</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="H464" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="I464" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="J464" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="K464" t="n">
+        <v>0.7301136363636364</v>
+      </c>
+      <c r="L464" s="2" t="n">
+        <v>45920.83823431713</v>
+      </c>
+      <c r="M464" s="2" t="n">
+        <v>45920.83821010416</v>
+      </c>
+      <c r="N464" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O464" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D465" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E465" t="n">
+        <v>2.410484953703704e-05</v>
+      </c>
+      <c r="F465" t="n">
+        <v>1.368238425925926e-05</v>
+      </c>
+      <c r="G465" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="H465" t="n">
+        <v>0.8167138275797019</v>
+      </c>
+      <c r="I465" t="n">
+        <v>0.8187799043062201</v>
+      </c>
+      <c r="J465" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="K465" t="n">
+        <v>0.8130434782608696</v>
+      </c>
+      <c r="L465" s="2" t="n">
+        <v>45920.84053817129</v>
+      </c>
+      <c r="M465" s="2" t="n">
+        <v>45920.84051405093</v>
+      </c>
+      <c r="N465" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O465" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D466" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E466" t="n">
+        <v>2.410484953703704e-05</v>
+      </c>
+      <c r="F466" t="n">
+        <v>1.368238425925926e-05</v>
+      </c>
+      <c r="G466" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="H466" t="n">
+        <v>0.8177367308334261</v>
+      </c>
+      <c r="I466" t="n">
+        <v>0.8298245614035087</v>
+      </c>
+      <c r="J466" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="K466" t="n">
+        <v>0.8246376811594203</v>
+      </c>
+      <c r="L466" s="2" t="n">
+        <v>45920.84053817129</v>
+      </c>
+      <c r="M466" s="2" t="n">
+        <v>45920.84051405093</v>
+      </c>
+      <c r="N466" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O466" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_PTC_FR_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D467" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E467" t="n">
+        <v>1.275309027777778e-05</v>
+      </c>
+      <c r="F467" t="n">
+        <v>3.143287037037037e-06</v>
+      </c>
+      <c r="G467" t="n">
+        <v>0.5352112676056338</v>
+      </c>
+      <c r="H467" t="n">
+        <v>0.5491986401165615</v>
+      </c>
+      <c r="I467" t="n">
+        <v>0.5793946370530877</v>
+      </c>
+      <c r="J467" t="n">
+        <v>0.5352112676056338</v>
+      </c>
+      <c r="K467" t="n">
+        <v>0.5203804347826086</v>
+      </c>
+      <c r="L467" s="2" t="n">
+        <v>45920.96992706019</v>
+      </c>
+      <c r="M467" s="2" t="n">
+        <v>45920.96991429398</v>
+      </c>
+      <c r="N467" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O467" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_PTC_FR_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D468" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E468" t="n">
+        <v>1.588914351851852e-05</v>
+      </c>
+      <c r="F468" t="n">
+        <v>3.521759259259259e-06</v>
+      </c>
+      <c r="G468" t="n">
+        <v>0.5915492957746479</v>
+      </c>
+      <c r="H468" t="n">
+        <v>0.589353816065486</v>
+      </c>
+      <c r="I468" t="n">
+        <v>0.5873775260257196</v>
+      </c>
+      <c r="J468" t="n">
+        <v>0.5915492957746479</v>
+      </c>
+      <c r="K468" t="n">
+        <v>0.538563829787234</v>
+      </c>
+      <c r="L468" s="2" t="n">
+        <v>45920.97081526621</v>
+      </c>
+      <c r="M468" s="2" t="n">
+        <v>45920.97079936343</v>
+      </c>
+      <c r="N468" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O468" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_PTC_FR_with_SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D469" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E469" t="n">
+        <v>1.348472222222222e-06</v>
+      </c>
+      <c r="F469" t="n">
+        <v>7.662037037037038e-09</v>
+      </c>
+      <c r="G469" t="n">
+        <v>0.6619718309859155</v>
+      </c>
+      <c r="H469" t="n">
+        <v>0.5273334924803056</v>
+      </c>
+      <c r="I469" t="n">
+        <v>0.4382067050188455</v>
+      </c>
+      <c r="J469" t="n">
+        <v>0.6619718309859155</v>
+      </c>
+      <c r="K469" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L469" s="2" t="n">
+        <v>45920.97111461806</v>
+      </c>
+      <c r="M469" s="2" t="n">
+        <v>45920.97111326389</v>
+      </c>
+      <c r="N469" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O469" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_PTC_FR_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D470" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E470" t="n">
+        <v>5.483715277777778e-06</v>
+      </c>
+      <c r="F470" t="n">
+        <v>1.379884259259259e-06</v>
+      </c>
+      <c r="G470" t="n">
+        <v>0.5633802816901409</v>
+      </c>
+      <c r="H470" t="n">
+        <v>0.5605084583138956</v>
+      </c>
+      <c r="I470" t="n">
+        <v>0.5578269617706237</v>
+      </c>
+      <c r="J470" t="n">
+        <v>0.5633802816901409</v>
+      </c>
+      <c r="K470" t="n">
+        <v>0.4833024118738404</v>
+      </c>
+      <c r="L470" s="2" t="n">
+        <v>45920.97994173611</v>
+      </c>
+      <c r="M470" s="2" t="n">
+        <v>45920.97993623843</v>
+      </c>
+      <c r="N470" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O470" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_PTC_FR_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D471" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E471" t="n">
+        <v>2.947106481481482e-06</v>
+      </c>
+      <c r="F471" t="n">
+        <v>1.426342592592593e-06</v>
+      </c>
+      <c r="G471" t="n">
+        <v>0.6338028169014085</v>
+      </c>
+      <c r="H471" t="n">
+        <v>0.6367762128325509</v>
+      </c>
+      <c r="I471" t="n">
+        <v>0.6407265139659506</v>
+      </c>
+      <c r="J471" t="n">
+        <v>0.6338028169014085</v>
+      </c>
+      <c r="K471" t="n">
+        <v>0.6078260869565217</v>
+      </c>
+      <c r="L471" s="2" t="n">
+        <v>45920.98554704861</v>
+      </c>
+      <c r="M471" s="2" t="n">
+        <v>45920.98554408565</v>
+      </c>
+      <c r="N471" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O471" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_PTC_FR_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D472" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E472" t="n">
+        <v>2.948888888888889e-06</v>
+      </c>
+      <c r="F472" t="n">
+        <v>2.161296296296296e-06</v>
+      </c>
+      <c r="G472" t="n">
+        <v>0.5070422535211268</v>
+      </c>
+      <c r="H472" t="n">
+        <v>0.4999200569775724</v>
+      </c>
+      <c r="I472" t="n">
+        <v>0.4977127723606596</v>
+      </c>
+      <c r="J472" t="n">
+        <v>0.5070422535211268</v>
+      </c>
+      <c r="K472" t="n">
+        <v>0.4899193548387097</v>
+      </c>
+      <c r="L472" s="2" t="n">
+        <v>45920.98955966435</v>
+      </c>
+      <c r="M472" s="2" t="n">
+        <v>45920.98955671296</v>
+      </c>
+      <c r="N472" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O472" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_PTC_FR_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D473" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E473" t="n">
+        <v>7.265936342592593e-05</v>
+      </c>
+      <c r="F473" t="n">
+        <v>4.186746527777778e-05</v>
+      </c>
+      <c r="G473" t="n">
+        <v>0.5492957746478874</v>
+      </c>
+      <c r="H473" t="n">
+        <v>0.5566149030937764</v>
+      </c>
+      <c r="I473" t="n">
+        <v>0.5671704646483552</v>
+      </c>
+      <c r="J473" t="n">
+        <v>0.5492957746478874</v>
+      </c>
+      <c r="K473" t="n">
+        <v>0.5168439716312057</v>
+      </c>
+      <c r="L473" s="2" t="n">
+        <v>45920.99912395833</v>
+      </c>
+      <c r="M473" s="2" t="n">
+        <v>45920.99905128472</v>
+      </c>
+      <c r="N473" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O473" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_PTC_FR_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D474" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E474" t="n">
+        <v>7.869612268518518e-05</v>
+      </c>
+      <c r="F474" t="n">
+        <v>3.644717592592593e-05</v>
+      </c>
+      <c r="G474" t="n">
+        <v>0.5633802816901409</v>
+      </c>
+      <c r="H474" t="n">
+        <v>0.5624966149864172</v>
+      </c>
+      <c r="I474" t="n">
+        <v>0.561834421161113</v>
+      </c>
+      <c r="J474" t="n">
+        <v>0.5633802816901409</v>
+      </c>
+      <c r="K474" t="n">
+        <v>0.5544354838709677</v>
+      </c>
+      <c r="L474" s="2" t="n">
+        <v>45921.00193525463</v>
+      </c>
+      <c r="M474" s="2" t="n">
+        <v>45921.00185653935</v>
+      </c>
+      <c r="N474" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O474" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_PTC_FR_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D475" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E475" t="n">
+        <v>7.869612268518518e-05</v>
+      </c>
+      <c r="F475" t="n">
+        <v>3.644717592592593e-05</v>
+      </c>
+      <c r="G475" t="n">
+        <v>0.676056338028169</v>
+      </c>
+      <c r="H475" t="n">
+        <v>0.6736748857449374</v>
+      </c>
+      <c r="I475" t="n">
+        <v>0.6737401151092602</v>
+      </c>
+      <c r="J475" t="n">
+        <v>0.676056338028169</v>
+      </c>
+      <c r="K475" t="n">
+        <v>0.6653225806451614</v>
+      </c>
+      <c r="L475" s="2" t="n">
+        <v>45921.00193525463</v>
+      </c>
+      <c r="M475" s="2" t="n">
+        <v>45921.00185653935</v>
+      </c>
+      <c r="N475" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O475" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_PTC_FR_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D476" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E476" t="n">
+        <v>7.401325231481482e-05</v>
+      </c>
+      <c r="F476" t="n">
+        <v>3.720900462962963e-05</v>
+      </c>
+      <c r="G476" t="n">
+        <v>0.4929577464788732</v>
+      </c>
+      <c r="H476" t="n">
+        <v>0.5118989800874211</v>
+      </c>
+      <c r="I476" t="n">
+        <v>0.5679186228482003</v>
+      </c>
+      <c r="J476" t="n">
+        <v>0.4929577464788732</v>
+      </c>
+      <c r="K476" t="n">
+        <v>0.4948979591836734</v>
+      </c>
+      <c r="L476" s="2" t="n">
+        <v>45921.00328357639</v>
+      </c>
+      <c r="M476" s="2" t="n">
+        <v>45921.00320954861</v>
+      </c>
+      <c r="N476" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O476" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_PTC_FR_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D477" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E477" t="n">
+        <v>7.401325231481482e-05</v>
+      </c>
+      <c r="F477" t="n">
+        <v>3.720900462962963e-05</v>
+      </c>
+      <c r="G477" t="n">
+        <v>0.5492957746478874</v>
+      </c>
+      <c r="H477" t="n">
+        <v>0.5584856657676556</v>
+      </c>
+      <c r="I477" t="n">
+        <v>0.5707716383772721</v>
+      </c>
+      <c r="J477" t="n">
+        <v>0.5492957746478874</v>
+      </c>
+      <c r="K477" t="n">
+        <v>0.4981447124304268</v>
+      </c>
+      <c r="L477" s="2" t="n">
+        <v>45921.00328357639</v>
+      </c>
+      <c r="M477" s="2" t="n">
+        <v>45921.00320954861</v>
+      </c>
+      <c r="N477" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O477" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_ENZYMES_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D478" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E478" s="3" t="n">
+        <v>1.024666666666667e-05</v>
+      </c>
+      <c r="F478" s="3" t="n">
+        <v>3.968055555555555e-06</v>
+      </c>
+      <c r="G478" t="n">
+        <v>0.2583333333333334</v>
+      </c>
+      <c r="H478" t="n">
+        <v>0.2621672652276101</v>
+      </c>
+      <c r="I478" t="n">
+        <v>0.2826600353669319</v>
+      </c>
+      <c r="J478" t="n">
+        <v>0.2583333333333334</v>
+      </c>
+      <c r="K478" t="n">
+        <v>0</v>
+      </c>
+      <c r="L478" s="2" t="n">
+        <v>45921.01114712621</v>
+      </c>
+      <c r="M478" s="2" t="n">
+        <v>45921.01113686948</v>
+      </c>
+      <c r="N478" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O478" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
         </is>
       </c>
     </row>

--- a/configs/test_results.xlsx
+++ b/configs/test_results.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O478"/>
+  <dimension ref="A1:O487"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27108,10 +27108,10 @@
       <c r="D478" t="n">
         <v>0.2</v>
       </c>
-      <c r="E478" s="3" t="n">
+      <c r="E478" t="n">
         <v>1.024666666666667e-05</v>
       </c>
-      <c r="F478" s="3" t="n">
+      <c r="F478" t="n">
         <v>3.968055555555555e-06</v>
       </c>
       <c r="G478" t="n">
@@ -27130,10 +27130,10 @@
         <v>0</v>
       </c>
       <c r="L478" s="2" t="n">
-        <v>45921.01114712621</v>
+        <v>45921.01114712963</v>
       </c>
       <c r="M478" s="2" t="n">
-        <v>45921.01113686948</v>
+        <v>45921.011136875</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
@@ -27143,6 +27143,511 @@
       <c r="O478" t="inlineStr">
         <is>
           <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_Letter-high_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D479" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E479" t="n">
+        <v>0.0003239227662037037</v>
+      </c>
+      <c r="F479" t="n">
+        <v>0.0001176824074074074</v>
+      </c>
+      <c r="G479" t="n">
+        <v>0.2622222222222222</v>
+      </c>
+      <c r="H479" t="n">
+        <v>0.2569460420050716</v>
+      </c>
+      <c r="I479" t="n">
+        <v>0.2941755804756614</v>
+      </c>
+      <c r="J479" t="n">
+        <v>0.2622222222222222</v>
+      </c>
+      <c r="K479" t="n">
+        <v>0</v>
+      </c>
+      <c r="L479" s="2" t="n">
+        <v>45922.54324079861</v>
+      </c>
+      <c r="M479" s="2" t="n">
+        <v>45922.54291686343</v>
+      </c>
+      <c r="N479" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O479" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D480" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E480" t="n">
+        <v>1.911655092592593e-06</v>
+      </c>
+      <c r="F480" t="n">
+        <v>8.958101851851851e-07</v>
+      </c>
+      <c r="G480" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H480" t="n">
+        <v>0.8456477732793523</v>
+      </c>
+      <c r="I480" t="n">
+        <v>0.854089068825911</v>
+      </c>
+      <c r="J480" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="K480" t="n">
+        <v>0.835016835016835</v>
+      </c>
+      <c r="L480" s="2" t="n">
+        <v>45922.62947003472</v>
+      </c>
+      <c r="M480" s="2" t="n">
+        <v>45922.62946811342</v>
+      </c>
+      <c r="N480" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O480" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_AIDS_with_SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>AIDS</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D481" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E481" t="n">
+        <v>1.260512731481482e-05</v>
+      </c>
+      <c r="F481" t="n">
+        <v>2.731597222222222e-06</v>
+      </c>
+      <c r="G481" t="n">
+        <v>0.9625</v>
+      </c>
+      <c r="H481" t="n">
+        <v>0.9614325920885781</v>
+      </c>
+      <c r="I481" t="n">
+        <v>0.9627829589736854</v>
+      </c>
+      <c r="J481" t="n">
+        <v>0.9625</v>
+      </c>
+      <c r="K481" t="n">
+        <v>0.9156249999999999</v>
+      </c>
+      <c r="L481" s="2" t="n">
+        <v>45922.63203252315</v>
+      </c>
+      <c r="M481" s="2" t="n">
+        <v>45922.63201989583</v>
+      </c>
+      <c r="N481" t="inlineStr"/>
+      <c r="O481" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_AIDS_with_SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>AIDS</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D482" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E482" t="n">
+        <v>1.260512731481482e-05</v>
+      </c>
+      <c r="F482" t="n">
+        <v>2.731597222222222e-06</v>
+      </c>
+      <c r="G482" t="n">
+        <v>0.9275</v>
+      </c>
+      <c r="H482" t="n">
+        <v>0.9216083687479568</v>
+      </c>
+      <c r="I482" t="n">
+        <v>0.9316731009733021</v>
+      </c>
+      <c r="J482" t="n">
+        <v>0.9275</v>
+      </c>
+      <c r="K482" t="n">
+        <v>0.8234375</v>
+      </c>
+      <c r="L482" s="2" t="n">
+        <v>45922.63203252315</v>
+      </c>
+      <c r="M482" s="2" t="n">
+        <v>45922.63201989583</v>
+      </c>
+      <c r="N482" t="inlineStr">
+        <is>
+          <t>no Calculator</t>
+        </is>
+      </c>
+      <c r="O482" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_ENZYMES_with_SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D483" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E483" t="n">
+        <v>6.026712962962963e-06</v>
+      </c>
+      <c r="F483" t="n">
+        <v>1.12712962962963e-06</v>
+      </c>
+      <c r="G483" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H483" t="n">
+        <v>0.3760453674631472</v>
+      </c>
+      <c r="I483" t="n">
+        <v>0.4519813206506755</v>
+      </c>
+      <c r="J483" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="K483" t="n">
+        <v>0</v>
+      </c>
+      <c r="L483" s="2" t="n">
+        <v>45922.63492614583</v>
+      </c>
+      <c r="M483" s="2" t="n">
+        <v>45922.63492010417</v>
+      </c>
+      <c r="N483" t="inlineStr"/>
+      <c r="O483" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_ENZYMES_with_SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D484" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E484" t="n">
+        <v>6.026712962962963e-06</v>
+      </c>
+      <c r="F484" t="n">
+        <v>1.12712962962963e-06</v>
+      </c>
+      <c r="G484" t="n">
+        <v>0.1916666666666667</v>
+      </c>
+      <c r="H484" t="n">
+        <v>0.1864318923979849</v>
+      </c>
+      <c r="I484" t="n">
+        <v>0.4441898148148148</v>
+      </c>
+      <c r="J484" t="n">
+        <v>0.1916666666666667</v>
+      </c>
+      <c r="K484" t="n">
+        <v>0</v>
+      </c>
+      <c r="L484" s="2" t="n">
+        <v>45922.63492614583</v>
+      </c>
+      <c r="M484" s="2" t="n">
+        <v>45922.63492010417</v>
+      </c>
+      <c r="N484" t="inlineStr">
+        <is>
+          <t>no Calculator</t>
+        </is>
+      </c>
+      <c r="O484" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D485" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E485" t="n">
+        <v>0.000328425775462963</v>
+      </c>
+      <c r="F485" t="n">
+        <v>0.0001644383333333333</v>
+      </c>
+      <c r="G485" t="n">
+        <v>0.6790123456790124</v>
+      </c>
+      <c r="H485" t="n">
+        <v>0.6988830099941211</v>
+      </c>
+      <c r="I485" t="n">
+        <v>0.7302998236331569</v>
+      </c>
+      <c r="J485" t="n">
+        <v>0.6790123456790124</v>
+      </c>
+      <c r="K485" t="n">
+        <v>0.6024816176470589</v>
+      </c>
+      <c r="L485" s="2" t="n">
+        <v>45924.50126130787</v>
+      </c>
+      <c r="M485" s="2" t="n">
+        <v>45924.50093259259</v>
+      </c>
+      <c r="N485" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O485" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D486" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E486" t="n">
+        <v>5.300258101851852e-05</v>
+      </c>
+      <c r="F486" t="n">
+        <v>2.744465277777778e-05</v>
+      </c>
+      <c r="G486" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="H486" t="n">
+        <v>0.7338935574229692</v>
+      </c>
+      <c r="I486" t="n">
+        <v>0.7478260869565218</v>
+      </c>
+      <c r="J486" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="K486" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="L486" s="2" t="n">
+        <v>45924.50271662037</v>
+      </c>
+      <c r="M486" s="2" t="n">
+        <v>45924.50266359954</v>
+      </c>
+      <c r="N486" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O486" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D487" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E487" s="3" t="n">
+        <v>5.300258101851852e-05</v>
+      </c>
+      <c r="F487" s="3" t="n">
+        <v>2.744465277777778e-05</v>
+      </c>
+      <c r="G487" t="n">
+        <v>0.7631578947368421</v>
+      </c>
+      <c r="H487" t="n">
+        <v>0.7548387096774194</v>
+      </c>
+      <c r="I487" t="n">
+        <v>0.8044871794871794</v>
+      </c>
+      <c r="J487" t="n">
+        <v>0.7631578947368421</v>
+      </c>
+      <c r="K487" t="n">
+        <v>0.7631578947368421</v>
+      </c>
+      <c r="L487" s="2" t="n">
+        <v>45924.50271661561</v>
+      </c>
+      <c r="M487" s="2" t="n">
+        <v>45924.50266360303</v>
+      </c>
+      <c r="N487" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O487" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
         </is>
       </c>
     </row>

--- a/configs/test_results.xlsx
+++ b/configs/test_results.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O487"/>
+  <dimension ref="A1:O527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27613,10 +27613,10 @@
       <c r="D487" t="n">
         <v>0.2</v>
       </c>
-      <c r="E487" s="3" t="n">
+      <c r="E487" t="n">
         <v>5.300258101851852e-05</v>
       </c>
-      <c r="F487" s="3" t="n">
+      <c r="F487" t="n">
         <v>2.744465277777778e-05</v>
       </c>
       <c r="G487" t="n">
@@ -27635,10 +27635,10 @@
         <v>0.7631578947368421</v>
       </c>
       <c r="L487" s="2" t="n">
-        <v>45924.50271661561</v>
+        <v>45924.50271662037</v>
       </c>
       <c r="M487" s="2" t="n">
-        <v>45924.50266360303</v>
+        <v>45924.50266359954</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
@@ -27648,6 +27648,2286 @@
       <c r="O487" t="inlineStr">
         <is>
           <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D488" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E488" t="n">
+        <v>2.589234953703704e-05</v>
+      </c>
+      <c r="F488" t="n">
+        <v>9.074074074074073e-09</v>
+      </c>
+      <c r="G488" t="n">
+        <v>0.6049382716049383</v>
+      </c>
+      <c r="H488" t="n">
+        <v>0.6268077601410935</v>
+      </c>
+      <c r="I488" t="n">
+        <v>0.6647300895666909</v>
+      </c>
+      <c r="J488" t="n">
+        <v>0.6049382716049383</v>
+      </c>
+      <c r="K488" t="n">
+        <v>0.5528688524590164</v>
+      </c>
+      <c r="L488" s="2" t="n">
+        <v>45924.62051621528</v>
+      </c>
+      <c r="M488" s="2" t="n">
+        <v>45924.6204903125</v>
+      </c>
+      <c r="N488" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O488" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D489" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E489" t="n">
+        <v>2.545034722222222e-06</v>
+      </c>
+      <c r="F489" t="n">
+        <v>8.912037037037036e-09</v>
+      </c>
+      <c r="G489" t="n">
+        <v>0.2592592592592592</v>
+      </c>
+      <c r="H489" t="n">
+        <v>0.19346675868415</v>
+      </c>
+      <c r="I489" t="n">
+        <v>0.4732510288065844</v>
+      </c>
+      <c r="J489" t="n">
+        <v>0.2592592592592592</v>
+      </c>
+      <c r="K489" t="n">
+        <v>0.4409836065573771</v>
+      </c>
+      <c r="L489" s="2" t="n">
+        <v>45924.65678487268</v>
+      </c>
+      <c r="M489" s="2" t="n">
+        <v>45924.65678231481</v>
+      </c>
+      <c r="N489" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O489" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D490" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E490" t="n">
+        <v>2.463148148148148e-06</v>
+      </c>
+      <c r="F490" t="n">
+        <v>8.657407407407408e-09</v>
+      </c>
+      <c r="G490" t="n">
+        <v>0.691358024691358</v>
+      </c>
+      <c r="H490" t="n">
+        <v>0.7050754458161865</v>
+      </c>
+      <c r="I490" t="n">
+        <v>0.719753086419753</v>
+      </c>
+      <c r="J490" t="n">
+        <v>0.691358024691358</v>
+      </c>
+      <c r="K490" t="n">
+        <v>0.4402173913043478</v>
+      </c>
+      <c r="L490" s="2" t="n">
+        <v>45924.6660155787</v>
+      </c>
+      <c r="M490" s="2" t="n">
+        <v>45924.66601310185</v>
+      </c>
+      <c r="N490" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O490" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D491" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E491" t="n">
+        <v>2.463148148148148e-06</v>
+      </c>
+      <c r="F491" t="n">
+        <v>8.657407407407408e-09</v>
+      </c>
+      <c r="G491" t="n">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="H491" t="n">
+        <v>0.7728048048048047</v>
+      </c>
+      <c r="I491" t="n">
+        <v>0.8384126984126984</v>
+      </c>
+      <c r="J491" t="n">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="K491" t="n">
+        <v>0.7101449275362318</v>
+      </c>
+      <c r="L491" s="2" t="n">
+        <v>45924.6660155787</v>
+      </c>
+      <c r="M491" s="2" t="n">
+        <v>45924.66601310185</v>
+      </c>
+      <c r="N491" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O491" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D492" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E492" t="n">
+        <v>3.148553240740741e-06</v>
+      </c>
+      <c r="F492" t="n">
+        <v>8.761574074074074e-09</v>
+      </c>
+      <c r="G492" t="n">
+        <v>0.7037037037037037</v>
+      </c>
+      <c r="H492" t="n">
+        <v>0.6960718294051629</v>
+      </c>
+      <c r="I492" t="n">
+        <v>0.6890942114822712</v>
+      </c>
+      <c r="J492" t="n">
+        <v>0.7037037037037037</v>
+      </c>
+      <c r="K492" t="n">
+        <v>0.5091346153846154</v>
+      </c>
+      <c r="L492" s="2" t="n">
+        <v>45924.66860956018</v>
+      </c>
+      <c r="M492" s="2" t="n">
+        <v>45924.66860641204</v>
+      </c>
+      <c r="N492" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O492" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D493" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E493" t="n">
+        <v>3.148553240740741e-06</v>
+      </c>
+      <c r="F493" t="n">
+        <v>8.761574074074074e-09</v>
+      </c>
+      <c r="G493" t="n">
+        <v>0.7530864197530864</v>
+      </c>
+      <c r="H493" t="n">
+        <v>0.7628845776993926</v>
+      </c>
+      <c r="I493" t="n">
+        <v>0.7762396276057478</v>
+      </c>
+      <c r="J493" t="n">
+        <v>0.7530864197530864</v>
+      </c>
+      <c r="K493" t="n">
+        <v>0.6576923076923078</v>
+      </c>
+      <c r="L493" s="2" t="n">
+        <v>45924.66860956018</v>
+      </c>
+      <c r="M493" s="2" t="n">
+        <v>45924.66860641204</v>
+      </c>
+      <c r="N493" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O493" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D494" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E494" t="n">
+        <v>1.863865740740741e-06</v>
+      </c>
+      <c r="F494" t="n">
+        <v>8.796296296296297e-09</v>
+      </c>
+      <c r="G494" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="H494" t="n">
+        <v>0.3174603174603175</v>
+      </c>
+      <c r="I494" t="n">
+        <v>0.7843137254901961</v>
+      </c>
+      <c r="J494" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="K494" t="n">
+        <v>0.5610576923076923</v>
+      </c>
+      <c r="L494" s="2" t="n">
+        <v>45924.67399969907</v>
+      </c>
+      <c r="M494" s="2" t="n">
+        <v>45924.67399782407</v>
+      </c>
+      <c r="N494" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O494" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D495" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E495" t="n">
+        <v>1.28255787037037e-06</v>
+      </c>
+      <c r="F495" t="n">
+        <v>8.784722222222222e-09</v>
+      </c>
+      <c r="G495" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="H495" t="n">
+        <v>0.6320987654320988</v>
+      </c>
+      <c r="I495" t="n">
+        <v>0.6009389671361502</v>
+      </c>
+      <c r="J495" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="K495" t="n">
+        <v>0.421875</v>
+      </c>
+      <c r="L495" s="2" t="n">
+        <v>45924.67574260417</v>
+      </c>
+      <c r="M495" s="2" t="n">
+        <v>45924.67574130787</v>
+      </c>
+      <c r="N495" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O495" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D496" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E496" t="n">
+        <v>1.28255787037037e-06</v>
+      </c>
+      <c r="F496" t="n">
+        <v>8.784722222222222e-09</v>
+      </c>
+      <c r="G496" t="n">
+        <v>0.7901234567901234</v>
+      </c>
+      <c r="H496" t="n">
+        <v>0.8019689379630253</v>
+      </c>
+      <c r="I496" t="n">
+        <v>0.8257526532380333</v>
+      </c>
+      <c r="J496" t="n">
+        <v>0.7901234567901234</v>
+      </c>
+      <c r="K496" t="n">
+        <v>0.7591911764705883</v>
+      </c>
+      <c r="L496" s="2" t="n">
+        <v>45924.67574260417</v>
+      </c>
+      <c r="M496" s="2" t="n">
+        <v>45924.67574130787</v>
+      </c>
+      <c r="N496" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O496" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D497" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E497" t="n">
+        <v>5.401770833333333e-06</v>
+      </c>
+      <c r="F497" t="n">
+        <v>2.570439814814815e-06</v>
+      </c>
+      <c r="G497" t="n">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="H497" t="n">
+        <v>0.7311645553457915</v>
+      </c>
+      <c r="I497" t="n">
+        <v>0.7235647161020295</v>
+      </c>
+      <c r="J497" t="n">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="K497" t="n">
+        <v>0.5767463235294118</v>
+      </c>
+      <c r="L497" s="2" t="n">
+        <v>45924.67655055555</v>
+      </c>
+      <c r="M497" s="2" t="n">
+        <v>45924.67654515046</v>
+      </c>
+      <c r="N497" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O497" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D498" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E498" t="n">
+        <v>5.071157407407408e-06</v>
+      </c>
+      <c r="F498" t="n">
+        <v>1.895868055555556e-06</v>
+      </c>
+      <c r="G498" t="n">
+        <v>0.7160493827160493</v>
+      </c>
+      <c r="H498" t="n">
+        <v>0.7185355044433636</v>
+      </c>
+      <c r="I498" t="n">
+        <v>0.721230520137624</v>
+      </c>
+      <c r="J498" t="n">
+        <v>0.7160493827160493</v>
+      </c>
+      <c r="K498" t="n">
+        <v>0.6137521222410864</v>
+      </c>
+      <c r="L498" s="2" t="n">
+        <v>45924.68070023148</v>
+      </c>
+      <c r="M498" s="2" t="n">
+        <v>45924.68069513889</v>
+      </c>
+      <c r="N498" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O498" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D499" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E499" t="n">
+        <v>9.83954513888889e-05</v>
+      </c>
+      <c r="F499" t="n">
+        <v>2.088194444444444e-06</v>
+      </c>
+      <c r="G499" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="H499" t="n">
+        <v>0.7639517345399698</v>
+      </c>
+      <c r="I499" t="n">
+        <v>0.7541125541125541</v>
+      </c>
+      <c r="J499" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="K499" t="n">
+        <v>0.5803030303030302</v>
+      </c>
+      <c r="L499" s="2" t="n">
+        <v>45925.51793018518</v>
+      </c>
+      <c r="M499" s="2" t="n">
+        <v>45925.51783008102</v>
+      </c>
+      <c r="N499" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O499" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D500" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E500" t="n">
+        <v>0.001111394699074074</v>
+      </c>
+      <c r="F500" t="n">
+        <v>1.808981481481481e-06</v>
+      </c>
+      <c r="G500" t="n">
+        <v>0.7160493827160493</v>
+      </c>
+      <c r="H500" t="n">
+        <v>0.7256544775924622</v>
+      </c>
+      <c r="I500" t="n">
+        <v>0.7369194591416813</v>
+      </c>
+      <c r="J500" t="n">
+        <v>0.7160493827160493</v>
+      </c>
+      <c r="K500" t="n">
+        <v>0.5681818181818181</v>
+      </c>
+      <c r="L500" s="2" t="n">
+        <v>45925.52300373842</v>
+      </c>
+      <c r="M500" s="2" t="n">
+        <v>45925.52189148148</v>
+      </c>
+      <c r="N500" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O500" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D501" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E501" t="n">
+        <v>6.012743055555555e-06</v>
+      </c>
+      <c r="F501" t="n">
+        <v>2.293391203703703e-06</v>
+      </c>
+      <c r="G501" t="n">
+        <v>0.691358024691358</v>
+      </c>
+      <c r="H501" t="n">
+        <v>0.6951580982607823</v>
+      </c>
+      <c r="I501" t="n">
+        <v>0.6991096866096866</v>
+      </c>
+      <c r="J501" t="n">
+        <v>0.691358024691358</v>
+      </c>
+      <c r="K501" t="n">
+        <v>0.5015151515151515</v>
+      </c>
+      <c r="L501" s="2" t="n">
+        <v>45925.52649340278</v>
+      </c>
+      <c r="M501" s="2" t="n">
+        <v>45925.52648737268</v>
+      </c>
+      <c r="N501" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O501" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D502" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E502" t="n">
+        <v>9.063981481481482e-06</v>
+      </c>
+      <c r="F502" t="n">
+        <v>2.860486111111111e-06</v>
+      </c>
+      <c r="G502" t="n">
+        <v>0.7901234567901234</v>
+      </c>
+      <c r="H502" t="n">
+        <v>0.7703165960879209</v>
+      </c>
+      <c r="I502" t="n">
+        <v>0.7656565656565656</v>
+      </c>
+      <c r="J502" t="n">
+        <v>0.7901234567901234</v>
+      </c>
+      <c r="K502" t="n">
+        <v>0.626984126984127</v>
+      </c>
+      <c r="L502" s="2" t="n">
+        <v>45925.53015548611</v>
+      </c>
+      <c r="M502" s="2" t="n">
+        <v>45925.53014550926</v>
+      </c>
+      <c r="N502" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O502" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D503" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E503" t="n">
+        <v>7.140439814814814e-06</v>
+      </c>
+      <c r="F503" t="n">
+        <v>3.637141203703704e-06</v>
+      </c>
+      <c r="G503" t="n">
+        <v>0.7654320987654321</v>
+      </c>
+      <c r="H503" t="n">
+        <v>0.7542742742742742</v>
+      </c>
+      <c r="I503" t="n">
+        <v>0.7498219373219372</v>
+      </c>
+      <c r="J503" t="n">
+        <v>0.7654320987654321</v>
+      </c>
+      <c r="K503" t="n">
+        <v>0.655952380952381</v>
+      </c>
+      <c r="L503" s="2" t="n">
+        <v>45925.54304729166</v>
+      </c>
+      <c r="M503" s="2" t="n">
+        <v>45925.54304013889</v>
+      </c>
+      <c r="N503" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O503" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D504" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E504" t="n">
+        <v>7.140439814814814e-06</v>
+      </c>
+      <c r="F504" t="n">
+        <v>3.637141203703704e-06</v>
+      </c>
+      <c r="G504" t="n">
+        <v>0.8024691358024691</v>
+      </c>
+      <c r="H504" t="n">
+        <v>0.7907113462669019</v>
+      </c>
+      <c r="I504" t="n">
+        <v>0.7901234567901234</v>
+      </c>
+      <c r="J504" t="n">
+        <v>0.8024691358024691</v>
+      </c>
+      <c r="K504" t="n">
+        <v>0.6964285714285715</v>
+      </c>
+      <c r="L504" s="2" t="n">
+        <v>45925.54304729166</v>
+      </c>
+      <c r="M504" s="2" t="n">
+        <v>45925.54304013889</v>
+      </c>
+      <c r="N504" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O504" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D505" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E505" t="n">
+        <v>5.004293981481481e-06</v>
+      </c>
+      <c r="F505" t="n">
+        <v>1.848738425925926e-06</v>
+      </c>
+      <c r="G505" t="n">
+        <v>0.6790123456790124</v>
+      </c>
+      <c r="H505" t="n">
+        <v>0.6790123456790124</v>
+      </c>
+      <c r="I505" t="n">
+        <v>0.6790123456790124</v>
+      </c>
+      <c r="J505" t="n">
+        <v>0.6790123456790124</v>
+      </c>
+      <c r="K505" t="n">
+        <v>0.4681818181818181</v>
+      </c>
+      <c r="L505" s="2" t="n">
+        <v>45925.54536806713</v>
+      </c>
+      <c r="M505" s="2" t="n">
+        <v>45925.54536305556</v>
+      </c>
+      <c r="N505" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O505" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D506" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E506" t="n">
+        <v>5.035219907407408e-06</v>
+      </c>
+      <c r="F506" t="n">
+        <v>1.863449074074074e-06</v>
+      </c>
+      <c r="G506" t="n">
+        <v>0.691358024691358</v>
+      </c>
+      <c r="H506" t="n">
+        <v>0.6884217550884217</v>
+      </c>
+      <c r="I506" t="n">
+        <v>0.6856750930825005</v>
+      </c>
+      <c r="J506" t="n">
+        <v>0.691358024691358</v>
+      </c>
+      <c r="K506" t="n">
+        <v>0.5611205432937181</v>
+      </c>
+      <c r="L506" s="2" t="n">
+        <v>45925.54850828704</v>
+      </c>
+      <c r="M506" s="2" t="n">
+        <v>45925.54850324074</v>
+      </c>
+      <c r="N506" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O506" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D507" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E507" t="n">
+        <v>5.402997685185185e-06</v>
+      </c>
+      <c r="F507" t="n">
+        <v>2.00880787037037e-06</v>
+      </c>
+      <c r="G507" t="n">
+        <v>0.7160493827160493</v>
+      </c>
+      <c r="H507" t="n">
+        <v>0.7275340330391752</v>
+      </c>
+      <c r="I507" t="n">
+        <v>0.7404439696106363</v>
+      </c>
+      <c r="J507" t="n">
+        <v>0.7160493827160493</v>
+      </c>
+      <c r="K507" t="n">
+        <v>0.5197963800904978</v>
+      </c>
+      <c r="L507" s="2" t="n">
+        <v>45925.55185165509</v>
+      </c>
+      <c r="M507" s="2" t="n">
+        <v>45925.55184623843</v>
+      </c>
+      <c r="N507" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O507" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D508" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E508" t="n">
+        <v>5.402997685185185e-06</v>
+      </c>
+      <c r="F508" t="n">
+        <v>2.00880787037037e-06</v>
+      </c>
+      <c r="G508" t="n">
+        <v>0.8271604938271605</v>
+      </c>
+      <c r="H508" t="n">
+        <v>0.8212113079262837</v>
+      </c>
+      <c r="I508" t="n">
+        <v>0.8165143498476831</v>
+      </c>
+      <c r="J508" t="n">
+        <v>0.8271604938271605</v>
+      </c>
+      <c r="K508" t="n">
+        <v>0.6481900452488688</v>
+      </c>
+      <c r="L508" s="2" t="n">
+        <v>45925.55185165509</v>
+      </c>
+      <c r="M508" s="2" t="n">
+        <v>45925.55184623843</v>
+      </c>
+      <c r="N508" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O508" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D509" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E509" t="n">
+        <v>0.0001820183217592593</v>
+      </c>
+      <c r="F509" t="n">
+        <v>8.324489583333333e-05</v>
+      </c>
+      <c r="G509" t="n">
+        <v>0.8024691358024691</v>
+      </c>
+      <c r="H509" t="n">
+        <v>0.8223841327666465</v>
+      </c>
+      <c r="I509" t="n">
+        <v>0.8768540101873435</v>
+      </c>
+      <c r="J509" t="n">
+        <v>0.8024691358024691</v>
+      </c>
+      <c r="K509" t="n">
+        <v>0.8240938166311302</v>
+      </c>
+      <c r="L509" s="2" t="n">
+        <v>45925.57046309028</v>
+      </c>
+      <c r="M509" s="2" t="n">
+        <v>45925.57028105324</v>
+      </c>
+      <c r="N509" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O509" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D510" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E510" t="n">
+        <v>0.0002409457870370371</v>
+      </c>
+      <c r="F510" t="n">
+        <v>0.0002632506712962963</v>
+      </c>
+      <c r="G510" t="n">
+        <v>0.7283950617283951</v>
+      </c>
+      <c r="H510" t="n">
+        <v>0.7480506822612085</v>
+      </c>
+      <c r="I510" t="n">
+        <v>0.7978213507625272</v>
+      </c>
+      <c r="J510" t="n">
+        <v>0.7283950617283951</v>
+      </c>
+      <c r="K510" t="n">
+        <v>0.7261904761904763</v>
+      </c>
+      <c r="L510" s="2" t="n">
+        <v>45925.57171554398</v>
+      </c>
+      <c r="M510" s="2" t="n">
+        <v>45925.57147372685</v>
+      </c>
+      <c r="N510" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O510" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D511" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E511" t="n">
+        <v>0.0007028905324074074</v>
+      </c>
+      <c r="F511" t="n">
+        <v>0.0001407304166666667</v>
+      </c>
+      <c r="G511" t="n">
+        <v>0.691358024691358</v>
+      </c>
+      <c r="H511" t="n">
+        <v>0.7224348531538074</v>
+      </c>
+      <c r="I511" t="n">
+        <v>0.8235027988651176</v>
+      </c>
+      <c r="J511" t="n">
+        <v>0.691358024691358</v>
+      </c>
+      <c r="K511" t="n">
+        <v>0.7370192307692307</v>
+      </c>
+      <c r="L511" s="2" t="n">
+        <v>45925.57743530093</v>
+      </c>
+      <c r="M511" s="2" t="n">
+        <v>45925.57673060185</v>
+      </c>
+      <c r="N511" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O511" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D512" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E512" t="n">
+        <v>0.0002735744907407407</v>
+      </c>
+      <c r="F512" t="n">
+        <v>0.0001052800694444444</v>
+      </c>
+      <c r="G512" t="n">
+        <v>0.6172839506172839</v>
+      </c>
+      <c r="H512" t="n">
+        <v>0.6413983078918744</v>
+      </c>
+      <c r="I512" t="n">
+        <v>0.6941872427983539</v>
+      </c>
+      <c r="J512" t="n">
+        <v>0.6172839506172839</v>
+      </c>
+      <c r="K512" t="n">
+        <v>0.594672131147541</v>
+      </c>
+      <c r="L512" s="2" t="n">
+        <v>45925.58201896991</v>
+      </c>
+      <c r="M512" s="2" t="n">
+        <v>45925.58174378472</v>
+      </c>
+      <c r="N512" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O512" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D513" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E513" t="n">
+        <v>0.0001732060763888889</v>
+      </c>
+      <c r="F513" t="n">
+        <v>8.777859953703704e-05</v>
+      </c>
+      <c r="G513" t="n">
+        <v>0.691358024691358</v>
+      </c>
+      <c r="H513" t="n">
+        <v>0.712621117849876</v>
+      </c>
+      <c r="I513" t="n">
+        <v>0.7669989292013102</v>
+      </c>
+      <c r="J513" t="n">
+        <v>0.691358024691358</v>
+      </c>
+      <c r="K513" t="n">
+        <v>0.6888794567062818</v>
+      </c>
+      <c r="L513" s="2" t="n">
+        <v>45925.58601043982</v>
+      </c>
+      <c r="M513" s="2" t="n">
+        <v>45925.58583722222</v>
+      </c>
+      <c r="N513" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O513" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D514" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E514" t="n">
+        <v>0.0001732060763888889</v>
+      </c>
+      <c r="F514" t="n">
+        <v>8.777859953703704e-05</v>
+      </c>
+      <c r="G514" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="H514" t="n">
+        <v>0.7872795754151686</v>
+      </c>
+      <c r="I514" t="n">
+        <v>0.8053968253968254</v>
+      </c>
+      <c r="J514" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="K514" t="n">
+        <v>0.7453310696095076</v>
+      </c>
+      <c r="L514" s="2" t="n">
+        <v>45925.58601043982</v>
+      </c>
+      <c r="M514" s="2" t="n">
+        <v>45925.58583722222</v>
+      </c>
+      <c r="N514" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O514" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_Letter-high_with_(7)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>(7)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D515" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E515" t="n">
+        <v>4.725824074074074e-05</v>
+      </c>
+      <c r="F515" t="n">
+        <v>1.332777777777778e-05</v>
+      </c>
+      <c r="G515" t="n">
+        <v>0.5044444444444445</v>
+      </c>
+      <c r="H515" t="n">
+        <v>0.4883679535056484</v>
+      </c>
+      <c r="I515" t="n">
+        <v>0.5434549633252157</v>
+      </c>
+      <c r="J515" t="n">
+        <v>0.5044444444444445</v>
+      </c>
+      <c r="K515" t="n">
+        <v>0.8878916808735872</v>
+      </c>
+      <c r="L515" s="2" t="n">
+        <v>45926.55947094908</v>
+      </c>
+      <c r="M515" s="2" t="n">
+        <v>45926.55942363426</v>
+      </c>
+      <c r="N515" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O515" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(7)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>(7)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D516" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E516" t="n">
+        <v>2.772106481481481e-07</v>
+      </c>
+      <c r="F516" t="n">
+        <v>8.716435185185185e-08</v>
+      </c>
+      <c r="G516" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="H516" t="n">
+        <v>0.8953265516733009</v>
+      </c>
+      <c r="I516" t="n">
+        <v>0.9008771929824562</v>
+      </c>
+      <c r="J516" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="K516" t="n">
+        <v>0.06534090909090909</v>
+      </c>
+      <c r="L516" s="2" t="n">
+        <v>45926.56548694445</v>
+      </c>
+      <c r="M516" s="2" t="n">
+        <v>45926.56548652778</v>
+      </c>
+      <c r="N516" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O516" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>SVC_Simple-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D517" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E517" t="n">
+        <v>3.639768518518518e-06</v>
+      </c>
+      <c r="F517" t="n">
+        <v>1.076388888888889e-08</v>
+      </c>
+      <c r="G517" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H517" t="n">
+        <v>0.5088090204369274</v>
+      </c>
+      <c r="I517" t="n">
+        <v>0.5346260387811634</v>
+      </c>
+      <c r="J517" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K517" t="n">
+        <v>0.5089285714285714</v>
+      </c>
+      <c r="L517" s="2" t="n">
+        <v>45926.56598181713</v>
+      </c>
+      <c r="M517" s="2" t="n">
+        <v>45926.56597805556</v>
+      </c>
+      <c r="N517" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O517" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_Letter-high_with_(7)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>(7)-NN_Classifier_GED</t>
+        </is>
+      </c>
+      <c r="D518" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E518" t="n">
+        <v>4.656935185185185e-05</v>
+      </c>
+      <c r="F518" t="n">
+        <v>1.542525462962963e-05</v>
+      </c>
+      <c r="G518" t="n">
+        <v>0.4844444444444445</v>
+      </c>
+      <c r="H518" t="n">
+        <v>0.472766271020622</v>
+      </c>
+      <c r="I518" t="n">
+        <v>0.5025735845859081</v>
+      </c>
+      <c r="J518" t="n">
+        <v>0.4844444444444445</v>
+      </c>
+      <c r="K518" t="n">
+        <v>0.8734861768518503</v>
+      </c>
+      <c r="L518" s="2" t="n">
+        <v>45926.57018256944</v>
+      </c>
+      <c r="M518" s="2" t="n">
+        <v>45926.57013594908</v>
+      </c>
+      <c r="N518" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O518" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D519" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E519" t="n">
+        <v>3.688958333333333e-06</v>
+      </c>
+      <c r="F519" t="n">
+        <v>1.743530092592593e-06</v>
+      </c>
+      <c r="G519" t="n">
+        <v>0.7283950617283951</v>
+      </c>
+      <c r="H519" t="n">
+        <v>0.713523653817938</v>
+      </c>
+      <c r="I519" t="n">
+        <v>0.707312440645774</v>
+      </c>
+      <c r="J519" t="n">
+        <v>0.7283950617283951</v>
+      </c>
+      <c r="K519" t="n">
+        <v>0.6140215716486904</v>
+      </c>
+      <c r="L519" s="2" t="n">
+        <v>45926.60692478009</v>
+      </c>
+      <c r="M519" s="2" t="n">
+        <v>45926.60692107639</v>
+      </c>
+      <c r="N519" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O519" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D520" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E520" t="n">
+        <v>5.608611111111111e-06</v>
+      </c>
+      <c r="F520" t="n">
+        <v>1.861435185185185e-06</v>
+      </c>
+      <c r="G520" t="n">
+        <v>0.7037037037037037</v>
+      </c>
+      <c r="H520" t="n">
+        <v>0.7136612021857923</v>
+      </c>
+      <c r="I520" t="n">
+        <v>0.7267591165896251</v>
+      </c>
+      <c r="J520" t="n">
+        <v>0.7037037037037037</v>
+      </c>
+      <c r="K520" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="L520" s="2" t="n">
+        <v>45926.60778174768</v>
+      </c>
+      <c r="M520" s="2" t="n">
+        <v>45926.60777612268</v>
+      </c>
+      <c r="N520" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O520" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D521" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E521" t="n">
+        <v>5.608611111111111e-06</v>
+      </c>
+      <c r="F521" t="n">
+        <v>1.861435185185185e-06</v>
+      </c>
+      <c r="G521" t="n">
+        <v>0.7037037037037037</v>
+      </c>
+      <c r="H521" t="n">
+        <v>0.6973039215686275</v>
+      </c>
+      <c r="I521" t="n">
+        <v>0.6916666666666668</v>
+      </c>
+      <c r="J521" t="n">
+        <v>0.7037037037037037</v>
+      </c>
+      <c r="K521" t="n">
+        <v>0.5515873015873015</v>
+      </c>
+      <c r="L521" s="2" t="n">
+        <v>45926.60778174768</v>
+      </c>
+      <c r="M521" s="2" t="n">
+        <v>45926.60777612268</v>
+      </c>
+      <c r="N521" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O521" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D522" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E522" t="n">
+        <v>7.011215277777778e-06</v>
+      </c>
+      <c r="F522" t="n">
+        <v>3.783888888888889e-06</v>
+      </c>
+      <c r="G522" t="n">
+        <v>0.6790123456790124</v>
+      </c>
+      <c r="H522" t="n">
+        <v>0.6839800117577896</v>
+      </c>
+      <c r="I522" t="n">
+        <v>0.6897030569346954</v>
+      </c>
+      <c r="J522" t="n">
+        <v>0.6790123456790124</v>
+      </c>
+      <c r="K522" t="n">
+        <v>0.5852459016393442</v>
+      </c>
+      <c r="L522" s="2" t="n">
+        <v>45926.63602863426</v>
+      </c>
+      <c r="M522" s="2" t="n">
+        <v>45926.63602075232</v>
+      </c>
+      <c r="N522" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O522" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D523" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E523" t="n">
+        <v>6.368923611111111e-06</v>
+      </c>
+      <c r="F523" t="n">
+        <v>2.877800925925926e-06</v>
+      </c>
+      <c r="G523" t="n">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="H523" t="n">
+        <v>0.7428311197712528</v>
+      </c>
+      <c r="I523" t="n">
+        <v>0.7451499118165785</v>
+      </c>
+      <c r="J523" t="n">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="K523" t="n">
+        <v>0.6598360655737705</v>
+      </c>
+      <c r="L523" s="2" t="n">
+        <v>45926.6371171412</v>
+      </c>
+      <c r="M523" s="2" t="n">
+        <v>45926.63710895833</v>
+      </c>
+      <c r="N523" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O523" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D524" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E524" t="n">
+        <v>1.66525462962963e-06</v>
+      </c>
+      <c r="F524" t="n">
+        <v>3.073888888888889e-06</v>
+      </c>
+      <c r="G524" t="n">
+        <v>0.7901234567901234</v>
+      </c>
+      <c r="H524" t="n">
+        <v>0.787539406762915</v>
+      </c>
+      <c r="I524" t="n">
+        <v>0.7852225963337075</v>
+      </c>
+      <c r="J524" t="n">
+        <v>0.7901234567901234</v>
+      </c>
+      <c r="K524" t="n">
+        <v>0.6572115384615385</v>
+      </c>
+      <c r="L524" s="2" t="n">
+        <v>45926.65641547454</v>
+      </c>
+      <c r="M524" s="2" t="n">
+        <v>45926.65641295139</v>
+      </c>
+      <c r="N524" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O524" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D525" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E525" t="n">
+        <v>1.63693287037037e-06</v>
+      </c>
+      <c r="F525" t="n">
+        <v>6.190972222222223e-07</v>
+      </c>
+      <c r="G525" t="n">
+        <v>0.4691358024691358</v>
+      </c>
+      <c r="H525" t="n">
+        <v>0.5287127948528858</v>
+      </c>
+      <c r="I525" t="n">
+        <v>0.7200274348422496</v>
+      </c>
+      <c r="J525" t="n">
+        <v>0.4691358024691358</v>
+      </c>
+      <c r="K525" t="n">
+        <v>0.5095948827292111</v>
+      </c>
+      <c r="L525" s="2" t="n">
+        <v>45926.66002355324</v>
+      </c>
+      <c r="M525" s="2" t="n">
+        <v>45926.66002107639</v>
+      </c>
+      <c r="N525" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O525" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_BZR_with_SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>BZR</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>SVC_Zero-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D526" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E526" t="n">
+        <v>1.63693287037037e-06</v>
+      </c>
+      <c r="F526" t="n">
+        <v>6.190972222222223e-07</v>
+      </c>
+      <c r="G526" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="H526" t="n">
+        <v>0.5005611672278338</v>
+      </c>
+      <c r="I526" t="n">
+        <v>0.7296626984126984</v>
+      </c>
+      <c r="J526" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="K526" t="n">
+        <v>0.5229211087420043</v>
+      </c>
+      <c r="L526" s="2" t="n">
+        <v>45926.66002355324</v>
+      </c>
+      <c r="M526" s="2" t="n">
+        <v>45926.66002107639</v>
+      </c>
+      <c r="N526" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O526" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Trivial-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>SVC_Trivial-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D527" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E527" s="3" t="n">
+        <v>6.876620370370371e-07</v>
+      </c>
+      <c r="F527" s="3" t="n">
+        <v>7.043981481481482e-08</v>
+      </c>
+      <c r="G527" t="n">
+        <v>0.6052631578947368</v>
+      </c>
+      <c r="H527" t="n">
+        <v>0.5324036095159967</v>
+      </c>
+      <c r="I527" t="n">
+        <v>0.5392857142857144</v>
+      </c>
+      <c r="J527" t="n">
+        <v>0.5338461538461539</v>
+      </c>
+      <c r="K527" t="n">
+        <v>0.2892307692307692</v>
+      </c>
+      <c r="L527" s="2" t="n">
+        <v>45926.82500684206</v>
+      </c>
+      <c r="M527" s="2" t="n">
+        <v>45926.82500614478</v>
+      </c>
+      <c r="N527" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O527" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
         </is>
       </c>
     </row>

--- a/configs/test_results.xlsx
+++ b/configs/test_results.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O527"/>
+  <dimension ref="A1:O574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29893,10 +29893,10 @@
       <c r="D527" t="n">
         <v>0.2</v>
       </c>
-      <c r="E527" s="3" t="n">
+      <c r="E527" t="n">
         <v>6.876620370370371e-07</v>
       </c>
-      <c r="F527" s="3" t="n">
+      <c r="F527" t="n">
         <v>7.043981481481482e-08</v>
       </c>
       <c r="G527" t="n">
@@ -29915,10 +29915,10 @@
         <v>0.2892307692307692</v>
       </c>
       <c r="L527" s="2" t="n">
-        <v>45926.82500684206</v>
+        <v>45926.82500684028</v>
       </c>
       <c r="M527" s="2" t="n">
-        <v>45926.82500614478</v>
+        <v>45926.82500614583</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
@@ -29928,6 +29928,2657 @@
       <c r="O527" t="inlineStr">
         <is>
           <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D528" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E528" t="n">
+        <v>0.0003143301504629629</v>
+      </c>
+      <c r="F528" t="n">
+        <v>0.0003204270486111111</v>
+      </c>
+      <c r="G528" t="n">
+        <v>0.7105263157894737</v>
+      </c>
+      <c r="H528" t="n">
+        <v>0.6570959803117309</v>
+      </c>
+      <c r="I528" t="n">
+        <v>0.6538461538461539</v>
+      </c>
+      <c r="J528" t="n">
+        <v>0.6616161616161615</v>
+      </c>
+      <c r="K528" t="n">
+        <v>0.2424242424242424</v>
+      </c>
+      <c r="L528" s="2" t="n">
+        <v>45928.73508200231</v>
+      </c>
+      <c r="M528" s="2" t="n">
+        <v>45928.73476753472</v>
+      </c>
+      <c r="N528" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O528" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D529" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E529" t="n">
+        <v>2.632523148148148e-07</v>
+      </c>
+      <c r="F529" t="n">
+        <v>2.539351851851852e-08</v>
+      </c>
+      <c r="G529" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="H529" t="n">
+        <v>0.8869047619047619</v>
+      </c>
+      <c r="I529" t="n">
+        <v>0.8782608695652174</v>
+      </c>
+      <c r="J529" t="n">
+        <v>0.9015384615384616</v>
+      </c>
+      <c r="K529" t="n">
+        <v>0.08923076923076921</v>
+      </c>
+      <c r="L529" s="2" t="n">
+        <v>45928.74027630787</v>
+      </c>
+      <c r="M529" s="2" t="n">
+        <v>45928.74027603009</v>
+      </c>
+      <c r="N529" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O529" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D530" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E530" t="n">
+        <v>1.663541666666667e-07</v>
+      </c>
+      <c r="F530" t="n">
+        <v>2.359953703703704e-08</v>
+      </c>
+      <c r="G530" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="H530" t="n">
+        <v>0.8782051282051282</v>
+      </c>
+      <c r="I530" t="n">
+        <v>0.8782051282051282</v>
+      </c>
+      <c r="J530" t="n">
+        <v>0.8782051282051282</v>
+      </c>
+      <c r="K530" t="n">
+        <v>0.04166666666666666</v>
+      </c>
+      <c r="L530" s="2" t="n">
+        <v>45928.74051083333</v>
+      </c>
+      <c r="M530" s="2" t="n">
+        <v>45928.74051065972</v>
+      </c>
+      <c r="N530" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O530" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D531" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E531" t="n">
+        <v>1.714467592592592e-07</v>
+      </c>
+      <c r="F531" t="n">
+        <v>2.475694444444444e-08</v>
+      </c>
+      <c r="G531" t="n">
+        <v>0.9736842105263158</v>
+      </c>
+      <c r="H531" t="n">
+        <v>0.9688269073010665</v>
+      </c>
+      <c r="I531" t="n">
+        <v>0.9583333333333333</v>
+      </c>
+      <c r="J531" t="n">
+        <v>0.9814814814814814</v>
+      </c>
+      <c r="K531" t="n">
+        <v>0.03367003367003367</v>
+      </c>
+      <c r="L531" s="2" t="n">
+        <v>45928.7406225</v>
+      </c>
+      <c r="M531" s="2" t="n">
+        <v>45928.74062231481</v>
+      </c>
+      <c r="N531" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O531" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D532" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E532" t="n">
+        <v>1.686226851851852e-07</v>
+      </c>
+      <c r="F532" t="n">
+        <v>2.377314814814815e-08</v>
+      </c>
+      <c r="G532" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H532" t="n">
+        <v>0.8173076923076923</v>
+      </c>
+      <c r="I532" t="n">
+        <v>0.8173076923076923</v>
+      </c>
+      <c r="J532" t="n">
+        <v>0.8173076923076923</v>
+      </c>
+      <c r="K532" t="n">
+        <v>0.1410256410256411</v>
+      </c>
+      <c r="L532" s="2" t="n">
+        <v>45928.74169708334</v>
+      </c>
+      <c r="M532" s="2" t="n">
+        <v>45928.74169689815</v>
+      </c>
+      <c r="N532" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O532" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D533" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E533" t="n">
+        <v>1.718402777777778e-07</v>
+      </c>
+      <c r="F533" t="n">
+        <v>2.430555555555555e-08</v>
+      </c>
+      <c r="G533" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="H533" t="n">
+        <v>0.6607142857142857</v>
+      </c>
+      <c r="I533" t="n">
+        <v>0.6577380952380952</v>
+      </c>
+      <c r="J533" t="n">
+        <v>0.7760416666666667</v>
+      </c>
+      <c r="K533" t="n">
+        <v>0.07291666666666666</v>
+      </c>
+      <c r="L533" s="2" t="n">
+        <v>45928.74183967592</v>
+      </c>
+      <c r="M533" s="2" t="n">
+        <v>45928.74183949074</v>
+      </c>
+      <c r="N533" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O533" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D534" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E534" t="n">
+        <v>0.0001128665856481482</v>
+      </c>
+      <c r="F534" t="n">
+        <v>4.260416666666667e-08</v>
+      </c>
+      <c r="G534" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H534" t="n">
+        <v>0.8173076923076923</v>
+      </c>
+      <c r="I534" t="n">
+        <v>0.8173076923076923</v>
+      </c>
+      <c r="J534" t="n">
+        <v>0.8173076923076923</v>
+      </c>
+      <c r="K534" t="n">
+        <v>0.1057692307692308</v>
+      </c>
+      <c r="L534" s="2" t="n">
+        <v>45928.74296071759</v>
+      </c>
+      <c r="M534" s="2" t="n">
+        <v>45928.74284770833</v>
+      </c>
+      <c r="N534" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O534" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D535" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E535" t="n">
+        <v>3.497569444444444e-07</v>
+      </c>
+      <c r="F535" t="n">
+        <v>2.325231481481481e-08</v>
+      </c>
+      <c r="G535" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H535" t="n">
+        <v>0.8380681818181819</v>
+      </c>
+      <c r="I535" t="n">
+        <v>0.8601190476190477</v>
+      </c>
+      <c r="J535" t="n">
+        <v>0.836111111111111</v>
+      </c>
+      <c r="K535" t="n">
+        <v>0.05833333333333334</v>
+      </c>
+      <c r="L535" s="2" t="n">
+        <v>45928.74464642361</v>
+      </c>
+      <c r="M535" s="2" t="n">
+        <v>45928.74464606481</v>
+      </c>
+      <c r="N535" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O535" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D536" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E536" t="n">
+        <v>1.702083333333333e-07</v>
+      </c>
+      <c r="F536" t="n">
+        <v>2.260416666666667e-08</v>
+      </c>
+      <c r="G536" t="n">
+        <v>0.7631578947368421</v>
+      </c>
+      <c r="H536" t="n">
+        <v>0.7616724738675958</v>
+      </c>
+      <c r="I536" t="n">
+        <v>0.7801120448179272</v>
+      </c>
+      <c r="J536" t="n">
+        <v>0.7976190476190477</v>
+      </c>
+      <c r="K536" t="n">
+        <v>0.05952380952380952</v>
+      </c>
+      <c r="L536" s="2" t="n">
+        <v>45928.74654375</v>
+      </c>
+      <c r="M536" s="2" t="n">
+        <v>45928.74654357639</v>
+      </c>
+      <c r="N536" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O536" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D537" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E537" t="n">
+        <v>1.70787037037037e-07</v>
+      </c>
+      <c r="F537" t="n">
+        <v>2.696759259259259e-08</v>
+      </c>
+      <c r="G537" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="H537" t="n">
+        <v>0.8782051282051282</v>
+      </c>
+      <c r="I537" t="n">
+        <v>0.8782051282051282</v>
+      </c>
+      <c r="J537" t="n">
+        <v>0.8782051282051282</v>
+      </c>
+      <c r="K537" t="n">
+        <v>0.04487179487179488</v>
+      </c>
+      <c r="L537" s="2" t="n">
+        <v>45928.74882324074</v>
+      </c>
+      <c r="M537" s="2" t="n">
+        <v>45928.74882306713</v>
+      </c>
+      <c r="N537" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O537" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D538" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E538" t="n">
+        <v>1.705439814814815e-07</v>
+      </c>
+      <c r="F538" t="n">
+        <v>2.418981481481481e-08</v>
+      </c>
+      <c r="G538" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="H538" t="n">
+        <v>0.8720538720538721</v>
+      </c>
+      <c r="I538" t="n">
+        <v>0.8964285714285715</v>
+      </c>
+      <c r="J538" t="n">
+        <v>0.8557692307692308</v>
+      </c>
+      <c r="K538" t="n">
+        <v>0.04807692307692307</v>
+      </c>
+      <c r="L538" s="2" t="n">
+        <v>45928.75600518518</v>
+      </c>
+      <c r="M538" s="2" t="n">
+        <v>45928.756005</v>
+      </c>
+      <c r="N538" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O538" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D539" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E539" t="n">
+        <v>1.723148148148148e-07</v>
+      </c>
+      <c r="F539" t="n">
+        <v>2.430555555555555e-08</v>
+      </c>
+      <c r="G539" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="H539" t="n">
+        <v>0.7738095238095238</v>
+      </c>
+      <c r="I539" t="n">
+        <v>0.7681159420289855</v>
+      </c>
+      <c r="J539" t="n">
+        <v>0.7846153846153847</v>
+      </c>
+      <c r="K539" t="n">
+        <v>0.1415384615384615</v>
+      </c>
+      <c r="L539" s="2" t="n">
+        <v>45928.76030185185</v>
+      </c>
+      <c r="M539" s="2" t="n">
+        <v>45928.76030166667</v>
+      </c>
+      <c r="N539" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O539" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D540" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E540" t="n">
+        <v>1.728009259259259e-07</v>
+      </c>
+      <c r="F540" t="n">
+        <v>2.501157407407408e-08</v>
+      </c>
+      <c r="G540" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="H540" t="n">
+        <v>0.8782051282051282</v>
+      </c>
+      <c r="I540" t="n">
+        <v>0.8782051282051282</v>
+      </c>
+      <c r="J540" t="n">
+        <v>0.8782051282051282</v>
+      </c>
+      <c r="K540" t="n">
+        <v>0.04807692307692309</v>
+      </c>
+      <c r="L540" s="2" t="n">
+        <v>45928.76113164352</v>
+      </c>
+      <c r="M540" s="2" t="n">
+        <v>45928.76113146991</v>
+      </c>
+      <c r="N540" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O540" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D541" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E541" t="n">
+        <v>3.244444444444445e-07</v>
+      </c>
+      <c r="F541" t="n">
+        <v>2.306712962962963e-08</v>
+      </c>
+      <c r="G541" t="n">
+        <v>0.7631578947368421</v>
+      </c>
+      <c r="H541" t="n">
+        <v>0.7317647058823529</v>
+      </c>
+      <c r="I541" t="n">
+        <v>0.7371794871794872</v>
+      </c>
+      <c r="J541" t="n">
+        <v>0.7276923076923076</v>
+      </c>
+      <c r="K541" t="n">
+        <v>0.1323076923076923</v>
+      </c>
+      <c r="L541" s="2" t="n">
+        <v>45928.76185570602</v>
+      </c>
+      <c r="M541" s="2" t="n">
+        <v>45928.76185537037</v>
+      </c>
+      <c r="N541" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O541" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D542" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E542" t="n">
+        <v>1.737037037037037e-07</v>
+      </c>
+      <c r="F542" t="n">
+        <v>2.659722222222222e-08</v>
+      </c>
+      <c r="G542" t="n">
+        <v>0.9473684210526315</v>
+      </c>
+      <c r="H542" t="n">
+        <v>0.9472222222222222</v>
+      </c>
+      <c r="I542" t="n">
+        <v>0.9472222222222222</v>
+      </c>
+      <c r="J542" t="n">
+        <v>0.9472222222222222</v>
+      </c>
+      <c r="K542" t="n">
+        <v>0.01944444444444445</v>
+      </c>
+      <c r="L542" s="2" t="n">
+        <v>45928.76224690972</v>
+      </c>
+      <c r="M542" s="2" t="n">
+        <v>45928.76224673611</v>
+      </c>
+      <c r="N542" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O542" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D543" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E543" t="n">
+        <v>1.723842592592592e-07</v>
+      </c>
+      <c r="F543" t="n">
+        <v>2.346064814814815e-08</v>
+      </c>
+      <c r="G543" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H543" t="n">
+        <v>0.8403361344537814</v>
+      </c>
+      <c r="I543" t="n">
+        <v>0.8465909090909092</v>
+      </c>
+      <c r="J543" t="n">
+        <v>0.8388888888888889</v>
+      </c>
+      <c r="K543" t="n">
+        <v>0.1055555555555556</v>
+      </c>
+      <c r="L543" s="2" t="n">
+        <v>45928.78680988426</v>
+      </c>
+      <c r="M543" s="2" t="n">
+        <v>45928.78680969907</v>
+      </c>
+      <c r="N543" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O543" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D544" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E544" t="n">
+        <v>1.723842592592592e-07</v>
+      </c>
+      <c r="F544" t="n">
+        <v>2.346064814814815e-08</v>
+      </c>
+      <c r="G544" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="H544" t="n">
+        <v>0.8146341463414635</v>
+      </c>
+      <c r="I544" t="n">
+        <v>0.8165266106442577</v>
+      </c>
+      <c r="J544" t="n">
+        <v>0.8138888888888889</v>
+      </c>
+      <c r="K544" t="n">
+        <v>0.8138888888888889</v>
+      </c>
+      <c r="L544" s="2" t="n">
+        <v>45928.78680988426</v>
+      </c>
+      <c r="M544" s="2" t="n">
+        <v>45928.78680969907</v>
+      </c>
+      <c r="N544" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O544" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D545" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E545" t="n">
+        <v>1.684490740740741e-07</v>
+      </c>
+      <c r="F545" t="n">
+        <v>2.4375e-08</v>
+      </c>
+      <c r="G545" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="H545" t="n">
+        <v>0.8048422597212033</v>
+      </c>
+      <c r="I545" t="n">
+        <v>0.7982954545454546</v>
+      </c>
+      <c r="J545" t="n">
+        <v>0.823076923076923</v>
+      </c>
+      <c r="K545" t="n">
+        <v>0.1323076923076923</v>
+      </c>
+      <c r="L545" s="2" t="n">
+        <v>45928.78913988426</v>
+      </c>
+      <c r="M545" s="2" t="n">
+        <v>45928.78913969907</v>
+      </c>
+      <c r="N545" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O545" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D546" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E546" t="n">
+        <v>1.684490740740741e-07</v>
+      </c>
+      <c r="F546" t="n">
+        <v>2.4375e-08</v>
+      </c>
+      <c r="G546" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="H546" t="n">
+        <v>0.8606016140865738</v>
+      </c>
+      <c r="I546" t="n">
+        <v>0.8522727272727273</v>
+      </c>
+      <c r="J546" t="n">
+        <v>0.8815384615384616</v>
+      </c>
+      <c r="K546" t="n">
+        <v>0.8815384615384615</v>
+      </c>
+      <c r="L546" s="2" t="n">
+        <v>45928.78913988426</v>
+      </c>
+      <c r="M546" s="2" t="n">
+        <v>45928.78913969907</v>
+      </c>
+      <c r="N546" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O546" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D547" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E547" t="n">
+        <v>3.848726851851851e-07</v>
+      </c>
+      <c r="F547" t="n">
+        <v>1.277199074074074e-07</v>
+      </c>
+      <c r="G547" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="H547" t="n">
+        <v>0.6955128205128205</v>
+      </c>
+      <c r="I547" t="n">
+        <v>0.7070707070707071</v>
+      </c>
+      <c r="J547" t="n">
+        <v>0.6892307692307692</v>
+      </c>
+      <c r="K547" t="n">
+        <v>0.1384615384615385</v>
+      </c>
+      <c r="L547" s="2" t="n">
+        <v>45928.79124894676</v>
+      </c>
+      <c r="M547" s="2" t="n">
+        <v>45928.79124855324</v>
+      </c>
+      <c r="N547" t="inlineStr"/>
+      <c r="O547" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D548" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E548" t="n">
+        <v>3.842476851851852e-07</v>
+      </c>
+      <c r="F548" t="n">
+        <v>1.233101851851852e-07</v>
+      </c>
+      <c r="G548" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="H548" t="n">
+        <v>0.7441077441077442</v>
+      </c>
+      <c r="I548" t="n">
+        <v>0.7854406130268199</v>
+      </c>
+      <c r="J548" t="n">
+        <v>0.7292307692307692</v>
+      </c>
+      <c r="K548" t="n">
+        <v>0.1261538461538461</v>
+      </c>
+      <c r="L548" s="2" t="n">
+        <v>45928.79177569444</v>
+      </c>
+      <c r="M548" s="2" t="n">
+        <v>45928.79177530092</v>
+      </c>
+      <c r="N548" t="inlineStr"/>
+      <c r="O548" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D549" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E549" t="n">
+        <v>3.769328703703704e-07</v>
+      </c>
+      <c r="F549" t="n">
+        <v>1.259722222222222e-07</v>
+      </c>
+      <c r="G549" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H549" t="n">
+        <v>0.7964285714285715</v>
+      </c>
+      <c r="I549" t="n">
+        <v>0.8541666666666667</v>
+      </c>
+      <c r="J549" t="n">
+        <v>0.7724358974358975</v>
+      </c>
+      <c r="K549" t="n">
+        <v>0.108974358974359</v>
+      </c>
+      <c r="L549" s="2" t="n">
+        <v>45928.79347611111</v>
+      </c>
+      <c r="M549" s="2" t="n">
+        <v>45928.79347572917</v>
+      </c>
+      <c r="N549" t="inlineStr"/>
+      <c r="O549" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D550" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E550" t="n">
+        <v>3.769328703703704e-07</v>
+      </c>
+      <c r="F550" t="n">
+        <v>1.259722222222222e-07</v>
+      </c>
+      <c r="G550" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="H550" t="n">
+        <v>0.5622119815668203</v>
+      </c>
+      <c r="I550" t="n">
+        <v>0.8611111111111112</v>
+      </c>
+      <c r="J550" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="K550" t="n">
+        <v>0.5833333333333333</v>
+      </c>
+      <c r="L550" s="2" t="n">
+        <v>45928.79347611111</v>
+      </c>
+      <c r="M550" s="2" t="n">
+        <v>45928.79347572917</v>
+      </c>
+      <c r="N550" t="inlineStr">
+        <is>
+          <t>no Calculator</t>
+        </is>
+      </c>
+      <c r="O550" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D551" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E551" t="n">
+        <v>3.687962962962963e-07</v>
+      </c>
+      <c r="F551" t="n">
+        <v>1.204398148148148e-07</v>
+      </c>
+      <c r="G551" t="n">
+        <v>0.7631578947368421</v>
+      </c>
+      <c r="H551" t="n">
+        <v>0.7317647058823529</v>
+      </c>
+      <c r="I551" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="J551" t="n">
+        <v>0.7231884057971014</v>
+      </c>
+      <c r="K551" t="n">
+        <v>0.1449275362318841</v>
+      </c>
+      <c r="L551" s="2" t="n">
+        <v>45928.79982484954</v>
+      </c>
+      <c r="M551" s="2" t="n">
+        <v>45928.79982446759</v>
+      </c>
+      <c r="N551" t="inlineStr"/>
+      <c r="O551" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D552" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E552" t="n">
+        <v>3.687962962962963e-07</v>
+      </c>
+      <c r="F552" t="n">
+        <v>1.204398148148148e-07</v>
+      </c>
+      <c r="G552" t="n">
+        <v>0.6052631578947368</v>
+      </c>
+      <c r="H552" t="n">
+        <v>0.3770491803278688</v>
+      </c>
+      <c r="I552" t="n">
+        <v>0.3026315789473684</v>
+      </c>
+      <c r="J552" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K552" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L552" s="2" t="n">
+        <v>45928.79982484954</v>
+      </c>
+      <c r="M552" s="2" t="n">
+        <v>45928.79982446759</v>
+      </c>
+      <c r="N552" t="inlineStr">
+        <is>
+          <t>no Calculator</t>
+        </is>
+      </c>
+      <c r="O552" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D553" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E553" t="n">
+        <v>0.0002392332060185185</v>
+      </c>
+      <c r="F553" t="n">
+        <v>2.879861111111111e-07</v>
+      </c>
+      <c r="G553" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="H553" t="n">
+        <v>0.6955128205128205</v>
+      </c>
+      <c r="I553" t="n">
+        <v>0.7070707070707071</v>
+      </c>
+      <c r="J553" t="n">
+        <v>0.6892307692307692</v>
+      </c>
+      <c r="K553" t="n">
+        <v>0.1015384615384615</v>
+      </c>
+      <c r="L553" s="2" t="n">
+        <v>45928.80027903935</v>
+      </c>
+      <c r="M553" s="2" t="n">
+        <v>45928.80003978009</v>
+      </c>
+      <c r="N553" t="inlineStr"/>
+      <c r="O553" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D554" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E554" t="n">
+        <v>0.0007404988541666667</v>
+      </c>
+      <c r="F554" t="n">
+        <v>0.0001363046412037037</v>
+      </c>
+      <c r="G554" t="n">
+        <v>0.9210526315789473</v>
+      </c>
+      <c r="H554" t="n">
+        <v>0.8863409770687936</v>
+      </c>
+      <c r="I554" t="n">
+        <v>0.9041666666666667</v>
+      </c>
+      <c r="J554" t="n">
+        <v>0.8716475095785441</v>
+      </c>
+      <c r="K554" t="n">
+        <v>0.07279693486590039</v>
+      </c>
+      <c r="L554" s="2" t="n">
+        <v>45928.80211172454</v>
+      </c>
+      <c r="M554" s="2" t="n">
+        <v>45928.80137120371</v>
+      </c>
+      <c r="N554" t="inlineStr"/>
+      <c r="O554" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D555" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E555" t="n">
+        <v>6.181255787037037e-05</v>
+      </c>
+      <c r="F555" t="n">
+        <v>2.778472222222222e-07</v>
+      </c>
+      <c r="G555" t="n">
+        <v>0.6578947368421053</v>
+      </c>
+      <c r="H555" t="n">
+        <v>0.6125490196078431</v>
+      </c>
+      <c r="I555" t="n">
+        <v>0.6101190476190476</v>
+      </c>
+      <c r="J555" t="n">
+        <v>0.6245791245791246</v>
+      </c>
+      <c r="K555" t="n">
+        <v>0.2356902356902357</v>
+      </c>
+      <c r="L555" s="2" t="n">
+        <v>45928.80414511574</v>
+      </c>
+      <c r="M555" s="2" t="n">
+        <v>45928.80408327546</v>
+      </c>
+      <c r="N555" t="inlineStr"/>
+      <c r="O555" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>SVC_WeisfeilerLehman_5_precomputed</t>
+        </is>
+      </c>
+      <c r="D556" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E556" t="n">
+        <v>6.181255787037037e-05</v>
+      </c>
+      <c r="F556" t="n">
+        <v>2.778472222222222e-07</v>
+      </c>
+      <c r="G556" t="n">
+        <v>0.7631578947368421</v>
+      </c>
+      <c r="H556" t="n">
+        <v>0.6590229312063809</v>
+      </c>
+      <c r="I556" t="n">
+        <v>0.7239583333333333</v>
+      </c>
+      <c r="J556" t="n">
+        <v>0.6447811447811448</v>
+      </c>
+      <c r="K556" t="n">
+        <v>0.6447811447811448</v>
+      </c>
+      <c r="L556" s="2" t="n">
+        <v>45928.80414511574</v>
+      </c>
+      <c r="M556" s="2" t="n">
+        <v>45928.80408327546</v>
+      </c>
+      <c r="N556" t="inlineStr">
+        <is>
+          <t>no Calculator</t>
+        </is>
+      </c>
+      <c r="O556" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_minkowski</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_minkowski</t>
+        </is>
+      </c>
+      <c r="D557" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E557" t="n">
+        <v>2.802430555555556e-07</v>
+      </c>
+      <c r="F557" t="n">
+        <v>3.234953703703704e-08</v>
+      </c>
+      <c r="G557" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H557" t="n">
+        <v>0.8173076923076923</v>
+      </c>
+      <c r="I557" t="n">
+        <v>0.8173076923076923</v>
+      </c>
+      <c r="J557" t="n">
+        <v>0.8173076923076923</v>
+      </c>
+      <c r="K557" t="n">
+        <v>0.1458333333333333</v>
+      </c>
+      <c r="L557" s="2" t="n">
+        <v>45928.87730640046</v>
+      </c>
+      <c r="M557" s="2" t="n">
+        <v>45928.87730611111</v>
+      </c>
+      <c r="N557" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O557" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_minkowski</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_minkowski</t>
+        </is>
+      </c>
+      <c r="D558" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E558" t="n">
+        <v>1.338888888888889e-07</v>
+      </c>
+      <c r="F558" t="n">
+        <v>2.815972222222222e-08</v>
+      </c>
+      <c r="G558" t="n">
+        <v>0.7631578947368421</v>
+      </c>
+      <c r="H558" t="n">
+        <v>0.7490829053558328</v>
+      </c>
+      <c r="I558" t="n">
+        <v>0.7463768115942029</v>
+      </c>
+      <c r="J558" t="n">
+        <v>0.7529761904761905</v>
+      </c>
+      <c r="K558" t="n">
+        <v>0.1592261904761905</v>
+      </c>
+      <c r="L558" s="2" t="n">
+        <v>45928.87948652778</v>
+      </c>
+      <c r="M558" s="2" t="n">
+        <v>45928.87948638889</v>
+      </c>
+      <c r="N558" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O558" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_minkowski</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_minkowski</t>
+        </is>
+      </c>
+      <c r="D559" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E559" t="n">
+        <v>1.383796296296296e-07</v>
+      </c>
+      <c r="F559" t="n">
+        <v>2.87037037037037e-08</v>
+      </c>
+      <c r="G559" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="H559" t="n">
+        <v>0.8869047619047619</v>
+      </c>
+      <c r="I559" t="n">
+        <v>0.8869047619047619</v>
+      </c>
+      <c r="J559" t="n">
+        <v>0.8869047619047619</v>
+      </c>
+      <c r="K559" t="n">
+        <v>0.04613095238095237</v>
+      </c>
+      <c r="L559" s="2" t="n">
+        <v>45928.88045356482</v>
+      </c>
+      <c r="M559" s="2" t="n">
+        <v>45928.88045341435</v>
+      </c>
+      <c r="N559" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O559" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_(5)-NN_Classifier_minkowski</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>(5)-NN_Classifier_minkowski</t>
+        </is>
+      </c>
+      <c r="D560" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E560" t="n">
+        <v>1.383796296296296e-07</v>
+      </c>
+      <c r="F560" t="n">
+        <v>2.87037037037037e-08</v>
+      </c>
+      <c r="G560" t="n">
+        <v>0.9210526315789473</v>
+      </c>
+      <c r="H560" t="n">
+        <v>0.9138321995464853</v>
+      </c>
+      <c r="I560" t="n">
+        <v>0.9215384615384616</v>
+      </c>
+      <c r="J560" t="n">
+        <v>0.9077380952380952</v>
+      </c>
+      <c r="K560" t="n">
+        <v>0.9077380952380953</v>
+      </c>
+      <c r="L560" s="2" t="n">
+        <v>45928.88045356482</v>
+      </c>
+      <c r="M560" s="2" t="n">
+        <v>45928.88045341435</v>
+      </c>
+      <c r="N560" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O560" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_GED-KNN</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>GED-KNN</t>
+        </is>
+      </c>
+      <c r="D561" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E561" t="n">
+        <v>2.49375e-07</v>
+      </c>
+      <c r="F561" t="n">
+        <v>6.673611111111111e-08</v>
+      </c>
+      <c r="G561" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="H561" t="n">
+        <v>0.7913725490196079</v>
+      </c>
+      <c r="I561" t="n">
+        <v>0.8164983164983165</v>
+      </c>
+      <c r="J561" t="n">
+        <v>0.7797619047619048</v>
+      </c>
+      <c r="K561" t="n">
+        <v>0.06845238095238096</v>
+      </c>
+      <c r="L561" s="2" t="n">
+        <v>45929.00809332176</v>
+      </c>
+      <c r="M561" s="2" t="n">
+        <v>45929.00809305556</v>
+      </c>
+      <c r="N561" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O561" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_GED-KNN</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>GED-KNN</t>
+        </is>
+      </c>
+      <c r="D562" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E562" t="n">
+        <v>2.49375e-07</v>
+      </c>
+      <c r="F562" t="n">
+        <v>6.673611111111111e-08</v>
+      </c>
+      <c r="G562" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H562" t="n">
+        <v>0.8173076923076923</v>
+      </c>
+      <c r="I562" t="n">
+        <v>0.8607142857142858</v>
+      </c>
+      <c r="J562" t="n">
+        <v>0.8005952380952381</v>
+      </c>
+      <c r="K562" t="n">
+        <v>0.8005952380952381</v>
+      </c>
+      <c r="L562" s="2" t="n">
+        <v>45929.00809332176</v>
+      </c>
+      <c r="M562" s="2" t="n">
+        <v>45929.00809305556</v>
+      </c>
+      <c r="N562" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O562" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_GED-KNN</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>GED-KNN</t>
+        </is>
+      </c>
+      <c r="D563" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E563" t="n">
+        <v>2.568981481481482e-07</v>
+      </c>
+      <c r="F563" t="n">
+        <v>6.976851851851852e-08</v>
+      </c>
+      <c r="G563" t="n">
+        <v>0.9210526315789473</v>
+      </c>
+      <c r="H563" t="n">
+        <v>0.919661733615222</v>
+      </c>
+      <c r="I563" t="n">
+        <v>0.9166666666666667</v>
+      </c>
+      <c r="J563" t="n">
+        <v>0.9347826086956521</v>
+      </c>
+      <c r="K563" t="n">
+        <v>0.04057971014492753</v>
+      </c>
+      <c r="L563" s="2" t="n">
+        <v>45929.0134781713</v>
+      </c>
+      <c r="M563" s="2" t="n">
+        <v>45929.01347790509</v>
+      </c>
+      <c r="N563" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O563" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_GED-KNN</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>GED-KNN</t>
+        </is>
+      </c>
+      <c r="D564" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E564" t="n">
+        <v>2.568981481481482e-07</v>
+      </c>
+      <c r="F564" t="n">
+        <v>6.976851851851852e-08</v>
+      </c>
+      <c r="G564" t="n">
+        <v>0.9210526315789473</v>
+      </c>
+      <c r="H564" t="n">
+        <v>0.919661733615222</v>
+      </c>
+      <c r="I564" t="n">
+        <v>0.9166666666666667</v>
+      </c>
+      <c r="J564" t="n">
+        <v>0.9347826086956521</v>
+      </c>
+      <c r="K564" t="n">
+        <v>0.9347826086956521</v>
+      </c>
+      <c r="L564" s="2" t="n">
+        <v>45929.0134781713</v>
+      </c>
+      <c r="M564" s="2" t="n">
+        <v>45929.01347790509</v>
+      </c>
+      <c r="N564" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O564" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (random)</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_feature-KNN</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>feature-KNN</t>
+        </is>
+      </c>
+      <c r="D565" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E565" t="n">
+        <v>1.407407407407408e-07</v>
+      </c>
+      <c r="F565" t="n">
+        <v>2.887731481481481e-08</v>
+      </c>
+      <c r="G565" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="H565" t="n">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="I565" t="n">
+        <v>0.764367816091954</v>
+      </c>
+      <c r="J565" t="n">
+        <v>0.7464285714285714</v>
+      </c>
+      <c r="K565" t="n">
+        <v>0.1678571428571428</v>
+      </c>
+      <c r="L565" s="2" t="n">
+        <v>45929.11690835648</v>
+      </c>
+      <c r="M565" s="2" t="n">
+        <v>45929.11690820602</v>
+      </c>
+      <c r="N565" t="inlineStr">
+        <is>
+          <t>Dummy_Calculator</t>
+        </is>
+      </c>
+      <c r="O565" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_feature-KNN</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>feature-KNN</t>
+        </is>
+      </c>
+      <c r="D566" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E566" t="n">
+        <v>1.349537037037037e-07</v>
+      </c>
+      <c r="F566" t="n">
+        <v>3.016203703703704e-08</v>
+      </c>
+      <c r="G566" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="H566" t="n">
+        <v>0.8509803921568628</v>
+      </c>
+      <c r="I566" t="n">
+        <v>0.8446153846153847</v>
+      </c>
+      <c r="J566" t="n">
+        <v>0.858974358974359</v>
+      </c>
+      <c r="K566" t="n">
+        <v>0.06891025641025642</v>
+      </c>
+      <c r="L566" s="2" t="n">
+        <v>45929.11737443287</v>
+      </c>
+      <c r="M566" s="2" t="n">
+        <v>45929.11737429398</v>
+      </c>
+      <c r="N566" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O566" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_feature-KNN</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>feature-KNN</t>
+        </is>
+      </c>
+      <c r="D567" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E567" t="n">
+        <v>1.278472222222222e-07</v>
+      </c>
+      <c r="F567" t="n">
+        <v>2.428240740740741e-08</v>
+      </c>
+      <c r="G567" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H567" t="n">
+        <v>0.8246153846153846</v>
+      </c>
+      <c r="I567" t="n">
+        <v>0.8619528619528619</v>
+      </c>
+      <c r="J567" t="n">
+        <v>0.8115942028985508</v>
+      </c>
+      <c r="K567" t="n">
+        <v>0.1072463768115942</v>
+      </c>
+      <c r="L567" s="2" t="n">
+        <v>45929.12947631945</v>
+      </c>
+      <c r="M567" s="2" t="n">
+        <v>45929.12947618055</v>
+      </c>
+      <c r="N567" t="inlineStr">
+        <is>
+          <t>Dummy_Calculator</t>
+        </is>
+      </c>
+      <c r="O567" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_feature-KNN</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>feature-KNN</t>
+        </is>
+      </c>
+      <c r="D568" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E568" t="n">
+        <v>1.457060185185185e-07</v>
+      </c>
+      <c r="F568" t="n">
+        <v>2.950231481481481e-08</v>
+      </c>
+      <c r="G568" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="H568" t="n">
+        <v>0.8354978354978355</v>
+      </c>
+      <c r="I568" t="n">
+        <v>0.8464285714285715</v>
+      </c>
+      <c r="J568" t="n">
+        <v>0.8265993265993266</v>
+      </c>
+      <c r="K568" t="n">
+        <v>0.1464646464646464</v>
+      </c>
+      <c r="L568" s="2" t="n">
+        <v>45929.12966047454</v>
+      </c>
+      <c r="M568" s="2" t="n">
+        <v>45929.1296603125</v>
+      </c>
+      <c r="N568" t="inlineStr">
+        <is>
+          <t>Dummy_Calculator</t>
+        </is>
+      </c>
+      <c r="O568" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Trivial-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>SVC_Trivial-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D569" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E569" t="n">
+        <v>3.927083333333334e-07</v>
+      </c>
+      <c r="F569" t="n">
+        <v>1.062268518518519e-07</v>
+      </c>
+      <c r="G569" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H569" t="n">
+        <v>0.7964285714285715</v>
+      </c>
+      <c r="I569" t="n">
+        <v>0.8541666666666667</v>
+      </c>
+      <c r="J569" t="n">
+        <v>0.7724358974358975</v>
+      </c>
+      <c r="K569" t="n">
+        <v>0.1442307692307692</v>
+      </c>
+      <c r="L569" s="2" t="n">
+        <v>45929.4713471412</v>
+      </c>
+      <c r="M569" s="2" t="n">
+        <v>45929.47134655093</v>
+      </c>
+      <c r="N569" t="inlineStr">
+        <is>
+          <t>Dummy_Calculator</t>
+        </is>
+      </c>
+      <c r="O569" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Trivial-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>SVC_Trivial-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D570" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E570" t="n">
+        <v>5.867361111111112e-07</v>
+      </c>
+      <c r="F570" t="n">
+        <v>7.52662037037037e-08</v>
+      </c>
+      <c r="G570" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="H570" t="n">
+        <v>0.8354978354978355</v>
+      </c>
+      <c r="I570" t="n">
+        <v>0.8754789272030651</v>
+      </c>
+      <c r="J570" t="n">
+        <v>0.8141025641025641</v>
+      </c>
+      <c r="K570" t="n">
+        <v>0.1105769230769231</v>
+      </c>
+      <c r="L570" s="2" t="n">
+        <v>45929.47242612269</v>
+      </c>
+      <c r="M570" s="2" t="n">
+        <v>45929.47242553241</v>
+      </c>
+      <c r="N570" t="inlineStr">
+        <is>
+          <t>Dummy_Calculator</t>
+        </is>
+      </c>
+      <c r="O570" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Trivial-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>SVC_Trivial-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D571" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E571" t="n">
+        <v>5.867361111111112e-07</v>
+      </c>
+      <c r="F571" t="n">
+        <v>7.52662037037037e-08</v>
+      </c>
+      <c r="G571" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="H571" t="n">
+        <v>0.8441345365053323</v>
+      </c>
+      <c r="I571" t="n">
+        <v>0.8535353535353536</v>
+      </c>
+      <c r="J571" t="n">
+        <v>0.8365384615384616</v>
+      </c>
+      <c r="K571" t="n">
+        <v>0.8365384615384616</v>
+      </c>
+      <c r="L571" s="2" t="n">
+        <v>45929.47242612269</v>
+      </c>
+      <c r="M571" s="2" t="n">
+        <v>45929.47242553241</v>
+      </c>
+      <c r="N571" t="inlineStr">
+        <is>
+          <t>Dummy_Calculator</t>
+        </is>
+      </c>
+      <c r="O571" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (random)</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D572" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E572" t="n">
+        <v>5.80787037037037e-07</v>
+      </c>
+      <c r="F572" t="n">
+        <v>7.84375e-08</v>
+      </c>
+      <c r="G572" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="H572" t="n">
+        <v>0.8606016140865738</v>
+      </c>
+      <c r="I572" t="n">
+        <v>0.8522727272727273</v>
+      </c>
+      <c r="J572" t="n">
+        <v>0.8815384615384616</v>
+      </c>
+      <c r="K572" t="n">
+        <v>0.1676923076923076</v>
+      </c>
+      <c r="L572" s="2" t="n">
+        <v>45929.47335611111</v>
+      </c>
+      <c r="M572" s="2" t="n">
+        <v>45929.47335546296</v>
+      </c>
+      <c r="N572" t="inlineStr">
+        <is>
+          <t>Dummy_Calculator</t>
+        </is>
+      </c>
+      <c r="O572" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D573" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E573" t="n">
+        <v>5.620138888888888e-07</v>
+      </c>
+      <c r="F573" t="n">
+        <v>1.044560185185185e-07</v>
+      </c>
+      <c r="G573" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H573" t="n">
+        <v>0.8303571428571428</v>
+      </c>
+      <c r="I573" t="n">
+        <v>0.8430769230769231</v>
+      </c>
+      <c r="J573" t="n">
+        <v>0.8231884057971014</v>
+      </c>
+      <c r="K573" t="n">
+        <v>0.1202898550724638</v>
+      </c>
+      <c r="L573" s="2" t="n">
+        <v>45929.47446090278</v>
+      </c>
+      <c r="M573" s="2" t="n">
+        <v>45929.47446027778</v>
+      </c>
+      <c r="N573" t="inlineStr">
+        <is>
+          <t>Dummy_Calculator</t>
+        </is>
+      </c>
+      <c r="O573" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Diffusion-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>SVC_Diffusion-GED_precomputed</t>
+        </is>
+      </c>
+      <c r="D574" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E574" s="3" t="n">
+        <v>5.620138888888888e-07</v>
+      </c>
+      <c r="F574" s="3" t="n">
+        <v>1.044560185185185e-07</v>
+      </c>
+      <c r="G574" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="H574" t="n">
+        <v>0.6801346801346801</v>
+      </c>
+      <c r="I574" t="n">
+        <v>0.7834101382488479</v>
+      </c>
+      <c r="J574" t="n">
+        <v>0.6782608695652175</v>
+      </c>
+      <c r="K574" t="n">
+        <v>0.6782608695652175</v>
+      </c>
+      <c r="L574" s="2" t="n">
+        <v>45929.47446090107</v>
+      </c>
+      <c r="M574" s="2" t="n">
+        <v>45929.47446027776</v>
+      </c>
+      <c r="N574" t="inlineStr">
+        <is>
+          <t>Dummy_Calculator</t>
+        </is>
+      </c>
+      <c r="O574" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (random)</t>
         </is>
       </c>
     </row>

--- a/configs/test_results.xlsx
+++ b/configs/test_results.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O574"/>
+  <dimension ref="A1:O596"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32544,10 +32544,10 @@
       <c r="D574" t="n">
         <v>0.2</v>
       </c>
-      <c r="E574" s="3" t="n">
+      <c r="E574" t="n">
         <v>5.620138888888888e-07</v>
       </c>
-      <c r="F574" s="3" t="n">
+      <c r="F574" t="n">
         <v>1.044560185185185e-07</v>
       </c>
       <c r="G574" t="n">
@@ -32566,10 +32566,10 @@
         <v>0.6782608695652175</v>
       </c>
       <c r="L574" s="2" t="n">
-        <v>45929.47446090107</v>
+        <v>45929.47446090278</v>
       </c>
       <c r="M574" s="2" t="n">
-        <v>45929.47446027776</v>
+        <v>45929.47446027778</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
@@ -32579,6 +32579,1260 @@
       <c r="O574" t="inlineStr">
         <is>
           <t>Hyperparameter Tuning (random)</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_feature-KNN</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>feature-KNN</t>
+        </is>
+      </c>
+      <c r="D575" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E575" t="n">
+        <v>3.266898148148148e-07</v>
+      </c>
+      <c r="F575" t="n">
+        <v>2.87962962962963e-08</v>
+      </c>
+      <c r="G575" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="H575" t="n">
+        <v>0.7172619047619048</v>
+      </c>
+      <c r="I575" t="n">
+        <v>0.7403846153846154</v>
+      </c>
+      <c r="J575" t="n">
+        <v>0.7130681818181819</v>
+      </c>
+      <c r="K575" t="n">
+        <v>0.2471590909090909</v>
+      </c>
+      <c r="L575" s="2" t="n">
+        <v>45934.69965002315</v>
+      </c>
+      <c r="M575" s="2" t="n">
+        <v>45934.6996496875</v>
+      </c>
+      <c r="N575" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O575" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D576" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E576" t="n">
+        <v>3.484722222222222e-07</v>
+      </c>
+      <c r="F576" t="n">
+        <v>2.459490740740741e-08</v>
+      </c>
+      <c r="G576" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="H576" t="n">
+        <v>0.7913725490196079</v>
+      </c>
+      <c r="I576" t="n">
+        <v>0.7980769230769231</v>
+      </c>
+      <c r="J576" t="n">
+        <v>0.7861538461538462</v>
+      </c>
+      <c r="K576" t="n">
+        <v>0.1323076923076923</v>
+      </c>
+      <c r="L576" s="2" t="n">
+        <v>45934.73216295139</v>
+      </c>
+      <c r="M576" s="2" t="n">
+        <v>45934.73216259259</v>
+      </c>
+      <c r="N576" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O576" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_PTC_FR_with_SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D577" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E577" t="n">
+        <v>1.0690625e-06</v>
+      </c>
+      <c r="F577" t="n">
+        <v>4.201388888888889e-08</v>
+      </c>
+      <c r="G577" t="n">
+        <v>0.647887323943662</v>
+      </c>
+      <c r="H577" t="n">
+        <v>0.3931623931623932</v>
+      </c>
+      <c r="I577" t="n">
+        <v>0.323943661971831</v>
+      </c>
+      <c r="J577" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K577" t="n">
+        <v>0.5434782608695652</v>
+      </c>
+      <c r="L577" s="2" t="n">
+        <v>45934.74649184028</v>
+      </c>
+      <c r="M577" s="2" t="n">
+        <v>45934.74649076389</v>
+      </c>
+      <c r="N577" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O577" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_VertexHistogram_rbf</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>SVC_VertexHistogram_rbf</t>
+        </is>
+      </c>
+      <c r="D578" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E578" t="n">
+        <v>5.610362268518519e-05</v>
+      </c>
+      <c r="F578" t="n">
+        <v>3.797453703703704e-08</v>
+      </c>
+      <c r="G578" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="H578" t="n">
+        <v>0.7088122605363985</v>
+      </c>
+      <c r="I578" t="n">
+        <v>0.6902356902356902</v>
+      </c>
+      <c r="J578" t="n">
+        <v>0.76036866359447</v>
+      </c>
+      <c r="K578" t="n">
+        <v>0.1382488479262673</v>
+      </c>
+      <c r="L578" s="2" t="n">
+        <v>45934.77812075231</v>
+      </c>
+      <c r="M578" s="2" t="n">
+        <v>45934.77806451389</v>
+      </c>
+      <c r="N578" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O578" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_EdgeHistogram_rbf</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_rbf</t>
+        </is>
+      </c>
+      <c r="D579" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E579" t="n">
+        <v>1.131828703703704e-07</v>
+      </c>
+      <c r="F579" t="n">
+        <v>2.368055555555556e-08</v>
+      </c>
+      <c r="G579" t="n">
+        <v>0.7105263157894737</v>
+      </c>
+      <c r="H579" t="n">
+        <v>0.672156862745098</v>
+      </c>
+      <c r="I579" t="n">
+        <v>0.7337164750957854</v>
+      </c>
+      <c r="J579" t="n">
+        <v>0.6732954545454546</v>
+      </c>
+      <c r="K579" t="n">
+        <v>0.1619318181818182</v>
+      </c>
+      <c r="L579" s="2" t="n">
+        <v>45934.78180104167</v>
+      </c>
+      <c r="M579" s="2" t="n">
+        <v>45934.78180091435</v>
+      </c>
+      <c r="N579" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O579" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_EdgeHistogram_rbf</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>SVC_EdgeHistogram_rbf</t>
+        </is>
+      </c>
+      <c r="D580" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E580" t="n">
+        <v>1.131828703703704e-07</v>
+      </c>
+      <c r="F580" t="n">
+        <v>2.368055555555556e-08</v>
+      </c>
+      <c r="G580" t="n">
+        <v>0.7105263157894737</v>
+      </c>
+      <c r="H580" t="n">
+        <v>0.672156862745098</v>
+      </c>
+      <c r="I580" t="n">
+        <v>0.7337164750957854</v>
+      </c>
+      <c r="J580" t="n">
+        <v>0.6732954545454546</v>
+      </c>
+      <c r="K580" t="n">
+        <v>0.6732954545454546</v>
+      </c>
+      <c r="L580" s="2" t="n">
+        <v>45934.78180104167</v>
+      </c>
+      <c r="M580" s="2" t="n">
+        <v>45934.78180091435</v>
+      </c>
+      <c r="N580" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O580" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_CombinedHistogram_rbf</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_rbf</t>
+        </is>
+      </c>
+      <c r="D581" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E581" t="n">
+        <v>1.427777777777778e-07</v>
+      </c>
+      <c r="F581" t="n">
+        <v>2.83912037037037e-08</v>
+      </c>
+      <c r="G581" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="H581" t="n">
+        <v>0.8048422597212033</v>
+      </c>
+      <c r="I581" t="n">
+        <v>0.823076923076923</v>
+      </c>
+      <c r="J581" t="n">
+        <v>0.7982954545454546</v>
+      </c>
+      <c r="K581" t="n">
+        <v>0.1789772727272727</v>
+      </c>
+      <c r="L581" s="2" t="n">
+        <v>45934.84572197917</v>
+      </c>
+      <c r="M581" s="2" t="n">
+        <v>45934.8457218287</v>
+      </c>
+      <c r="N581" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O581" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_CombinedHistogram_rbf</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_rbf</t>
+        </is>
+      </c>
+      <c r="D582" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E582" t="n">
+        <v>1.427777777777778e-07</v>
+      </c>
+      <c r="F582" t="n">
+        <v>2.83912037037037e-08</v>
+      </c>
+      <c r="G582" t="n">
+        <v>0.7631578947368421</v>
+      </c>
+      <c r="H582" t="n">
+        <v>0.7414965986394557</v>
+      </c>
+      <c r="I582" t="n">
+        <v>0.7794612794612794</v>
+      </c>
+      <c r="J582" t="n">
+        <v>0.7357954545454546</v>
+      </c>
+      <c r="K582" t="n">
+        <v>0.7357954545454546</v>
+      </c>
+      <c r="L582" s="2" t="n">
+        <v>45934.84572197917</v>
+      </c>
+      <c r="M582" s="2" t="n">
+        <v>45934.8457218287</v>
+      </c>
+      <c r="N582" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O582" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_CombinedHistogram_rbf</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_rbf</t>
+        </is>
+      </c>
+      <c r="D583" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E583" t="n">
+        <v>1.173148148148148e-07</v>
+      </c>
+      <c r="F583" t="n">
+        <v>2.293981481481481e-08</v>
+      </c>
+      <c r="G583" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="H583" t="n">
+        <v>0.7285714285714285</v>
+      </c>
+      <c r="I583" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="J583" t="n">
+        <v>0.7115384615384616</v>
+      </c>
+      <c r="K583" t="n">
+        <v>0.1378205128205128</v>
+      </c>
+      <c r="L583" s="2" t="n">
+        <v>45934.85872717592</v>
+      </c>
+      <c r="M583" s="2" t="n">
+        <v>45934.85872704861</v>
+      </c>
+      <c r="N583" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O583" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_CombinedHistogram_rbf</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_rbf</t>
+        </is>
+      </c>
+      <c r="D584" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E584" t="n">
+        <v>1.173148148148148e-07</v>
+      </c>
+      <c r="F584" t="n">
+        <v>2.293981481481481e-08</v>
+      </c>
+      <c r="G584" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="H584" t="n">
+        <v>0.7285714285714285</v>
+      </c>
+      <c r="I584" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="J584" t="n">
+        <v>0.7115384615384616</v>
+      </c>
+      <c r="K584" t="n">
+        <v>0.7115384615384616</v>
+      </c>
+      <c r="L584" s="2" t="n">
+        <v>45934.85872717592</v>
+      </c>
+      <c r="M584" s="2" t="n">
+        <v>45934.85872704861</v>
+      </c>
+      <c r="N584" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O584" t="inlineStr">
+        <is>
+          <t>Hyperparameter Tuning (grid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_CombinedHistogram_rbf</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>SVC_CombinedHistogram_rbf</t>
+        </is>
+      </c>
+      <c r="D585" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E585" t="n">
+        <v>0.0001553416898148148</v>
+      </c>
+      <c r="F585" t="n">
+        <v>2.109953703703704e-07</v>
+      </c>
+      <c r="G585" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="H585" t="n">
+        <v>0.6801346801346801</v>
+      </c>
+      <c r="I585" t="n">
+        <v>0.7834101382488479</v>
+      </c>
+      <c r="J585" t="n">
+        <v>0.6782608695652175</v>
+      </c>
+      <c r="K585" t="n">
+        <v>0.1318840579710145</v>
+      </c>
+      <c r="L585" s="2" t="n">
+        <v>45934.86840295139</v>
+      </c>
+      <c r="M585" s="2" t="n">
+        <v>45934.86824746527</v>
+      </c>
+      <c r="N585" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O585" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_feature-KNN</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>feature-KNN</t>
+        </is>
+      </c>
+      <c r="D586" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E586" t="n">
+        <v>4.058217592592592e-07</v>
+      </c>
+      <c r="F586" t="n">
+        <v>4.969907407407407e-08</v>
+      </c>
+      <c r="G586" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="H586" t="n">
+        <v>0.7797101449275362</v>
+      </c>
+      <c r="I586" t="n">
+        <v>0.7797101449275362</v>
+      </c>
+      <c r="J586" t="n">
+        <v>0.7797101449275362</v>
+      </c>
+      <c r="K586" t="n">
+        <v>0.136231884057971</v>
+      </c>
+      <c r="L586" s="2" t="n">
+        <v>45934.87197950231</v>
+      </c>
+      <c r="M586" s="2" t="n">
+        <v>45934.87197908565</v>
+      </c>
+      <c r="N586" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O586" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_feature-KNN</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>feature-KNN</t>
+        </is>
+      </c>
+      <c r="D587" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E587" t="n">
+        <v>4.006828703703703e-07</v>
+      </c>
+      <c r="F587" t="n">
+        <v>4.663194444444444e-08</v>
+      </c>
+      <c r="G587" t="n">
+        <v>0.7631578947368421</v>
+      </c>
+      <c r="H587" t="n">
+        <v>0.7548387096774194</v>
+      </c>
+      <c r="I587" t="n">
+        <v>0.7579710144927536</v>
+      </c>
+      <c r="J587" t="n">
+        <v>0.7528409090909092</v>
+      </c>
+      <c r="K587" t="n">
+        <v>0.1207386363636364</v>
+      </c>
+      <c r="L587" s="2" t="n">
+        <v>45934.87640118055</v>
+      </c>
+      <c r="M587" s="2" t="n">
+        <v>45934.87640077547</v>
+      </c>
+      <c r="N587" t="inlineStr">
+        <is>
+          <t>Dummy_Calculator</t>
+        </is>
+      </c>
+      <c r="O587" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_feature-KNN</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>feature-KNN</t>
+        </is>
+      </c>
+      <c r="D588" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E588" t="n">
+        <v>0.0003254243981481482</v>
+      </c>
+      <c r="F588" t="n">
+        <v>8.603979166666666e-05</v>
+      </c>
+      <c r="G588" t="n">
+        <v>0.9210526315789473</v>
+      </c>
+      <c r="H588" t="n">
+        <v>0.9105882352941177</v>
+      </c>
+      <c r="I588" t="n">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="J588" t="n">
+        <v>0.8928571428571428</v>
+      </c>
+      <c r="K588" t="n">
+        <v>0.0193452380952381</v>
+      </c>
+      <c r="L588" s="2" t="n">
+        <v>45934.88721842592</v>
+      </c>
+      <c r="M588" s="2" t="n">
+        <v>45934.88689296296</v>
+      </c>
+      <c r="N588" t="inlineStr">
+        <is>
+          <t>Dummy_Calculator</t>
+        </is>
+      </c>
+      <c r="O588" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_feature-KNN</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>feature-KNN</t>
+        </is>
+      </c>
+      <c r="D589" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E589" t="n">
+        <v>7.455092592592592e-07</v>
+      </c>
+      <c r="F589" t="n">
+        <v>5.053240740740741e-08</v>
+      </c>
+      <c r="G589" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="H589" t="n">
+        <v>0.8441345365053323</v>
+      </c>
+      <c r="I589" t="n">
+        <v>0.9137931034482758</v>
+      </c>
+      <c r="J589" t="n">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="K589" t="n">
+        <v>0.06249999999999999</v>
+      </c>
+      <c r="L589" s="2" t="n">
+        <v>45934.88872850694</v>
+      </c>
+      <c r="M589" s="2" t="n">
+        <v>45934.88872775463</v>
+      </c>
+      <c r="N589" t="inlineStr">
+        <is>
+          <t>Dummy_Calculator</t>
+        </is>
+      </c>
+      <c r="O589" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>SVC_Hybrid-Prototype-GED_poly</t>
+        </is>
+      </c>
+      <c r="D590" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E590" t="n">
+        <v>1.077604166666667e-06</v>
+      </c>
+      <c r="F590" t="n">
+        <v>2.515277777777778e-07</v>
+      </c>
+      <c r="G590" t="n">
+        <v>0.7105263157894737</v>
+      </c>
+      <c r="H590" t="n">
+        <v>0.6933235509904623</v>
+      </c>
+      <c r="I590" t="n">
+        <v>0.691304347826087</v>
+      </c>
+      <c r="J590" t="n">
+        <v>0.6964285714285714</v>
+      </c>
+      <c r="K590" t="n">
+        <v>0.2261904761904762</v>
+      </c>
+      <c r="L590" s="2" t="n">
+        <v>45934.98598952546</v>
+      </c>
+      <c r="M590" s="2" t="n">
+        <v>45934.98598822916</v>
+      </c>
+      <c r="N590" t="inlineStr">
+        <is>
+          <t>Dummy_Calculator</t>
+        </is>
+      </c>
+      <c r="O590" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D591" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E591" t="n">
+        <v>4.554085648148148e-06</v>
+      </c>
+      <c r="F591" t="n">
+        <v>2.150150462962963e-06</v>
+      </c>
+      <c r="G591" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H591" t="n">
+        <v>0.7964285714285715</v>
+      </c>
+      <c r="I591" t="n">
+        <v>0.7964285714285715</v>
+      </c>
+      <c r="J591" t="n">
+        <v>0.7964285714285715</v>
+      </c>
+      <c r="K591" t="n">
+        <v>0.1321428571428571</v>
+      </c>
+      <c r="L591" s="2" t="n">
+        <v>45935.12126365741</v>
+      </c>
+      <c r="M591" s="2" t="n">
+        <v>45935.12125907408</v>
+      </c>
+      <c r="N591" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O591" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D592" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E592" t="n">
+        <v>4.452719907407407e-06</v>
+      </c>
+      <c r="F592" t="n">
+        <v>3.83212962962963e-06</v>
+      </c>
+      <c r="G592" t="n">
+        <v>0.7105263157894737</v>
+      </c>
+      <c r="H592" t="n">
+        <v>0.5832502492522433</v>
+      </c>
+      <c r="I592" t="n">
+        <v>0.8428571428571429</v>
+      </c>
+      <c r="J592" t="n">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="K592" t="n">
+        <v>0.1607142857142857</v>
+      </c>
+      <c r="L592" s="2" t="n">
+        <v>45935.12517533565</v>
+      </c>
+      <c r="M592" s="2" t="n">
+        <v>45935.12517086806</v>
+      </c>
+      <c r="N592" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O592" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D593" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E593" t="n">
+        <v>1.090405092592593e-06</v>
+      </c>
+      <c r="F593" t="n">
+        <v>3.418518518518519e-07</v>
+      </c>
+      <c r="G593" t="n">
+        <v>0.7105263157894737</v>
+      </c>
+      <c r="H593" t="n">
+        <v>0.672156862745098</v>
+      </c>
+      <c r="I593" t="n">
+        <v>0.6692307692307693</v>
+      </c>
+      <c r="J593" t="n">
+        <v>0.6762820512820513</v>
+      </c>
+      <c r="K593" t="n">
+        <v>0.1858974358974359</v>
+      </c>
+      <c r="L593" s="2" t="n">
+        <v>45935.12592638889</v>
+      </c>
+      <c r="M593" s="2" t="n">
+        <v>45935.12592527777</v>
+      </c>
+      <c r="N593" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O593" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D594" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E594" t="n">
+        <v>7.539930555555555e-07</v>
+      </c>
+      <c r="F594" t="n">
+        <v>3.489236111111111e-07</v>
+      </c>
+      <c r="G594" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="H594" t="n">
+        <v>0.7076923076923077</v>
+      </c>
+      <c r="I594" t="n">
+        <v>0.7023809523809523</v>
+      </c>
+      <c r="J594" t="n">
+        <v>0.717948717948718</v>
+      </c>
+      <c r="K594" t="n">
+        <v>0.201923076923077</v>
+      </c>
+      <c r="L594" s="2" t="n">
+        <v>45935.12736097222</v>
+      </c>
+      <c r="M594" s="2" t="n">
+        <v>45935.12736019676</v>
+      </c>
+      <c r="N594" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O594" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D595" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E595" t="n">
+        <v>9.521296296296296e-07</v>
+      </c>
+      <c r="F595" t="n">
+        <v>3.660300925925926e-07</v>
+      </c>
+      <c r="G595" t="n">
+        <v>0.7631578947368421</v>
+      </c>
+      <c r="H595" t="n">
+        <v>0.7414965986394557</v>
+      </c>
+      <c r="I595" t="n">
+        <v>0.7461538461538462</v>
+      </c>
+      <c r="J595" t="n">
+        <v>0.7380952380952381</v>
+      </c>
+      <c r="K595" t="n">
+        <v>0.1220238095238095</v>
+      </c>
+      <c r="L595" s="2" t="n">
+        <v>45935.70941407407</v>
+      </c>
+      <c r="M595" s="2" t="n">
+        <v>45935.70941309028</v>
+      </c>
+      <c r="N595" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O595" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>Fucntionality_test_MUTAG_with_SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>MUTAG</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>SVC_Random-Walk-Edit_precomputed</t>
+        </is>
+      </c>
+      <c r="D596" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E596" s="3" t="n">
+        <v>8.128356481481482e-07</v>
+      </c>
+      <c r="F596" s="3" t="n">
+        <v>3.821990740740741e-07</v>
+      </c>
+      <c r="G596" t="n">
+        <v>0.6842105263157895</v>
+      </c>
+      <c r="H596" t="n">
+        <v>0.6761363636363636</v>
+      </c>
+      <c r="I596" t="n">
+        <v>0.6750700280112045</v>
+      </c>
+      <c r="J596" t="n">
+        <v>0.681159420289855</v>
+      </c>
+      <c r="K596" t="n">
+        <v>0.3130434782608695</v>
+      </c>
+      <c r="L596" s="2" t="n">
+        <v>45935.70991768294</v>
+      </c>
+      <c r="M596" s="2" t="n">
+        <v>45935.70991684672</v>
+      </c>
+      <c r="N596" t="inlineStr">
+        <is>
+          <t>GEDLIB_Calculator</t>
+        </is>
+      </c>
+      <c r="O596" t="inlineStr">
+        <is>
+          <t>Simple Train-Test Split</t>
         </is>
       </c>
     </row>
